--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.518</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.962</v>
+        <v>18.907</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1496880017.23</v>
+        <v>-0.975</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1088405.57</v>
+        <v>39.531</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.839</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.608</v>
+        <v>16.317</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>338763.3091391737</v>
+        <v>13.08144473223031</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>887424.0723082295</v>
+        <v>13.15206431081923</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1288659.968344501</v>
+        <v>13.18031895894828</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-373213.1663729146</v>
+        <v>13.07300665437904</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>804843.507889647</v>
+        <v>13.14732534283698</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1086883.787676928</v>
+        <v>13.17895942148423</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>108161.5998472481</v>
+        <v>13.12211858526948</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1987209.122262702</v>
+        <v>13.18203443685414</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2386779.961134655</v>
+        <v>13.20722945060536</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1313363.783282861</v>
+        <v>13.1878628326181</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1446597.262688091</v>
+        <v>13.24586782438811</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1575492.305420459</v>
+        <v>13.28338583639169</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>132528.6737503596</v>
+        <v>13.08325343983919</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>836683.8324193815</v>
+        <v>13.21435689337365</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1208599.562808745</v>
+        <v>13.26607845515022</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>333702.9094496064</v>
+        <v>13.09055087298779</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>902453.3462307984</v>
+        <v>13.19003663922349</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1184714.334636987</v>
+        <v>13.23035935320246</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-261182.2921177295</v>
+        <v>13.06560875074597</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>430428.1588812298</v>
+        <v>13.17095455857216</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>795181.5769063768</v>
+        <v>13.21594306717078</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-70477.34839235476</v>
+        <v>13.13537649790544</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1156519.263948944</v>
+        <v>13.22031493839789</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1598831.864925228</v>
+        <v>13.25622219579407</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>784901.4202163701</v>
+        <v>13.23604816468536</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>998455.4768833544</v>
+        <v>13.32149478701822</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1203776.899842378</v>
+        <v>13.37568440459204</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>85724.24049686108</v>
+        <v>13.10220940596113</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>867714.4384883842</v>
+        <v>13.28616616962166</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1063532.049858165</v>
+        <v>13.36012835116256</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>286637.9943068924</v>
+        <v>13.12225958989603</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>946407.852388999</v>
+        <v>13.23417020303599</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1212516.823783842</v>
+        <v>13.28121725449978</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-246448.0826762367</v>
+        <v>13.10182781703636</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>573014.9474307043</v>
+        <v>13.22102174106736</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>863694.494937866</v>
+        <v>13.27350944031318</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>80460.30442189545</v>
+        <v>13.18055050016538</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1404967.999323846</v>
+        <v>13.27670556144104</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1813018.910159191</v>
+        <v>13.318689734656</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202352.951439639</v>
+        <v>13.3142938080386</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1414627.768635205</v>
+        <v>13.41462747108124</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1577751.036812766</v>
+        <v>13.47721332861615</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>197295.0162070992</v>
+        <v>13.17440728058889</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1134023.00772254</v>
+        <v>13.38073290756773</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1339924.93901306</v>
+        <v>13.46708634116896</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>104368.5591953607</v>
+        <v>13.084373480507</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>971720.3315878203</v>
+        <v>13.16723697011759</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1248768.2865857</v>
+        <v>13.19643248696462</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-172908.8915738302</v>
+        <v>13.08059947220592</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1118061.783240577</v>
+        <v>13.16794991289475</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1244458.061918505</v>
+        <v>13.20059815579358</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>297270.7555218954</v>
+        <v>13.13603555171949</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2161642.908687873</v>
+        <v>13.2064759474908</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2406894.640996897</v>
+        <v>13.23243110532761</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1402041.268449101</v>
+        <v>13.21414716080227</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1696323.378153133</v>
+        <v>13.28317453792959</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1726930.612765928</v>
+        <v>13.32120455505161</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-3119.769669601667</v>
+        <v>13.09168649276108</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>946828.3387596714</v>
+        <v>13.24545667358157</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1112635.116756354</v>
+        <v>13.29904039973961</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>189723.1706967134</v>
+        <v>13.09674194933608</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>865413.4602124714</v>
+        <v>13.21331665250443</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1007768.101071876</v>
+        <v>13.25539122343238</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-137142.7801212938</v>
+        <v>13.07598856114875</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>610922.1741034531</v>
+        <v>13.19960832511223</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>780518.5578036313</v>
+        <v>13.2464878948034</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>123759.7672096507</v>
+        <v>13.15495948973941</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1290266.526114761</v>
+        <v>13.25465576526059</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1546663.757281371</v>
+        <v>13.29201753649798</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>877560.9928071105</v>
+        <v>13.27425731542402</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1085360.212372049</v>
+        <v>13.37553176291426</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1184465.044150735</v>
+        <v>13.43113861909399</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>120815.0790211654</v>
+        <v>13.11776630325744</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>896009.3331160827</v>
+        <v>13.33325996109272</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>982317.0464780405</v>
+        <v>13.41063581325677</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>104317.3508324363</v>
+        <v>13.14270171224466</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>840265.1363579121</v>
+        <v>13.2737969061088</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>975264.9056158969</v>
+        <v>13.32344338213498</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-265440.1971372366</v>
+        <v>13.12722799261031</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>597768.5962483701</v>
+        <v>13.26703545634133</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>717439.1981682703</v>
+        <v>13.3223610551969</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>87304.69806361388</v>
+        <v>13.21612969683047</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1338545.661205128</v>
+        <v>13.32893889684414</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1572796.499802266</v>
+        <v>13.37314420216993</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1041943.101258053</v>
+        <v>13.3753907047699</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1260254.092695283</v>
+        <v>13.49405905836455</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1367452.77877229</v>
+        <v>13.55906435637687</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>83744.4994184892</v>
+        <v>13.21182323401173</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1011729.099298251</v>
+        <v>13.45346126108393</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1113877.913451227</v>
+        <v>13.54481534258144</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>104368.5591953607</v>
+        <v>13.084373480507</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>971720.3315878203</v>
+        <v>13.16723697011759</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1248768.2865857</v>
+        <v>13.19643248696462</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-172908.8915738302</v>
+        <v>13.08059947220592</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1118061.783240577</v>
+        <v>13.16794991289475</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1244458.061918505</v>
+        <v>13.20059815579358</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>297270.7555218954</v>
+        <v>13.13603555171949</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2161642.908687873</v>
+        <v>13.2064759474908</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2406894.640996897</v>
+        <v>13.23243110532761</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1402041.268449101</v>
+        <v>13.21414716080227</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1696323.378153133</v>
+        <v>13.28317453792959</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1726930.612765928</v>
+        <v>13.32120455505161</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-3119.769669601667</v>
+        <v>13.09168649276108</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>946828.3387596714</v>
+        <v>13.24545667358157</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1112635.116756354</v>
+        <v>13.29904039973961</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>189723.1706967134</v>
+        <v>13.09674194933608</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>865413.4602124714</v>
+        <v>13.21331665250443</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1007768.101071876</v>
+        <v>13.25539122343238</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-137142.7801212938</v>
+        <v>13.07598856114875</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>610922.1741034531</v>
+        <v>13.19960832511223</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>780518.5578036313</v>
+        <v>13.2464878948034</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>123759.7672096507</v>
+        <v>13.15495948973941</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1290266.526114761</v>
+        <v>13.25465576526059</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1546663.757281371</v>
+        <v>13.29201753649798</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>877560.9928071105</v>
+        <v>13.27425731542402</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1085360.212372049</v>
+        <v>13.37553176291426</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1184465.044150735</v>
+        <v>13.43113861909399</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>120815.0790211654</v>
+        <v>13.11776630325744</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>896009.3331160827</v>
+        <v>13.33325996109272</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>982317.0464780405</v>
+        <v>13.41063581325677</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>104317.3508324363</v>
+        <v>13.14270171224466</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>840265.1363579121</v>
+        <v>13.2737969061088</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>975264.9056158969</v>
+        <v>13.32344338213498</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-265440.1971372366</v>
+        <v>13.12722799261031</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>597768.5962483701</v>
+        <v>13.26703545634133</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>717439.1981682703</v>
+        <v>13.3223610551969</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>87304.69806361388</v>
+        <v>13.21612969683047</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1338545.661205128</v>
+        <v>13.32893889684414</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1572796.499802266</v>
+        <v>13.37314420216993</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1041943.101258053</v>
+        <v>13.3753907047699</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1260254.092695283</v>
+        <v>13.49405905836455</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1367452.77877229</v>
+        <v>13.55906435637687</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>83744.4994184892</v>
+        <v>13.21182323401173</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1011729.099298251</v>
+        <v>13.45346126108393</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1113877.913451227</v>
+        <v>13.54481534258144</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>235710.6912372057</v>
+        <v>13.0474780522202</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>455409.0320387536</v>
+        <v>13.1186584153775</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>734648.6167368367</v>
+        <v>13.14695828008397</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-388967.1396689625</v>
+        <v>13.03580098843684</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>382370.3972900975</v>
+        <v>13.11064649079366</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>568000.0757923014</v>
+        <v>13.14231911225003</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-124878.6581467765</v>
+        <v>13.08749994356404</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1328675.45465009</v>
+        <v>13.1478316554146</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1623223.551548569</v>
+        <v>13.17305004846062</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>972879.1865210524</v>
+        <v>13.14548656180967</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>902237.7070854935</v>
+        <v>13.20368806304127</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>996067.1964214528</v>
+        <v>13.24121629769923</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>162470.983252927</v>
+        <v>13.03913880526055</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>478863.4270846429</v>
+        <v>13.17131055782377</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>746456.0374554631</v>
+        <v>13.22311748591995</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>204852.6379243098</v>
+        <v>13.04936962656705</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>590038.1595726027</v>
+        <v>13.14974936018024</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>804469.8312851829</v>
+        <v>13.19020900657561</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-346703.6501081123</v>
+        <v>13.02013932795492</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>126835.6853249639</v>
+        <v>13.12635626086709</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>435411.8966437252</v>
+        <v>13.17148059429049</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>713206.8759406665</v>
+        <v>13.17887277178476</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1095218.214544618</v>
+        <v>13.21488013687391</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>525277.847241848</v>
+        <v>13.1847648826283</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>622420.795441546</v>
+        <v>13.27068262776608</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>809150.7171691547</v>
+        <v>13.32499200191446</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>12981.85015930762</v>
+        <v>13.04868905738726</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>572639.0337069689</v>
+        <v>13.23432478565189</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>720549.5072283044</v>
+        <v>13.3085451929465</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>284634.8301746976</v>
+        <v>13.08528177521629</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>786153.1596183681</v>
+        <v>13.19834284035365</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>980196.1663535489</v>
+        <v>13.24564108229078</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-324859.7446109597</v>
+        <v>13.06075879355779</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>315692.6778014314</v>
+        <v>13.18110775821219</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>542672.2400039448</v>
+        <v>13.2338591852974</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-71313.92199617272</v>
+        <v>13.14281031824019</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1059068.181003833</v>
+        <v>13.23988646691382</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1399398.632256133</v>
+        <v>13.28207414743003</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>986659.5930038106</v>
+        <v>13.26878032556769</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1102374.648003088</v>
+        <v>13.36989762544185</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1237543.274569197</v>
+        <v>13.43273305883375</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>143268.693724517</v>
+        <v>13.12648795628069</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>892792.618320968</v>
+        <v>13.33495231964184</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1044089.91030529</v>
+        <v>13.42177691034177</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-75455.12488618839</v>
+        <v>13.09324279823903</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>702495.8236747237</v>
+        <v>13.16465464002537</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1046927.765218581</v>
+        <v>13.19268738438601</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-463318.0000522553</v>
+        <v>13.08674959453384</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>945218.0954906978</v>
+        <v>13.1619553523861</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1159575.562619833</v>
+        <v>13.1933377973469</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>18775.56073008317</v>
+        <v>13.13517790848528</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>2143765.189700649</v>
+        <v>13.19581533045332</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>2472428.55845399</v>
+        <v>13.22080675577325</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1229154.85223224</v>
+        <v>13.20416666130271</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1449025.732701766</v>
+        <v>13.26327844713904</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1525710.521644101</v>
+        <v>13.30052840730881</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>-169406.5186714716</v>
+        <v>13.09920324583423</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>711764.8344012173</v>
+        <v>13.23175622522149</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1001940.093129453</v>
+        <v>13.28306799134129</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>257383.4690973361</v>
+        <v>13.10948211108729</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1010173.176236165</v>
+        <v>13.2100224541136</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1196901.038938203</v>
+        <v>13.25001895342993</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>-247141.5998082047</v>
+        <v>13.08733745889556</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>638973.3080801438</v>
+        <v>13.19386412836522</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>903829.9375113428</v>
+        <v>13.23848245060358</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1420715.782107711</v>
+        <v>13.24191024083113</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1759919.376668945</v>
+        <v>13.27751786425907</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>872847.9111933371</v>
+        <v>13.26181105913631</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1170141.182703939</v>
+        <v>13.34872199338952</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1311795.670933045</v>
+        <v>13.40250771286664</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>66240.6473866741</v>
+        <v>13.1275316331819</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1007046.389275983</v>
+        <v>13.31341846342701</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1108035.208193072</v>
+        <v>13.38677657892543</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>141669.7764786</v>
+        <v>13.14121185494527</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>934806.3997881063</v>
+        <v>13.25418139851772</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1126990.826452599</v>
+        <v>13.30089742733751</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-355483.7348127842</v>
+        <v>13.12353006030059</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>602770.4078896069</v>
+        <v>13.24390891791042</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>820382.7004285259</v>
+        <v>13.29602054322329</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-3219.594629659058</v>
+        <v>13.20116194117782</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1466876.621515499</v>
+        <v>13.29828087535881</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1799390.006163988</v>
+        <v>13.33996068768064</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1193705.319963119</v>
+        <v>13.34000678464417</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1468653.096687614</v>
+        <v>13.44181760670246</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1580766.460863659</v>
+        <v>13.50398691215918</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>120474.6197457689</v>
+        <v>13.19970511390468</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1172838.317276653</v>
+        <v>13.40796580165489</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1309963.090408597</v>
+        <v>13.4937070023251</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>-154460.3273492988</v>
+        <v>13.07188922232181</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>278759.8040394919</v>
+        <v>13.18166038339373</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>411009.985166718</v>
+        <v>13.22068786611111</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-162070.1663126119</v>
+        <v>13.06660317818819</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>569973.0934607451</v>
+        <v>13.18231698355387</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>597884.6360599538</v>
+        <v>13.22598259234658</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>84252.00221175133</v>
+        <v>13.14021775678046</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1141012.462232187</v>
+        <v>13.23354064648553</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1233158.50815141</v>
+        <v>13.26826162276477</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>615517.8118002876</v>
+        <v>13.2425494828483</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>746563.5653644494</v>
+        <v>13.33432667757152</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>756752.9646961731</v>
+        <v>13.38541401468639</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-188915.4087904124</v>
+        <v>13.08194001724191</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>275825.3568196411</v>
+        <v>13.28563088055363</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>358534.7178669991</v>
+        <v>13.3571742846656</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>153211.0429166198</v>
+        <v>13.09888460808551</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>583678.4248778978</v>
+        <v>13.25333677462338</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>612690.3125022635</v>
+        <v>13.30937032872418</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-52920.01412169353</v>
+        <v>13.07195401450966</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>459541.5979643774</v>
+        <v>13.2357397436335</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>493649.4230730134</v>
+        <v>13.29819858262718</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>155075.4499269801</v>
+        <v>13.17600979681252</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>909611.0644743964</v>
+        <v>13.30811205203867</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>987146.1952328908</v>
+        <v>13.35789626374643</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>542213.2345782211</v>
+        <v>13.3351989956303</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>709034.831933554</v>
+        <v>13.4698286016521</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>729416.7566444752</v>
+        <v>13.54420329828047</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>107741.9908818196</v>
+        <v>13.12987461413124</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>603850.0041513644</v>
+        <v>13.41537407528357</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>598425.9789559781</v>
+        <v>13.51830071978239</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>58250.93353568428</v>
+        <v>13.15951949985371</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-186707.5180031913</v>
+        <v>13.13984506508184</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>370448.1232304351</v>
+        <v>13.32488845975643</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>378935.4052146049</v>
+        <v>13.39842367499858</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>55563.26432387708</v>
+        <v>13.25689559247002</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>839208.703388496</v>
+        <v>13.40621744854172</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>906733.0493232772</v>
+        <v>13.46497682863324</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>605932.8045797548</v>
+        <v>13.46879725823302</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>761709.0115259611</v>
+        <v>13.62628798134484</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>763547.2545063104</v>
+        <v>13.71297856397848</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>49759.30030403732</v>
+        <v>13.25421699174722</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>621475.5396999185</v>
+        <v>13.57404389393214</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>622583.2922568584</v>
+        <v>13.69530018054487</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-125885.5721204814</v>
+        <v>13.04174741853805</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27950.32073396878</v>
+        <v>13.14895241223664</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>191414.9622553687</v>
+        <v>13.18873097533896</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-390071.2832991306</v>
+        <v>13.03068152885684</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>55289.00696823178</v>
+        <v>13.14351860707288</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>125268.4896827815</v>
+        <v>13.18803698035603</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-256523.2971743812</v>
+        <v>13.10603808406641</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>495990.7079072971</v>
+        <v>13.19702079311391</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>633479.2642031597</v>
+        <v>13.23243141539312</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>417144.4227741634</v>
+        <v>13.19973561924801</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>436712.8584360603</v>
+        <v>13.2878816025067</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>475904.7885648686</v>
+        <v>13.33987736105388</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>-136080.2509408231</v>
+        <v>13.04019872783016</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>99116.22589927402</v>
+        <v>13.23919099830908</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>239121.1539374851</v>
+        <v>13.31212105200971</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>83189.97033203687</v>
+        <v>13.04791561654122</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>296546.9429686144</v>
+        <v>13.19895358276103</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>411263.4321714662</v>
+        <v>13.2560911551584</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-161150.4333672034</v>
+        <v>13.01258358473664</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>120472.9474247594</v>
+        <v>13.1725418094873</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>244302.8319794956</v>
+        <v>13.23625467963509</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-52846.92195525739</v>
+        <v>13.11957853006337</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>459979.2760384721</v>
+        <v>13.2485671797073</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>630556.0464252182</v>
+        <v>13.2993660699995</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>349648.9636147828</v>
+        <v>13.26455648023291</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>418475.6188622682</v>
+        <v>13.39438488343283</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>490812.2526860272</v>
+        <v>13.47012776586802</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36209.2746523892</v>
+        <v>13.06055602068368</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>339084.2385377946</v>
+        <v>13.33980214126944</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>418192.4730167869</v>
+        <v>13.44477240329014</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>69897.26712831054</v>
+        <v>13.10877264633847</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>364729.0323815357</v>
+        <v>13.2788746465253</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>463423.6094445457</v>
+        <v>13.34596110816284</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-155131.2600885736</v>
+        <v>13.08088084179349</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>234125.0405041678</v>
+        <v>13.26208796651563</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>313922.3730657734</v>
+        <v>13.33689951155524</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>19411.29038157119</v>
+        <v>13.20084542726982</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>627140.2715180019</v>
+        <v>13.34704643499579</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>768549.0342211887</v>
+        <v>13.4068384591966</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>532914.164385499</v>
+        <v>13.39870448836007</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>616702.6763681606</v>
+        <v>13.55135614499892</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>665037.430137882</v>
+        <v>13.63945769756319</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>62359.02813204823</v>
+        <v>13.18535608708368</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>491126.5443301488</v>
+        <v>13.49892084939585</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>558289.8528650843</v>
+        <v>13.62225235980816</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-305760.8297723611</v>
+        <v>13.07089595679347</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>195367.6645477675</v>
+        <v>13.15318859215174</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>421633.7501526121</v>
+        <v>13.18509329548545</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-631450.381906396</v>
+        <v>13.06201545113657</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>345303.8614117173</v>
+        <v>13.14866594545065</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>461814.1157470257</v>
+        <v>13.18437652581126</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-333370.9967535532</v>
+        <v>13.11903242212228</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1206716.98807065</v>
+        <v>13.18889607725525</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>1415591.62642363</v>
+        <v>13.21732692165779</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>716125.757503449</v>
+        <v>13.1937795949074</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>820478.1218488493</v>
+        <v>13.26185626189119</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>848676.9355519745</v>
+        <v>13.30415351781654</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-307859.5796635851</v>
+        <v>13.07250379623922</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>265935.8238363427</v>
+        <v>13.22525902246633</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>440024.5171672511</v>
+        <v>13.28367412325135</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>5644.368142200893</v>
+        <v>13.084727981761</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>543235.993859331</v>
+        <v>13.20062099038446</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>663704.7814471766</v>
+        <v>13.24620690312912</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-425231.9646279794</v>
+        <v>13.05744888451903</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>209361.0081486495</v>
+        <v>13.18022621904512</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>386131.9711215098</v>
+        <v>13.23106973114801</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-272504.1829114696</v>
+        <v>13.13813062890086</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>788744.4163576451</v>
+        <v>13.2371316353791</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1026752.891043863</v>
+        <v>13.27769891216473</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>499161.6211293542</v>
+        <v>13.25418506662535</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>696308.9698913004</v>
+        <v>13.35432529022615</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>788876.6477364812</v>
+        <v>13.41550299502619</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-86144.0733860973</v>
+        <v>13.09905184362714</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>590823.8375941303</v>
+        <v>13.31332898383683</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>645200.3806321564</v>
+        <v>13.39696247536773</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-34728.10085115975</v>
+        <v>13.12364889168397</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>548861.8919743351</v>
+        <v>13.25393388113849</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>677750.4491932003</v>
+        <v>13.30725930895521</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-491510.1325787331</v>
+        <v>13.10158417717371</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>219669.8056207737</v>
+        <v>13.24040089683512</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>362956.4592939785</v>
+        <v>13.29987568543882</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-234219.926219814</v>
+        <v>13.19251491930675</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>877312.4438578147</v>
+        <v>13.30450766100191</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>1113427.15904739</v>
+        <v>13.35206912336729</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>769058.5675809223</v>
+        <v>13.34722217376447</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>956112.5818520237</v>
+        <v>13.46461582498094</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1029746.323086886</v>
+        <v>13.53544042630977</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-39761.8287976172</v>
+        <v>13.18510239940581</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>744959.1556931769</v>
+        <v>13.4252858812769</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>831645.4887581801</v>
+        <v>13.5231858920675</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-17068.41515374565</v>
+        <v>13.11669739494966</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>655363.2653926703</v>
+        <v>13.21661229896505</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>918050.5649340166</v>
+        <v>13.25198395357575</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-98666.8125466831</v>
+        <v>13.11701627045518</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>984466.381523073</v>
+        <v>13.22242283125066</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1103711.730050656</v>
+        <v>13.26202022809733</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>312144.1822811015</v>
+        <v>13.18115592914767</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1781869.775746358</v>
+        <v>13.26618193084563</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1986837.285213483</v>
+        <v>13.29767123222674</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1109529.815250221</v>
+        <v>13.28487813216058</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>1347979.21502998</v>
+        <v>13.36866039768061</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>1432255.886945659</v>
+        <v>13.41481023760532</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>3560.962245941422</v>
+        <v>13.13988314978752</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>743854.1994792022</v>
+        <v>13.32525053374108</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>963065.9868356049</v>
+        <v>13.39010783640172</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>17092.89190921108</v>
+        <v>13.14193464208685</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>548862.9588629908</v>
+        <v>13.28233816840841</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>642549.22136776</v>
+        <v>13.33307504578737</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-238898.2497578914</v>
+        <v>13.12341731509222</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>409683.2524365576</v>
+        <v>13.27240301717908</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>497096.8415478473</v>
+        <v>13.32898591378025</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-6977.081755165566</v>
+        <v>13.21497957721872</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>930277.998506801</v>
+        <v>13.33516465987057</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1074760.648656032</v>
+        <v>13.38026898820878</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>600740.8364000763</v>
+        <v>13.37063619031513</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>789645.4534345033</v>
+        <v>13.49326370940184</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>851934.1366929393</v>
+        <v>13.56041353816252</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>31124.40771525251</v>
+        <v>13.18532700645111</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>649584.1710903835</v>
+        <v>13.44482919565</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>702607.0531953449</v>
+        <v>13.53804536181982</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-75785.24022014948</v>
+        <v>13.19220524770127</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>488764.4379124193</v>
+        <v>13.34979222688702</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>568425.231328204</v>
+        <v>13.40942215167645</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-289157.6502421048</v>
+        <v>13.18016009707645</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>412304.6550618936</v>
+        <v>13.34829897026857</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>457124.7947509545</v>
+        <v>13.41480191312898</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-26324.17644110576</v>
+        <v>13.28363987574488</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>946747.9295463746</v>
+        <v>13.41933986372663</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1065530.365292368</v>
+        <v>13.47248265022407</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>720621.8333192952</v>
+        <v>13.48585659554317</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>893917.5800234771</v>
+        <v>13.62906007414996</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>922164.972906522</v>
+        <v>13.70724077289775</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>7747.25149444959</v>
+        <v>13.29223269538229</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>720706.6623772081</v>
+        <v>13.58266221691406</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>762501.9523340331</v>
+        <v>13.69229756162123</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-51596.23980445191</v>
+        <v>13.01697321149442</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>50182.8194851744</v>
+        <v>13.1055058802106</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>255829.5398261703</v>
+        <v>13.13859179426126</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-418873.8066325329</v>
+        <v>13.00250550163525</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-113219.0394987783</v>
+        <v>13.09564477853843</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>24158.21698334408</v>
+        <v>13.13262962518327</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-357594.0702853822</v>
+        <v>13.06758406662519</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>344449.6010811047</v>
+        <v>13.1426584865463</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>566045.0411899113</v>
+        <v>13.17207582877689</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>404058.0661279259</v>
+        <v>13.13584532620604</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>357119.2555613071</v>
+        <v>13.2081434667499</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>388692.0767151762</v>
+        <v>13.25139975971215</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-229957.4534362261</v>
+        <v>13.00139305705705</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>-15285.51358734313</v>
+        <v>13.16576406818873</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>91165.23204761141</v>
+        <v>13.22650517020322</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>32713.38167046386</v>
+        <v>13.00735377869731</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>172591.4512756424</v>
+        <v>13.13218921269678</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>409775.5897251051</v>
+        <v>13.1799424686831</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-196897.3658543357</v>
+        <v>12.97075327978051</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>-67794.73660438225</v>
+        <v>13.10290849264116</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>214281.3444844964</v>
+        <v>13.15610822095739</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-184934.7222947339</v>
+        <v>13.06322472024301</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>232611.7190494855</v>
+        <v>13.1697607726342</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>580483.1067955117</v>
+        <v>13.21217860039457</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>248526.2404697562</v>
+        <v>13.17056576596631</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>229088.2845382659</v>
+        <v>13.27726692530858</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>399663.0029397601</v>
+        <v>13.34057783490852</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-113828.5262641019</v>
+        <v>12.99870768463009</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>124492.5214168178</v>
+        <v>13.22954193807311</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>307698.6327515033</v>
+        <v>13.31738660148827</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>97340.37024815477</v>
+        <v>13.05773335234164</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>320912.6847793469</v>
+        <v>13.19858411709084</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>576816.8653371623</v>
+        <v>13.25485029204922</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-193841.0107667288</v>
+        <v>13.02671035542666</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>68785.97629023532</v>
+        <v>13.17672333073842</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>338050.2415061162</v>
+        <v>13.23941911354073</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-63438.83063022487</v>
+        <v>13.13023825988799</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>465951.5709837268</v>
+        <v>13.25123987100744</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>823022.616451435</v>
+        <v>13.30135166380523</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>482847.2330567903</v>
+        <v>13.28169943504019</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>495980.1835208522</v>
+        <v>13.40758005965049</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>723345.4731287333</v>
+        <v>13.48149776335059</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-43304.00471021931</v>
+        <v>13.10197460609408</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>328593.3047689947</v>
+        <v>13.36165762039276</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>560555.3178468193</v>
+        <v>13.46520760787681</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-408931.3050657766</v>
+        <v>13.05805892100002</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>151265.6813271628</v>
+        <v>13.14360795305103</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>285630.4892286548</v>
+        <v>13.17382355867229</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-568310.2741636377</v>
+        <v>13.05082964044825</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>292379.4491720079</v>
+        <v>13.14095541117511</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>318204.9090232005</v>
+        <v>13.17472586799529</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-349292.3157558267</v>
+        <v>13.10985460431325</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>1007069.064710512</v>
+        <v>13.18252086284509</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>1127346.195255684</v>
+        <v>13.2093655021411</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>617066.1139123923</v>
+        <v>13.18391364687082</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>762630.5101258057</v>
+        <v>13.25497877915264</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>711032.2812298652</v>
+        <v>13.29441978495302</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-404881.0904075166</v>
+        <v>13.05646025438504</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>200509.0689929393</v>
+        <v>13.21524002698122</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>222724.1053686616</v>
+        <v>13.27069467022127</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>126334.1810574595</v>
+        <v>13.06990635508466</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>654215.5933941782</v>
+        <v>13.1903802299548</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>718535.4123697358</v>
+        <v>13.23398220926079</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-117818.0257083918</v>
+        <v>13.04450345874188</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>445521.6009817121</v>
+        <v>13.17219226682179</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>546442.1454161156</v>
+        <v>13.22075053511167</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>71212.28529124489</v>
+        <v>13.12805894064807</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>994837.9509089633</v>
+        <v>13.23102147144844</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>1166714.519224458</v>
+        <v>13.26971832361436</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>659892.6731025676</v>
+        <v>13.24441977426858</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>817503.8312213975</v>
+        <v>13.34887364845494</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>860580.2932836019</v>
+        <v>13.40660453182734</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>80977.99660964849</v>
+        <v>13.08152192208119</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>684543.0150899311</v>
+        <v>13.30424597159468</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>701051.3195429435</v>
+        <v>13.38443085716127</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>132339.3483870057</v>
+        <v>13.12071502416958</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>721412.7947436094</v>
+        <v>13.25631951348049</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>792266.7170674804</v>
+        <v>13.30785216116116</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-235273.3480545783</v>
+        <v>13.10081466776982</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>443772.8605423348</v>
+        <v>13.24537029313293</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>515115.6031520762</v>
+        <v>13.30277420746268</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>63308.3005533817</v>
+        <v>13.19458256477101</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1074618.529400805</v>
+        <v>13.31120814331865</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1242722.425090613</v>
+        <v>13.35707210634022</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>831664.3921249153</v>
+        <v>13.35318939485545</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1012534.239543053</v>
+        <v>13.47578020500656</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1081561.38921659</v>
+        <v>13.54335536306439</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>68521.32705918563</v>
+        <v>13.18289823694822</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>813654.5820860821</v>
+        <v>13.43286526294275</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>865201.3966132998</v>
+        <v>13.52768764027193</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>135067.8179885067</v>
+        <v>13.03106766381872</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>313200.4132085403</v>
+        <v>13.11025808560696</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>474333.1939166548</v>
+        <v>13.13843942276019</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-253625.8897552809</v>
+        <v>13.02125818941313</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>236544.6311607277</v>
+        <v>13.10458684817898</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>296735.2746181514</v>
+        <v>13.13608864041399</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-166682.9438516923</v>
+        <v>13.07834631828207</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>838447.4541277289</v>
+        <v>13.14552385920374</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1006119.436512926</v>
+        <v>13.17055992514498</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>735694.0954352212</v>
+        <v>13.14020630789805</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>661120.0733709941</v>
+        <v>13.20523305398327</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>693901.2321924814</v>
+        <v>13.24179457165953</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-12992.70657816724</v>
+        <v>13.02087040079914</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>217688.2830783688</v>
+        <v>13.16788035478852</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>322929.2219417642</v>
+        <v>13.21962171710154</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-73172.6282592426</v>
+        <v>13.02559191980682</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>136010.8278532516</v>
+        <v>13.13721378196683</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>276470.8086366</v>
+        <v>13.17795939531807</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-347428.9145491497</v>
+        <v>12.99718549219066</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-124155.6788997728</v>
+        <v>13.11537351791128</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>62684.34408654264</v>
+        <v>13.16075731011135</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-371563.953419594</v>
+        <v>13.07827167308867</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>227605.4629647227</v>
+        <v>13.17356186749417</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>496279.142963847</v>
+        <v>13.20972383373507</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>257454.6835937536</v>
+        <v>13.1757024822879</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>205589.4307200118</v>
+        <v>13.27155254293375</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>336571.902777058</v>
+        <v>13.32521560259928</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-163923.8995875064</v>
+        <v>13.02316931878346</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>113438.7434905345</v>
+        <v>13.2295582801934</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>223970.1252195565</v>
+        <v>13.30452173619608</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>113065.0121645723</v>
+        <v>13.07595099105391</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>475185.6169364366</v>
+        <v>13.2018450851489</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>578013.5136834276</v>
+        <v>13.25000159397623</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-304975.3410535667</v>
+        <v>13.05295381354859</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>146112.7503880491</v>
+        <v>13.18705133164276</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>244712.6902429278</v>
+        <v>13.24070311010756</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-135261.1901663313</v>
+        <v>13.14351579289529</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>665507.0881757692</v>
+        <v>13.25169370328418</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>872120.4379041726</v>
+        <v>13.29455455281632</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>630561.9944243238</v>
+        <v>13.28128438152933</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>641241.1718485935</v>
+        <v>13.39422731453596</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>754202.1180729878</v>
+        <v>13.45707789518905</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-50070.75893231374</v>
+        <v>13.12169264774271</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>475018.9000636956</v>
+        <v>13.35378030460824</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>562196.2436193191</v>
+        <v>13.4424281955809</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-234053.9234266012</v>
+        <v>12.99531056602819</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-347079.5551669105</v>
+        <v>13.07648571796908</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-323097.0478694715</v>
+        <v>13.10549537134378</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-474847.2840711619</v>
+        <v>12.98092472845828</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-395216.5268548649</v>
+        <v>13.06626163757363</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-430473.9231015353</v>
+        <v>13.098668504751</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-607332.8632195021</v>
+        <v>13.04187763175973</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-89624.8808048777</v>
+        <v>13.11065860368229</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-41581.30306463802</v>
+        <v>13.13641012526597</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>92536.62043106221</v>
+        <v>13.09675398438264</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-125614.0608941986</v>
+        <v>13.16305984478541</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-170083.9181214204</v>
+        <v>13.20075657511912</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-292886.8796157698</v>
+        <v>12.97302092490762</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-391030.9870956821</v>
+        <v>13.12375059093561</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-421941.1510592067</v>
+        <v>13.17701496674851</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-123939.5181580308</v>
+        <v>12.98635188124624</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-59768.87649503126</v>
+        <v>13.10092974868753</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>865.7388497806654</v>
+        <v>13.14295217057501</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-300687.0611743579</v>
+        <v>12.95189477347646</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-258183.5821887828</v>
+        <v>13.07311783940648</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-142070.3083818579</v>
+        <v>13.11989784923916</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-395002.6952694516</v>
+        <v>13.03790428624116</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-34180.04672507345</v>
+        <v>13.13562185626151</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>147945.9170192537</v>
+        <v>13.1728923840774</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>60464.50038898972</v>
+        <v>13.12850069346486</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-44253.69013851028</v>
+        <v>13.22650357246015</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>30032.45970031063</v>
+        <v>13.28192643469017</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-187374.8006612884</v>
+        <v>12.97031377494389</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-79654.05770924696</v>
+        <v>13.18219921759594</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-39888.34506430334</v>
+        <v>13.25951740770217</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>143970.4682125019</v>
+        <v>13.04244998102885</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>359806.6347482312</v>
+        <v>13.17186335436501</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>396573.608277875</v>
+        <v>13.22162597386711</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-260023.0182309759</v>
+        <v>13.01365167878692</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>8291.5082712821</v>
+        <v>13.15141085915174</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>56351.69433692857</v>
+        <v>13.20682587994972</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-145980.5365660961</v>
+        <v>13.10932895662107</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>416804.1257741598</v>
+        <v>13.2204418738832</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>555083.5371675629</v>
+        <v>13.26470837681192</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>429610.4453609014</v>
+        <v>13.24262929718946</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>399015.1725549959</v>
+        <v>13.35841144738046</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>472688.9232982524</v>
+        <v>13.42342940454803</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-58752.53375912641</v>
+        <v>13.07707041836297</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>283569.3695306078</v>
+        <v>13.31566908832998</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>318757.4675103702</v>
+        <v>13.40727709086704</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>112112.0622062381</v>
+        <v>13.05392123953221</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>372495.6063408069</v>
+        <v>13.13504366056342</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>652660.3965235557</v>
+        <v>13.16727733114283</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-533889.3420032023</v>
+        <v>13.04219521652113</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>199841.0479605203</v>
+        <v>13.12753517647812</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>381273.9889841699</v>
+        <v>13.16361889210402</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-244736.2778162306</v>
+        <v>13.10019577908855</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>1036263.623938588</v>
+        <v>13.16899339146375</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>1313369.124792362</v>
+        <v>13.19772609715088</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>797089.2958605243</v>
+        <v>13.17025549172087</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>809536.084130639</v>
+        <v>13.2366940437856</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>887631.4561564471</v>
+        <v>13.27938855654913</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-4136.975236716654</v>
+        <v>13.04949837386842</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>381541.9919740029</v>
+        <v>13.20011224168984</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>634825.036219805</v>
+        <v>13.25913481398517</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>97364.324652551</v>
+        <v>13.05734949919925</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>442834.2282366034</v>
+        <v>13.17168501528199</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>659451.731770816</v>
+        <v>13.21775454792802</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-418619.2237347719</v>
+        <v>13.02597326850807</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12630.27037623318</v>
+        <v>13.14700623271304</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>289954.7293100592</v>
+        <v>13.19839866612836</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-315184.6836775606</v>
+        <v>13.10823711615429</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>532948.4786820796</v>
+        <v>13.20581920277361</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>874813.8551652054</v>
+        <v>13.24683074747148</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>418963.2158588802</v>
+        <v>13.21685225291488</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>528849.006229002</v>
+        <v>13.31482548409724</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>685052.7787161029</v>
+        <v>13.37660181409152</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-57289.83822992255</v>
+        <v>13.06236378986897</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>452906.0151878998</v>
+        <v>13.27378999420454</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>602550.0786062161</v>
+        <v>13.35831897050859</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>121652.838176837</v>
+        <v>13.09626089273466</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>565354.2605377953</v>
+        <v>13.22498223585017</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>769683.8042627017</v>
+        <v>13.27879852729998</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-364520.9976449951</v>
+        <v>13.07017156411714</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>200797.3400155707</v>
+        <v>13.20723820173875</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>418672.7482800747</v>
+        <v>13.26727076832691</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-134682.3604203057</v>
+        <v>13.16267863627513</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>823878.6074662837</v>
+        <v>13.27324776989565</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>1137131.068328416</v>
+        <v>13.32126061512652</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>785543.2859974138</v>
+        <v>13.30999182923705</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>907270.8356271435</v>
+        <v>13.42519979175642</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1032793.097859361</v>
+        <v>13.49664171599758</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>47130.21072613893</v>
+        <v>13.14847835444453</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>709796.9054732525</v>
+        <v>13.38580403154161</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>866468.9113916641</v>
+        <v>13.48461185260784</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>387697.1693013737</v>
+        <v>13.07371649288078</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1180683.225911875</v>
+        <v>13.15169759327646</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1490015.187514635</v>
+        <v>13.17978024244437</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>64063.44759053623</v>
+        <v>13.06726879537875</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1187307.20636663</v>
+        <v>13.14941390101513</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1390572.405325472</v>
+        <v>13.18080027457294</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>543003.6716546407</v>
+        <v>13.12074421745679</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>2228042.153349553</v>
+        <v>13.18697116333301</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>2548875.752682166</v>
+        <v>13.21192782598255</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1492122.180649612</v>
+        <v>13.19144192842091</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1784879.167765709</v>
+        <v>13.25589458063704</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>1838765.139777497</v>
+        <v>13.29251961448574</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>192593.8405781482</v>
+        <v>13.07460519706989</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1110331.818401696</v>
+        <v>13.21934363249441</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>1286287.069418771</v>
+        <v>13.27090390618011</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>95869.21294477236</v>
+        <v>13.0787320308002</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>667317.7614911171</v>
+        <v>13.18853333471662</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>909439.3583215614</v>
+        <v>13.229075509336</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-151500.2847256948</v>
+        <v>13.05497642604956</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>437281.0525520423</v>
+        <v>13.1713431455402</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>732484.0921883123</v>
+        <v>13.21649788494747</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25595.34522552232</v>
+        <v>13.13129822387765</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>1020168.592624548</v>
+        <v>13.2251248213222</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>1405430.182470012</v>
+        <v>13.26111857842353</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>709004.8112360577</v>
+        <v>13.23938196814277</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>873465.146578618</v>
+        <v>13.33415597447318</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1046967.500761349</v>
+        <v>13.38779077096455</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>-579.6793653752853</v>
+        <v>13.09008140500365</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>686046.1620304687</v>
+        <v>13.29307766610702</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>868094.0209136201</v>
+        <v>13.36766303506769</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>21388.7495213873</v>
+        <v>13.12185676895455</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>642226.5492951632</v>
+        <v>13.24551870028112</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>906682.6902019442</v>
+        <v>13.29338020907933</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-299462.0585158588</v>
+        <v>13.10288753747198</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>402500.3458357139</v>
+        <v>13.23470908893336</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>680930.6326718982</v>
+        <v>13.28802806151002</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-27711.46144752272</v>
+        <v>13.18878259762043</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1047954.335795101</v>
+        <v>13.29512846831366</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>1445934.990957357</v>
+        <v>13.33773717343413</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>862011.4555929191</v>
+        <v>13.33485813410464</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1043520.673785218</v>
+        <v>13.44623575362721</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1287440.539756595</v>
+        <v>13.50897249080556</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>-23822.45374323495</v>
+        <v>13.17878661153555</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>793681.5835365972</v>
+        <v>13.40674734614234</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1037429.54557735</v>
+        <v>13.49484015980959</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>220570.889004587</v>
+        <v>13.10779870932932</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1277535.69891165</v>
+        <v>13.17766506971123</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1747179.730630019</v>
+        <v>13.20480421343644</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-272271.9159707113</v>
+        <v>13.10359906697389</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1541040.838369584</v>
+        <v>13.17721349911423</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>1837867.125482419</v>
+        <v>13.20760195209616</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>435685.2032111534</v>
+        <v>13.14989390669025</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>3041671.448814882</v>
+        <v>13.20925536082937</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>3476018.234990837</v>
+        <v>13.23345349158618</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>1844115.918414457</v>
+        <v>13.22100733152088</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>2190860.551963158</v>
+        <v>13.27898429887401</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>2331276.428337533</v>
+        <v>13.31495007332232</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>82230.94434957209</v>
+        <v>13.11880281140486</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1284532.738886355</v>
+        <v>13.24847177708982</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>1702853.835181538</v>
+        <v>13.29815960710234</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>153215.9932081097</v>
+        <v>13.12402242230312</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>1042021.693311063</v>
+        <v>13.22231599891928</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1283448.02624132</v>
+        <v>13.26104016772258</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-434867.0248603697</v>
+        <v>13.10496946644395</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>626638.4609940753</v>
+        <v>13.20915875024942</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>935370.0171123622</v>
+        <v>13.25236488048321</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-142882.7962806103</v>
+        <v>13.17092882336051</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1520634.946767411</v>
+        <v>13.25495195356032</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1918529.746196357</v>
+        <v>13.28943056692344</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>958596.6881186203</v>
+        <v>13.27814062827031</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1294604.464451936</v>
+        <v>13.36326529521532</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1468611.885276549</v>
+        <v>13.41521709009334</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-14698.27676985829</v>
+        <v>13.14741852627532</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>1089401.978723276</v>
+        <v>13.32913828722668</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>1236643.30543413</v>
+        <v>13.40017839435138</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>20441.22324878678</v>
+        <v>13.1539938966652</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>956573.6862186599</v>
+        <v>13.26438192228327</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>1192045.093229408</v>
+        <v>13.30960464363372</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-489658.1171383057</v>
+        <v>13.13928638018153</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>651027.3176159505</v>
+        <v>13.25695567580385</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>894974.120407186</v>
+        <v>13.30740911631633</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-92116.36787362114</v>
+        <v>13.2139961468959</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1615423.963339541</v>
+        <v>13.3089378699387</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1991211.379473718</v>
+        <v>13.34928939316383</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>1317608.191203766</v>
+        <v>13.35314132631014</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1624039.07336117</v>
+        <v>13.45275732370711</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1754270.202355333</v>
+        <v>13.51281394707802</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>50498.7206569468</v>
+        <v>13.21656719024562</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1284699.247171221</v>
+        <v>13.42005866027419</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1451894.551814952</v>
+        <v>13.50307779151005</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>1425766.764518259</v>
+        <v>13.09463010285172</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2613047.05270681</v>
+        <v>13.14599116868497</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>3329165.613786429</v>
+        <v>13.16656647969217</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>720134.7243662253</v>
+        <v>13.0889225853416</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>3086235.18296979</v>
+        <v>13.14295964933559</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>3614164.220731437</v>
+        <v>13.16599426638923</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>1700366.002559321</v>
+        <v>13.12422898511082</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5334906.741210616</v>
+        <v>13.16779246820657</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6062611.161960711</v>
+        <v>13.18613833129027</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>3191267.696406242</v>
+        <v>13.17293353400994</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>3511054.468194439</v>
+        <v>13.21508640531691</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>3776000.873901466</v>
+        <v>13.24243291416444</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>941400.8743578051</v>
+        <v>13.09662617852441</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>2354733.258000917</v>
+        <v>13.19197975163069</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>3069442.122642532</v>
+        <v>13.22963309383953</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>973197.6573849751</v>
+        <v>13.10390393884657</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>2103481.543230785</v>
+        <v>13.17627236456702</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>2535039.578625177</v>
+        <v>13.20562649280702</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>211004.4141676785</v>
+        <v>13.08636728192342</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>1588007.844185946</v>
+        <v>13.16298034025062</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2184519.869843325</v>
+        <v>13.19572882689983</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>555377.921582384</v>
+        <v>13.13651793279298</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>2903476.569290395</v>
+        <v>13.19828799086762</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>3629579.121678889</v>
+        <v>13.22442570979112</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>1811546.764439868</v>
+        <v>13.21115154048346</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>2228016.366968363</v>
+        <v>13.27326971629171</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>2563021.873727425</v>
+        <v>13.31275158015292</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>473784.0047087867</v>
+        <v>13.1135078439411</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>1967100.524068591</v>
+        <v>13.24732458966616</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>2264354.110521721</v>
+        <v>13.3011539363967</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>777613.4680620274</v>
+        <v>13.1272663060256</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>2017227.173733631</v>
+        <v>13.20867697012012</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>2413662.280628464</v>
+        <v>13.24292697813691</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28314.16109531701</v>
+        <v>13.11302198901119</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>1576119.206652232</v>
+        <v>13.19971210643234</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2032167.400505507</v>
+        <v>13.2379202959139</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>612235.0564974798</v>
+        <v>13.16967750989958</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>3076270.180955099</v>
+        <v>13.23960965825064</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>3735465.880638045</v>
+        <v>13.27017159053026</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>2426865.651204067</v>
+        <v>13.26843612369316</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>2816156.436840949</v>
+        <v>13.34139114728269</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>3063670.047471453</v>
+        <v>13.38698347484264</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>560551.2984287729</v>
+        <v>13.1663761756215</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>2282370.150315376</v>
+        <v>13.31647054599255</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>2590934.242610807</v>
+        <v>13.3793209096744</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>93907.37904690232</v>
+        <v>13.08102611112654</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>1104325.33964145</v>
+        <v>13.15319935440179</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1475611.406165562</v>
+        <v>13.18012976237085</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-460801.6307249644</v>
+        <v>13.07447676251487</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1045253.306082795</v>
+        <v>13.15051604832832</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>1259828.032140665</v>
+        <v>13.18063420888516</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>148881.2990571666</v>
+        <v>13.12397165213421</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>2411073.072741047</v>
+        <v>13.18527779986127</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>2772416.206094008</v>
+        <v>13.20924219572312</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>1675155.111315816</v>
+        <v>13.19073231873132</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>2034513.539186023</v>
+        <v>13.25045898406658</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2003825.188566854</v>
+        <v>13.28584302317334</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>-95830.76349759029</v>
+        <v>13.08332442446245</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1100898.279189615</v>
+        <v>13.21728339045255</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1283325.757128992</v>
+        <v>13.26668448098316</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>50848.91111461612</v>
+        <v>13.08773595790879</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>825018.2171611504</v>
+        <v>13.18933121360086</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1094729.84261224</v>
+        <v>13.22803835477701</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-420294.0359915332</v>
+        <v>13.06504193578839</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>403762.093285867</v>
+        <v>13.17272593244974</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>737845.0272812839</v>
+        <v>13.21586514872251</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-171156.1021194302</v>
+        <v>13.13558857032985</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>1205934.291837147</v>
+        <v>13.22241664866467</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>1648888.425811205</v>
+        <v>13.25682173758801</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>875272.1597956012</v>
+        <v>13.23740870968383</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1127127.389771868</v>
+        <v>13.32518977499657</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>1274405.166379561</v>
+        <v>13.37672777228817</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-89367.84073323241</v>
+        <v>13.10012180512602</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>870771.1162215453</v>
+        <v>13.28794990953846</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1034058.308247494</v>
+        <v>13.35909509100624</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-59321.66527959166</v>
+        <v>13.12332503883142</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>761559.4641016861</v>
+        <v>13.23763478360947</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1077946.819098205</v>
+        <v>13.28313751350008</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-548397.9390290854</v>
+        <v>13.10495133201115</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>386305.8315607796</v>
+        <v>13.22681169467573</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>719032.7200960384</v>
+        <v>13.27753001197745</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-186531.4010622096</v>
+        <v>13.18450754805801</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1259618.221370553</v>
+        <v>13.28281887430522</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>1741698.90590309</v>
+        <v>13.32336513531307</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>1116428.27061795</v>
+        <v>13.32049684575174</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1373887.56537937</v>
+        <v>13.42351157012363</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>1610758.651733782</v>
+        <v>13.48352025636631</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>-79000.88877402709</v>
+        <v>13.17703657845699</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1016851.929026143</v>
+        <v>13.38776380656466</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>1281302.450072196</v>
+        <v>13.47144220049702</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>79048.56822526761</v>
+        <v>13.0528451367526</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>252701.0106972286</v>
+        <v>13.12295442707938</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>466686.6710830678</v>
+        <v>13.15080733958537</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-651742.1393643124</v>
+        <v>13.0416067657535</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>58608.73134261349</v>
+        <v>13.11533194546633</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>171352.420571968</v>
+        <v>13.14650045862088</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-350909.8012185325</v>
+        <v>13.09239652105932</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>992465.6199689708</v>
+        <v>13.15182703498247</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>1214183.935357334</v>
+        <v>13.17664458624678</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>779495.3840454945</v>
+        <v>13.15040063614694</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>726841.6138988929</v>
+        <v>13.20768197116058</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>820733.0122497685</v>
+        <v>13.24437923523611</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-128818.7938323579</v>
+        <v>13.0450699433855</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>201096.868955524</v>
+        <v>13.17524845774278</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>370339.7905726125</v>
+        <v>13.22624181929464</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>116722.9868394588</v>
+        <v>13.05389415365721</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>474821.743478995</v>
+        <v>13.15276418423457</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>761684.1719118343</v>
+        <v>13.19265439884939</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-398540.8495632557</v>
+        <v>13.0253030463388</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>48804.89878983426</v>
+        <v>13.12993072108661</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>424489.7024410886</v>
+        <v>13.17441549521188</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>-263375.8314906431</v>
+        <v>13.09726313827754</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>667325.4727956611</v>
+        <v>13.18161381409674</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>1120024.65038011</v>
+        <v>13.2171128258475</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>522094.6390809163</v>
+        <v>13.18807699094502</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>628358.086317288</v>
+        <v>13.27264352231988</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>898597.7936357807</v>
+        <v>13.32587892876157</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>-64473.61992408682</v>
+        <v>13.05329660608582</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>488839.0448206069</v>
+        <v>13.23613466017151</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>706102.9510921575</v>
+        <v>13.30931497603441</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>184968.4075950792</v>
+        <v>13.08787788363052</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>658474.0206699204</v>
+        <v>13.19927477624539</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>984342.9260210169</v>
+        <v>13.24593554057311</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-356569.437245447</v>
+        <v>13.06374196228357</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>248447.1279880004</v>
+        <v>13.18233035657582</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>611057.2636110315</v>
+        <v>13.23436767345855</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-113038.5409893377</v>
+        <v>13.14461654651764</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>948279.9111970691</v>
+        <v>13.24027566972399</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1424886.591944711</v>
+        <v>13.28189453896819</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>858086.224445143</v>
+        <v>13.2690457373723</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>958815.4436867011</v>
+        <v>13.36861996174823</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1225437.166753592</v>
+        <v>13.43029633082875</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>-57636.24406697761</v>
+        <v>13.12810567668518</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>671488.1080829517</v>
+        <v>13.33349508262692</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>963711.294712035</v>
+        <v>13.41915360843794</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>711218.4471001718</v>
+        <v>13.09008906573417</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1716821.03872324</v>
+        <v>13.14102704843849</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>2531975.066907976</v>
+        <v>13.1615690468411</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-339125.4858077476</v>
+        <v>13.08382558202704</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1834084.076897708</v>
+        <v>13.13740682740868</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>2476167.909987135</v>
+        <v>13.16040463788488</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>514054.5682566268</v>
+        <v>13.11923467037743</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>3938895.310609995</v>
+        <v>13.16242946402006</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>4781705.241733092</v>
+        <v>13.18074711770319</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2374873.13108249</v>
+        <v>13.16651342393807</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>2602013.05928325</v>
+        <v>13.20822124134604</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>2982176.724106292</v>
+        <v>13.23552868649707</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>330553.0666688727</v>
+        <v>13.09069253669879</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>1591894.888144652</v>
+        <v>13.18526517416342</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>2422630.131667123</v>
+        <v>13.2228567261586</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>323325.6959949192</v>
+        <v>13.09708641108408</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>1318487.305024364</v>
+        <v>13.16886993025046</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1877475.915541689</v>
+        <v>13.19817837975149</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-581936.235767514</v>
+        <v>13.07881017469739</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>649932.2160860077</v>
+        <v>13.1547911061155</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1382215.531128484</v>
+        <v>13.18748978594696</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-349208.8843238428</v>
+        <v>13.12912138977512</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1842785.611029008</v>
+        <v>13.19038017563361</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>2705963.649759854</v>
+        <v>13.21647959233157</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>1154984.058176419</v>
+        <v>13.20162912706997</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>1499914.975053819</v>
+        <v>13.26312464466982</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>1951106.299272886</v>
+        <v>13.30255166628879</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-73514.59699478975</v>
+        <v>13.10460506497779</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>1298513.288573706</v>
+        <v>13.23734460776915</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1725807.014180914</v>
+        <v>13.29108910678189</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>119303.6378408741</v>
+        <v>13.12004039610314</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>1246527.778295416</v>
+        <v>13.20081599728881</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>1758368.432289131</v>
+        <v>13.23499962109972</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-723777.0028798026</v>
+        <v>13.10502807916864</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>702637.6831498938</v>
+        <v>13.1910302486979</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1279621.219649929</v>
+        <v>13.22916572528792</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-265965.9508068007</v>
+        <v>13.16182727666592</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>2067463.273596915</v>
+        <v>13.23120292911889</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>2848474.84017084</v>
+        <v>13.26170799090003</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1782363.743674102</v>
+        <v>13.25827641915688</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>2106596.53495207</v>
+        <v>13.33054644719868</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>2460336.301498437</v>
+        <v>13.37606042067864</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4503.809149091624</v>
+        <v>13.15685532662214</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1619863.457377008</v>
+        <v>13.30578266442403</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>2045064.59722865</v>
+        <v>13.36850971006671</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>568830.8107514067</v>
+        <v>13.08883060012679</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>1138169.674425532</v>
+        <v>13.16631560524296</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>1478923.317046714</v>
+        <v>13.19607637381993</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>270356.536749206</v>
+        <v>13.08214402693092</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1454199.849451326</v>
+        <v>13.16367003409038</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1645028.578568412</v>
+        <v>13.19698381613786</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>769081.7214438485</v>
+        <v>13.13494926644374</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>2545400.479913647</v>
+        <v>13.20068100498401</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>2851330.611658875</v>
+        <v>13.22719461160315</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>1588764.174364289</v>
+        <v>13.20865698381407</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>1769748.122555152</v>
+        <v>13.27221126122383</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>1857923.277184944</v>
+        <v>13.31138103189108</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>351684.6522287372</v>
+        <v>13.09295084842942</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1073879.196633313</v>
+        <v>13.23678671684366</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1406282.162729209</v>
+        <v>13.29129928531924</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>301587.2972823774</v>
+        <v>13.1016513548421</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>829839.7026989721</v>
+        <v>13.21082167072286</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>1010801.607272686</v>
+        <v>13.25343226048695</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-69988.8166962403</v>
+        <v>13.07769069215531</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>613783.7465805546</v>
+        <v>13.19326938403284</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>830241.7797707228</v>
+        <v>13.24079662051682</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>157386.4754723502</v>
+        <v>13.15286774724663</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>1291181.922810686</v>
+        <v>13.24606359692891</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>1584724.84130383</v>
+        <v>13.28397479901134</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>846761.7414954208</v>
+        <v>13.26537114372374</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>1034973.455510458</v>
+        <v>13.35901704376902</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1138096.975172018</v>
+        <v>13.41584223126291</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>156767.1794274693</v>
+        <v>13.11736202428009</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>869167.1414406244</v>
+        <v>13.31920855018497</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>984958.9731210471</v>
+        <v>13.39742058162972</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>166611.5948425965</v>
+        <v>13.14171801414853</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>781338.1884268124</v>
+        <v>13.26461881348225</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>943009.6105590092</v>
+        <v>13.3144924558551</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>-183011.8688637037</v>
+        <v>13.1229647243861</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>621914.5333323397</v>
+        <v>13.25384629049327</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>768577.2358131008</v>
+        <v>13.30947432362127</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>141189.0927362596</v>
+        <v>13.2077231417747</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1371886.015626475</v>
+        <v>13.31331434737384</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>1626563.88323276</v>
+        <v>13.35778969416882</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>1078206.977154275</v>
+        <v>13.35762996619398</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>1259652.55754913</v>
+        <v>13.46771909431512</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>1329606.639401772</v>
+        <v>13.53358409371821</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>115006.3112257975</v>
+        <v>13.20287752080806</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>985331.4182238863</v>
+        <v>13.42944061390448</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1095177.31081394</v>
+        <v>13.52104740817059</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>107276.4649496156</v>
+        <v>13.08242146306129</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>1095186.288049205</v>
+        <v>13.15646910933698</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1433620.227240279</v>
+        <v>13.18434923208465</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-388087.926436496</v>
+        <v>13.07605215554932</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>1117404.210798729</v>
+        <v>13.15407501689993</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1308805.280607591</v>
+        <v>13.18526494448284</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>207184.4656932864</v>
+        <v>13.12666120287019</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>2432923.696270178</v>
+        <v>13.18956992798245</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>2757848.059133251</v>
+        <v>13.21439180446426</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1680361.0361324</v>
+        <v>13.19558892054851</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2001570.615543992</v>
+        <v>13.25690927789843</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>1980677.145411569</v>
+        <v>13.29362851300703</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>-88498.6154911739</v>
+        <v>13.08569774714133</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1073724.938299303</v>
+        <v>13.22313030565503</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>1262563.808239713</v>
+        <v>13.27425821590881</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>124287.8731820127</v>
+        <v>13.08912316357588</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>861870.1096901291</v>
+        <v>13.1933259795027</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>1104420.03050237</v>
+        <v>13.23333533042641</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-328071.2594614897</v>
+        <v>13.06623130268954</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>477210.3536722737</v>
+        <v>13.17668863863334</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>785965.7771479832</v>
+        <v>13.22129204758702</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-64559.99873145527</v>
+        <v>13.13840416244493</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>1271224.569908727</v>
+        <v>13.22747262549889</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>1677068.422502759</v>
+        <v>13.26305066602293</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>911367.8526545225</v>
+        <v>13.24316304857055</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>1126827.281449072</v>
+        <v>13.33323997150503</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1273124.422540633</v>
+        <v>13.38662379635322</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-43947.02799058516</v>
+        <v>13.1026938216131</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>874678.0971638034</v>
+        <v>13.29533754111744</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1023764.399253669</v>
+        <v>13.3688546569947</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-2233.789585263674</v>
+        <v>13.12237259409595</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>727945.4246265097</v>
+        <v>13.23953836090778</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>1028895.359732121</v>
+        <v>13.28650636158193</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-525900.0603705915</v>
+        <v>13.10374059306503</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>319091.1508387118</v>
+        <v>13.22865065303174</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>639937.7059751523</v>
+        <v>13.28101491078478</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>-179382.3527683471</v>
+        <v>13.18528987950399</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1157464.901491935</v>
+        <v>13.28606524365095</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>1614757.078372779</v>
+        <v>13.32793184421931</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>1043352.624808446</v>
+        <v>13.32427843112334</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>1222919.106597602</v>
+        <v>13.42988722664137</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>1450175.743679791</v>
+        <v>13.49194952073183</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>-123328.4170303261</v>
+        <v>13.17751775465779</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>863014.7016749275</v>
+        <v>13.39350615145457</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>1119392.073830224</v>
+        <v>13.47985553212949</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.423</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.907</v>
+        <v>16.962</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.975</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.531</v>
+        <v>16.929</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.62</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.317</v>
+        <v>10.608</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.08144473223031</v>
+        <v>13.65175604609949</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.15206431081923</v>
+        <v>22.40126007501097</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.18031895894828</v>
+        <v>28.79977683541404</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>13.07300665437904</v>
+        <v>1.669693891239946</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.14732534283698</v>
+        <v>22.43894342309489</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.17895942148423</v>
+        <v>27.41133997830907</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.12211858526948</v>
+        <v>9.918394090493107</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13.18203443685414</v>
+        <v>38.91149755362755</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13.20722945060536</v>
+        <v>45.07674805105983</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.1878628326181</v>
+        <v>39.31475281582917</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.24586782438811</v>
+        <v>42.4661579797185</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.28338583639169</v>
+        <v>45.51494500442914</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.08325343983919</v>
+        <v>11.46559166719594</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.21435689337365</v>
+        <v>28.55383561495998</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>13.26607845515022</v>
+        <v>37.57938438877544</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.09055087298779</v>
+        <v>17.00159288600939</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>13.19003663922349</v>
+        <v>31.918484357489</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>13.23035935320246</v>
+        <v>39.32147916575504</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.06560875074597</v>
+        <v>0.6762533637443173</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.17095455857216</v>
+        <v>20.72989372015021</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.21594306717078</v>
+        <v>31.30612757156319</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.13537649790544</v>
+        <v>6.460935278922408</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.22031493839789</v>
+        <v>37.59797780130229</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>13.25622219579407</v>
+        <v>48.82238227500507</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>13.23604816468536</v>
+        <v>38.78325515540899</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>13.32149478701822</v>
+        <v>47.09085850797145</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>13.37568440459204</v>
+        <v>55.0781988954591</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>13.10220940596113</v>
+        <v>11.67073979409827</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>13.28616616962166</v>
+        <v>42.88172184604912</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.36012835116256</v>
+        <v>50.69724174594102</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>13.12225958989603</v>
+        <v>16.55305682093276</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>13.23417020303599</v>
+        <v>35.66606179655114</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>13.28121725449978</v>
+        <v>43.37502581183909</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>13.10182781703636</v>
+        <v>0.3564503375038388</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>13.22102174106736</v>
+        <v>26.6011106045903</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>13.27350944031318</v>
+        <v>35.91060437140506</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>13.18055050016538</v>
+        <v>10.50464581656994</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>13.27670556144104</v>
+        <v>47.62981121386215</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>13.318689734656</v>
+        <v>59.06723631421316</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>13.3142938080386</v>
+        <v>59.9122911334474</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>13.41462747108124</v>
+        <v>69.03337225138088</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13.47721332861615</v>
+        <v>76.04249646557449</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>13.17440728058889</v>
+        <v>16.94691329412952</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>13.38073290756773</v>
+        <v>58.24210989153035</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>13.46708634116896</v>
+        <v>67.3191960995244</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>13.084373480507</v>
+        <v>10.4336568742178</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>13.16723697011759</v>
+        <v>28.58544429805843</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>13.19643248696462</v>
+        <v>34.38345583778659</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>13.08059947220592</v>
+        <v>4.248910674231253</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>13.16794991289475</v>
+        <v>34.11756051655055</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>13.20059815579358</v>
+        <v>37.04193847714924</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.13603555171949</v>
+        <v>14.26886256521059</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>13.2064759474908</v>
+        <v>52.02035657234959</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>13.23243110532761</v>
+        <v>56.98643552111926</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>13.21414716080227</v>
+        <v>51.77010562676217</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>13.28317453792959</v>
+        <v>60.90491161310141</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>13.32120455505161</v>
+        <v>61.85499026466471</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>13.09168649276108</v>
+        <v>8.150003211367855</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>13.24545667358157</v>
+        <v>38.40335842940301</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>13.29904039973961</v>
+        <v>43.68386934130068</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.09674194933608</v>
+        <v>14.77946438569171</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.21331665250443</v>
+        <v>38.03620551772545</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>13.25539122343238</v>
+        <v>42.93594299032474</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>13.07598856114875</v>
+        <v>3.030766085067727</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>13.19960832511223</v>
+        <v>31.49605382347512</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>13.2464878948034</v>
+        <v>37.94951730168281</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>13.15495948973941</v>
+        <v>12.37087397417503</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>13.25465576526059</v>
+        <v>51.21862216236369</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>13.29201753649798</v>
+        <v>59.75732542873153</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>13.27425731542402</v>
+        <v>53.05042041382533</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>13.37553176291426</v>
+        <v>63.65898033378996</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>13.43113861909399</v>
+        <v>68.71847742181875</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>13.11776630325744</v>
+        <v>14.57726886731871</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>13.33325996109272</v>
+        <v>55.18056250843376</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>13.41063581325677</v>
+        <v>59.70120673485457</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13.14270171224466</v>
+        <v>12.21517123029776</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>13.2737969061088</v>
+        <v>40.19390780749078</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>13.32344338213498</v>
+        <v>45.32623248640924</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>13.12722799261031</v>
+        <v>-2.907093446912915</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>13.26703545634133</v>
+        <v>33.37330434466444</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>13.3223610551969</v>
+        <v>38.40302261778763</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>13.21612969683047</v>
+        <v>11.46073166605799</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>13.32893889684414</v>
+        <v>57.48633176289723</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>13.37314420216993</v>
+        <v>66.10300571877291</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>13.3753907047699</v>
+        <v>67.00302215655353</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>13.49405905836455</v>
+        <v>79.31330520992167</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>13.55906435637687</v>
+        <v>85.35810469468035</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>13.21182323401173</v>
+        <v>13.09406866234392</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>13.45346126108393</v>
+        <v>66.78134888825105</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>13.54481534258144</v>
+        <v>72.69102886665151</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>13.084373480507</v>
+        <v>10.4336568742178</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>13.16723697011759</v>
+        <v>28.58544429805843</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>13.19643248696462</v>
+        <v>34.38345583778659</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>13.08059947220592</v>
+        <v>4.248910674231253</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>13.16794991289475</v>
+        <v>34.11756051655055</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>13.20059815579358</v>
+        <v>37.04193847714924</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.13603555171949</v>
+        <v>14.26886256521059</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>13.2064759474908</v>
+        <v>52.02035657234959</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>13.23243110532761</v>
+        <v>56.98643552111926</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.21414716080227</v>
+        <v>51.77010562676217</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>13.28317453792959</v>
+        <v>60.90491161310141</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>13.32120455505161</v>
+        <v>61.85499026466471</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.09168649276108</v>
+        <v>8.150003211367855</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>13.24545667358157</v>
+        <v>38.40335842940301</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>13.29904039973961</v>
+        <v>43.68386934130068</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>13.09674194933608</v>
+        <v>14.77946438569171</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>13.21331665250443</v>
+        <v>38.03620551772545</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>13.25539122343238</v>
+        <v>42.93594299032474</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>13.07598856114875</v>
+        <v>3.030766085067727</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>13.19960832511223</v>
+        <v>31.49605382347512</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>13.2464878948034</v>
+        <v>37.94951730168281</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>13.15495948973941</v>
+        <v>12.37087397417503</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>13.25465576526059</v>
+        <v>51.21862216236369</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>13.29201753649798</v>
+        <v>59.75732542873153</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>13.27425731542402</v>
+        <v>53.05042041382533</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>13.37553176291426</v>
+        <v>63.65898033378996</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>13.43113861909399</v>
+        <v>68.71847742181875</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>13.11776630325744</v>
+        <v>14.57726886731871</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>13.33325996109272</v>
+        <v>55.18056250843376</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>13.41063581325677</v>
+        <v>59.70120673485457</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>13.14270171224466</v>
+        <v>12.21517123029776</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>13.2737969061088</v>
+        <v>40.19390780749078</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>13.32344338213498</v>
+        <v>45.32623248640924</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>13.12722799261031</v>
+        <v>-2.907093446912915</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>13.26703545634133</v>
+        <v>33.37330434466444</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>13.3223610551969</v>
+        <v>38.40302261778763</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>13.21612969683047</v>
+        <v>11.46073166605799</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>13.32893889684414</v>
+        <v>57.48633176289723</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>13.37314420216993</v>
+        <v>66.10300571877291</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>13.3753907047699</v>
+        <v>67.00302215655353</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>13.49405905836455</v>
+        <v>79.31330520992167</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>13.55906435637687</v>
+        <v>85.35810469468035</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>13.21182323401173</v>
+        <v>13.09406866234392</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>13.45346126108393</v>
+        <v>66.78134888825105</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>13.54481534258144</v>
+        <v>72.69102886665151</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>13.0474780522202</v>
+        <v>12.13582523068429</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>13.1186584153775</v>
+        <v>15.75815643642494</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>13.14695828008397</v>
+        <v>20.36218875565984</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>13.03580098843684</v>
+        <v>1.159420685268545</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.11064649079366</v>
+        <v>15.21927869466764</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.14231911225003</v>
+        <v>18.60291659249727</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>13.08749994356404</v>
+        <v>6.257317983876709</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>13.1478316554146</v>
+        <v>29.44567582492127</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.17305004846062</v>
+        <v>34.14456292665596</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>13.14548656180967</v>
+        <v>32.04145802154202</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>13.20368806304127</v>
+        <v>30.31390054023895</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>13.24121629769923</v>
+        <v>32.60852740202359</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13.03913880526055</v>
+        <v>12.32590867441128</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>13.17131055782377</v>
+        <v>20.26438256917386</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>13.22311748591995</v>
+        <v>26.97843972596019</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.04936962656705</v>
+        <v>13.80434668780193</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>13.14974936018024</v>
+        <v>24.24934536439664</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>13.19020900657561</v>
+        <v>30.0640460771095</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>13.02013932795492</v>
+        <v>-2.144366996477066</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>13.12635626086709</v>
+        <v>12.05175042720998</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>13.17148059429049</v>
+        <v>21.30247956892308</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>13.17887277178476</v>
+        <v>26.96188668014143</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>13.21488013687391</v>
+        <v>36.98475668374802</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>13.1847648826283</v>
+        <v>29.37634064250491</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>13.27068262776608</v>
+        <v>33.28349937246902</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>13.32499200191446</v>
+        <v>40.79391013664719</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>13.04868905738726</v>
+        <v>8.784985594148973</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>13.23432478565189</v>
+        <v>31.87956488105257</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>13.3085451929465</v>
+        <v>37.98317662503398</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>13.08528177521629</v>
+        <v>16.77461099090122</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>13.19834284035365</v>
+        <v>31.79582938283328</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>13.24564108229078</v>
+        <v>37.60770546087647</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>13.06075879355779</v>
+        <v>-2.507605367880307</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>13.18110775821219</v>
+        <v>18.70275834988535</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>13.2338591852974</v>
+        <v>26.21864448561366</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>13.14281031824019</v>
+        <v>6.182718363903641</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>13.23988646691382</v>
+        <v>38.94099395431031</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>13.28207414743003</v>
+        <v>48.80371089254044</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>13.26878032556769</v>
+        <v>52.08183584559944</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>13.36989762544185</v>
+        <v>57.22250384480167</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>13.43273305883375</v>
+        <v>63.22740124633975</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>13.12648795628069</v>
+        <v>14.77933674058299</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>13.33495231964184</v>
+        <v>48.9421311864111</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>13.42177691034177</v>
+        <v>55.83815960745665</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>13.09324279823903</v>
+        <v>7.046206495914484</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.16465464002537</v>
+        <v>19.45220564084101</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>13.19268738438601</v>
+        <v>24.94486861681071</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>13.08674959453384</v>
+        <v>0.08113723211784141</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>13.1619553523861</v>
+        <v>24.91376055331614</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>13.1933377973469</v>
+        <v>28.69290278058603</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>13.13517790848528</v>
+        <v>8.539196039686031</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>13.19581533045332</v>
+        <v>41.32710770017956</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>13.22080675577325</v>
+        <v>46.39827856794619</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>13.20416666130271</v>
+        <v>37.32293768538106</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>13.26327844713904</v>
+        <v>42.52359919477061</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>13.30052840730881</v>
+        <v>44.33744389013623</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>13.09920324583423</v>
+        <v>4.138311363987251</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>13.23175622522149</v>
+        <v>25.52233568832034</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>13.28306799134129</v>
+        <v>32.56422915128995</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>13.10948211108729</v>
+        <v>14.99992618779031</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>13.2100224541136</v>
+        <v>34.7437041896068</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>13.25001895342993</v>
+        <v>39.64110572549579</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>13.08733745889556</v>
+        <v>1.083371263030935</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13.19386412836522</v>
+        <v>26.77677952714074</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>13.23848245060358</v>
+        <v>34.45644889151622</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.24191024083113</v>
+        <v>44.30239583916686</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>13.27751786425907</v>
+        <v>52.91024091498737</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>13.26181105913631</v>
+        <v>42.20451801825953</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>13.34872199338952</v>
+        <v>53.76971428586926</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>13.40250771286664</v>
+        <v>59.28030640331623</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>13.1275316331819</v>
+        <v>10.89310591015783</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>13.31341846342701</v>
+        <v>48.44277238920467</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>13.38677657892543</v>
+        <v>52.4734625727508</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>13.14121185494527</v>
+        <v>12.35344352439327</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>13.25418139851772</v>
+        <v>35.32997699582084</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>13.30089742733751</v>
+        <v>40.89740608958126</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>13.12353006030059</v>
+        <v>-3.135596944904568</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>13.24390891791042</v>
+        <v>27.55407848982179</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>13.29602054322329</v>
+        <v>34.52347244390491</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>13.20116194117782</v>
+        <v>8.159147859342548</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>13.29828087535881</v>
+        <v>49.36507318872597</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>13.33996068768064</v>
+        <v>58.6852262156978</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>13.34000678464417</v>
+        <v>59.54071739136167</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>13.44181760670246</v>
+        <v>71.35474699615278</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>13.50398691215918</v>
+        <v>76.17206401266824</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>13.19970511390468</v>
+        <v>13.56032358687425</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>13.40796580165489</v>
+        <v>59.95326388025077</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>13.4937070023251</v>
+        <v>65.998342618309</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>13.07188922232181</v>
+        <v>2.65043635551808</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>13.18166038339373</v>
+        <v>18.35382516160357</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>13.22068786611111</v>
+        <v>23.14763750651435</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>13.06660317818819</v>
+        <v>1.754534633632568</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>13.18231698355387</v>
+        <v>31.09024357544894</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>13.22598259234658</v>
+        <v>32.20876338815059</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>13.14021775678046</v>
+        <v>11.20423040517112</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>13.23354064648553</v>
+        <v>48.26707242774142</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>13.26826162276477</v>
+        <v>51.49883068528462</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>13.2425494828483</v>
+        <v>41.34222308394742</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>13.33432667757152</v>
+        <v>48.38784033816079</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>13.38541401468639</v>
+        <v>48.93566890786754</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>13.08194001724191</v>
+        <v>-2.171647354762706</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>13.28563088055363</v>
+        <v>23.46404557236543</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>13.3571742846656</v>
+        <v>28.02639933797091</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.09888460808551</v>
+        <v>17.38293859594167</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>13.25333677462338</v>
+        <v>43.04562149067365</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>13.30937032872418</v>
+        <v>44.77519010255899</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>13.07195401450966</v>
+        <v>4.761236346076531</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>13.2357397436335</v>
+        <v>38.53646010265643</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>13.29819858262718</v>
+        <v>40.78443223896132</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>13.17600979681252</v>
+        <v>17.19418616961955</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>13.30811205203867</v>
+        <v>60.71720001423513</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>13.35789626374643</v>
+        <v>65.18957017726751</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.3351989956303</v>
+        <v>56.19388630645431</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>13.4698286016521</v>
+        <v>70.94502085425314</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>13.54420329828047</v>
+        <v>72.74728458101674</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>13.12987461413124</v>
+        <v>18.02341432387554</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>13.41537407528357</v>
+        <v>63.03119393751026</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>13.51830071978239</v>
+        <v>62.53911696216372</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>13.15951949985371</v>
+        <v>12.08477903347242</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>13.13984506508184</v>
+        <v>-5.342829523003791</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>13.32488845975643</v>
+        <v>35.21674064361382</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>13.39842367499858</v>
+        <v>35.83459404701834</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>13.25689559247002</v>
+        <v>11.78912635929156</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>13.40621744854172</v>
+        <v>61.71650255577924</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>13.46497682863324</v>
+        <v>66.01859283009183</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>13.46879725823302</v>
+        <v>67.42916674646227</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.62628798134484</v>
+        <v>82.64354429324402</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>13.71297856397848</v>
+        <v>82.82308212687417</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>13.25421699174722</v>
+        <v>13.23494791118482</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>13.57404389393214</v>
+        <v>70.52402026152954</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>13.69530018054487</v>
+        <v>70.63502308427387</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>13.04174741853805</v>
+        <v>3.686215763928258</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>13.14895241223664</v>
+        <v>9.262468257271715</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>13.18873097533896</v>
+        <v>15.18774419868067</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>13.03068152885684</v>
+        <v>-7.382322125890402</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>13.14351860707288</v>
+        <v>10.46492894172213</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.18803698035603</v>
+        <v>13.26926831566492</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.10603808406641</v>
+        <v>-0.7474857728936524</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>13.19702079311391</v>
+        <v>25.64478451472217</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.23243141539312</v>
+        <v>30.46680126751289</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>13.19973561924801</v>
+        <v>30.67676514666365</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>13.2878816025067</v>
+        <v>31.72885347603158</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>13.33987736105388</v>
+        <v>33.83599034717165</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>13.04019872783016</v>
+        <v>0.7428072888049311</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.23919099830908</v>
+        <v>13.71654470110264</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>13.31212105200971</v>
+        <v>21.43939496313884</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.04791561654122</v>
+        <v>13.20857218169234</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.19895358276103</v>
+        <v>25.92803145223799</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>13.2560911551584</v>
+        <v>32.76695353687431</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>13.01258358473664</v>
+        <v>-2.371993814138909</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>13.1725418094873</v>
+        <v>16.18918711532833</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>13.23625467963509</v>
+        <v>24.35054390761836</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>13.11957853006337</v>
+        <v>5.200838081647911</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>13.2485671797073</v>
+        <v>34.78160442964253</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>13.2993660699995</v>
+        <v>44.62078895053031</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>13.26455648023291</v>
+        <v>39.16646590579563</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>13.39438488343283</v>
+        <v>45.25243599675066</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>13.47012776586802</v>
+        <v>51.64877457151686</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>13.06055602068368</v>
+        <v>11.53384221234584</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>13.33980214126944</v>
+        <v>39.0111843645179</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>13.44477240329014</v>
+        <v>46.18802063368143</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>13.10877264633847</v>
+        <v>12.85166528080053</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>13.2788746465253</v>
+        <v>32.26570870064334</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>13.34596110816284</v>
+        <v>38.76453627017971</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>13.08088084179349</v>
+        <v>-3.044155052707088</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>13.26208796651563</v>
+        <v>25.29275310769985</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>13.33689951155524</v>
+        <v>31.10180406153324</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>13.20084542726982</v>
+        <v>9.485822960478787</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>13.34704643499579</v>
+        <v>48.20526411860913</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>13.4068384591966</v>
+        <v>57.21465553597771</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>13.39870448836007</v>
+        <v>60.29756955555654</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>13.55135614499892</v>
+        <v>68.48104044868838</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>13.63945769756319</v>
+        <v>73.2018075472015</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>13.18535608708368</v>
+        <v>14.49750907246478</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>13.49892084939585</v>
+        <v>57.46234296088148</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>13.62225235980816</v>
+        <v>64.19247126020825</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>13.07089595679347</v>
+        <v>1.850540171428557</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>13.15318859215174</v>
+        <v>12.33807036444294</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>13.18509329548545</v>
+        <v>17.07332775119097</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>13.06201545113657</v>
+        <v>-6.36017245996379</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.14866594545065</v>
+        <v>16.23858291444969</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>13.18437652581126</v>
+        <v>18.93423205479464</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>13.11903242212228</v>
+        <v>1.499057839667875</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>13.18889607725525</v>
+        <v>32.68415263461621</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>13.21732692165779</v>
+        <v>36.91363527553597</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.1937795949074</v>
+        <v>30.47861386120153</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>13.26185626189119</v>
+        <v>33.7178138365978</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>13.30415351781654</v>
+        <v>34.59313273546572</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.07250379623922</v>
+        <v>-1.555160301264221</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>13.22525902246633</v>
+        <v>16.71871804064784</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>13.28367412325135</v>
+        <v>22.26298622966413</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.084727981761</v>
+        <v>8.443613293368513</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>13.20062099038446</v>
+        <v>26.94710441652103</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>13.24620690312912</v>
+        <v>31.09354761822668</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>13.05744888451903</v>
+        <v>-7.931572793392418</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>13.18022621904512</v>
+        <v>16.21589122674351</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>13.23106973114801</v>
+        <v>22.94236102913122</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>13.13813062890086</v>
+        <v>-0.8257595068167216</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>13.2371316353791</v>
+        <v>34.51661466698113</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>13.27769891216473</v>
+        <v>42.44292389808314</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.25418506662535</v>
+        <v>33.73238632050379</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>13.35432529022615</v>
+        <v>43.79714723145273</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>13.41550299502619</v>
+        <v>48.52290972050295</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>13.09905184362714</v>
+        <v>3.73711726335396</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>13.31332898383683</v>
+        <v>39.19549009047975</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.39696247536773</v>
+        <v>42.04363651636035</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>13.12364889168397</v>
+        <v>6.929040690305763</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>13.25393388113849</v>
+        <v>29.11554766741212</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>13.30725930895521</v>
+        <v>34.0155406576324</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>13.10158417717371</v>
+        <v>-12.40874269954385</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>13.24040089683512</v>
+        <v>17.48192947267986</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>13.29987568543882</v>
+        <v>23.50422307455216</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>13.19251491930675</v>
+        <v>-0.366217909992832</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.30450766100191</v>
+        <v>40.5203466022784</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>13.35206912336729</v>
+        <v>49.20558132398057</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>13.34722217376447</v>
+        <v>51.61540548944928</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>13.46461582498094</v>
+        <v>62.16314679548888</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>13.53544042630977</v>
+        <v>66.31526112978342</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>13.18510239940581</v>
+        <v>5.948778909179987</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>13.4252858812769</v>
+        <v>51.34773854597234</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>13.5231858920675</v>
+        <v>56.36285782232832</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>13.11669739494966</v>
+        <v>7.744214343742302</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>13.21661229896505</v>
+        <v>27.6457821563862</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>13.25198395357575</v>
+        <v>35.42038477638074</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.11701627045518</v>
+        <v>5.020967566528141</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>13.22242283125066</v>
+        <v>40.46116053002368</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>13.26202022809733</v>
+        <v>44.36287657469041</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>13.18115592914767</v>
+        <v>17.18803301655004</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.26618193084563</v>
+        <v>59.27550018767705</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>13.29767123222674</v>
+        <v>65.14500628064941</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.28487813216058</v>
+        <v>56.95604280142496</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>13.36866039768061</v>
+        <v>67.42363267545169</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>13.41481023760532</v>
+        <v>71.12325883670677</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>13.13988314978752</v>
+        <v>8.409633015400951</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>13.32525053374108</v>
+        <v>41.75169420533125</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>13.39010783640172</v>
+        <v>51.62477214254188</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>13.14193464208685</v>
+        <v>9.08123695070787</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>13.28233816840841</v>
+        <v>34.9657540079464</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>13.33307504578737</v>
+        <v>39.52604013635809</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>13.12341731509222</v>
+        <v>-4.606773302753977</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>13.27240301717908</v>
+        <v>30.29566958716624</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>13.32898591378025</v>
+        <v>34.99970106422151</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>13.21497957721872</v>
+        <v>7.920634007397156</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>13.33516465987057</v>
+        <v>52.06257149861295</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>13.38026898820878</v>
+        <v>58.8672762644365</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>13.37063619031513</v>
+        <v>51.62154864250575</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>13.49326370940184</v>
+        <v>65.26015805615694</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>13.56041353816252</v>
+        <v>69.75730076865312</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>13.18532700645111</v>
+        <v>10.5545202877052</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>13.44482919565</v>
+        <v>56.36630031638631</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>13.53804536181982</v>
+        <v>60.29391655809843</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>13.19220524770127</v>
+        <v>4.174618802785746</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>13.34979222688702</v>
+        <v>34.52738373354176</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>13.40942215167645</v>
+        <v>38.81031122496341</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>13.18016009707645</v>
+        <v>-8.938097152724749</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>13.34829897026857</v>
+        <v>32.75609085501447</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>13.41480191312898</v>
+        <v>35.42015322387492</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>13.28363987574488</v>
+        <v>6.879799662453161</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>13.41933986372663</v>
+        <v>57.49937843842319</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>13.47248265022407</v>
+        <v>63.67848564584429</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>13.48585659554317</v>
+        <v>65.71547827576123</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>13.62906007414996</v>
+        <v>79.53507400060148</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>13.70724077289775</v>
+        <v>81.78768295002743</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>13.29223269538229</v>
+        <v>8.882807370189967</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>13.58266221691406</v>
+        <v>67.21528700433801</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>13.69229756162123</v>
+        <v>70.63486862847371</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>13.01697321149442</v>
+        <v>6.868120406956015</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>13.1055058802106</v>
+        <v>9.592844105468105</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>13.13859179426126</v>
+        <v>15.09820538848031</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>13.00250550163525</v>
+        <v>-4.14778521151114</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>13.09564477853843</v>
+        <v>4.898500457875111</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>13.13262962518327</v>
+        <v>8.964374902662202</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>13.06758406662519</v>
+        <v>-1.013166626407761</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>13.1426584865463</v>
+        <v>17.17150966676548</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>13.17207582877689</v>
+        <v>22.91138242792861</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>13.13584532620604</v>
+        <v>24.2935351443198</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>13.2081434667499</v>
+        <v>22.42970016815497</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.25139975971215</v>
+        <v>23.68338614044078</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>13.00139305705705</v>
+        <v>-1.119019601831679</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>13.16576406818873</v>
+        <v>7.626565195467892</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>13.22650517020322</v>
+        <v>11.9632941752359</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>13.00735377869731</v>
+        <v>9.689604203551765</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>13.13218921269678</v>
+        <v>15.84832791267677</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>13.1799424686831</v>
+        <v>26.29136291466486</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>12.97075327978051</v>
+        <v>-1.334983933806518</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>13.10290849264116</v>
+        <v>4.949234409088982</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>13.15610822095739</v>
+        <v>18.67961072419488</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>13.06322472024301</v>
+        <v>0.3708903348640238</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>13.1697607726342</v>
+        <v>18.15873331336993</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>13.21217860039457</v>
+        <v>32.97835817239095</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>13.17056576596631</v>
+        <v>24.47931394922411</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>13.27726692530858</v>
+        <v>23.20990070613957</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>13.34057783490852</v>
+        <v>34.34943653173163</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>12.99870768463009</v>
+        <v>0.622280490899529</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>13.22954193807311</v>
+        <v>16.59037257186589</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>13.31738660148827</v>
+        <v>28.86562934861499</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>13.05773335234164</v>
+        <v>12.98306586089133</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>13.19858411709084</v>
+        <v>23.85580652436695</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.25485029204922</v>
+        <v>36.30090642744761</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>13.02671035542666</v>
+        <v>-2.172597732657385</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>13.17672333073842</v>
+        <v>11.94742661839823</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>13.23941911354073</v>
+        <v>26.42430130794548</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>13.13023825988799</v>
+        <v>5.264170667255494</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>13.25123987100744</v>
+        <v>30.17421374685404</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>13.30135166380523</v>
+        <v>46.97590697355741</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>13.28169943504019</v>
+        <v>43.07811465787095</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.40758005965049</v>
+        <v>44.02543017917716</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>13.48149776335059</v>
+        <v>60.42590838404266</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>13.10197460609408</v>
+        <v>5.044229060276402</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>13.36165762039276</v>
+        <v>32.56709030724527</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>13.46520760787681</v>
+        <v>49.73381385641517</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>13.05805892100002</v>
+        <v>-1.285702529864425</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.14360795305103</v>
+        <v>11.77652204571211</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>13.17382355867229</v>
+        <v>14.90953300167137</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>13.05082964044825</v>
+        <v>-6.40056826875834</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>13.14095541117511</v>
+        <v>15.78640618825947</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>13.17472586799529</v>
+        <v>16.45213833600746</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>13.10985460431325</v>
+        <v>0.3691350762500907</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.18252086284509</v>
+        <v>30.96968300462673</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>13.2093655021411</v>
+        <v>33.68322686612343</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.18391364687082</v>
+        <v>29.59056563026336</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.25497877915264</v>
+        <v>34.62490955942609</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>13.29441978495302</v>
+        <v>32.84038506610729</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.05646025438504</v>
+        <v>-6.11725077330984</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.21524002698122</v>
+        <v>15.36408447725013</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>13.27069467022127</v>
+        <v>16.15235074914849</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.06990635508466</v>
+        <v>13.09408874878306</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.1903802299548</v>
+        <v>33.3377845491791</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>13.23398220926079</v>
+        <v>35.80438181676185</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>13.04450345874188</v>
+        <v>3.254217817212615</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>13.17219226682179</v>
+        <v>27.13776464226213</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>13.22075053511167</v>
+        <v>31.41642787561413</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>13.12805894064807</v>
+        <v>10.8916384662329</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>13.23102147144844</v>
+        <v>45.16264300096577</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>13.26971832361436</v>
+        <v>51.54009966054481</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>13.24441977426858</v>
+        <v>45.78429657460058</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>13.34887364845494</v>
+        <v>54.74932628680403</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>13.40660453182734</v>
+        <v>57.19954470340546</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>13.08152192208119</v>
+        <v>12.97488288475027</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>13.30424597159468</v>
+        <v>48.19793872806883</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>13.38443085716127</v>
+        <v>49.16133606195345</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>13.12071502416958</v>
+        <v>13.85487602261947</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>13.25631951348049</v>
+        <v>38.80672852170402</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>13.30785216116116</v>
+        <v>41.8079444647114</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>13.10081466776982</v>
+        <v>-2.768215933510517</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>13.24537029313293</v>
+        <v>29.03036684870038</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>13.30277420746268</v>
+        <v>32.37122653993264</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>13.19458256477101</v>
+        <v>10.84389028837114</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>13.31120814331865</v>
+        <v>52.29108650856114</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>13.35707210634022</v>
+        <v>59.18059968789063</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>13.35318939485545</v>
+        <v>60.49988627229225</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>13.47578020500656</v>
+        <v>71.8633534164027</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>13.54335536306439</v>
+        <v>76.20010583016351</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>13.18289823694822</v>
+        <v>12.66589998425663</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>13.43286526294275</v>
+        <v>60.69636949015207</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>13.52768764027193</v>
+        <v>64.01902042080303</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>13.03106766381872</v>
+        <v>11.07612563651337</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>13.11025808560696</v>
+        <v>14.80405368670766</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>13.13843942276019</v>
+        <v>18.17621256794172</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>13.02125818941313</v>
+        <v>2.381395166697194</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>13.10458684817898</v>
+        <v>13.72226598419992</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.13608864041399</v>
+        <v>15.11487178716894</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>13.07834631828207</v>
+        <v>4.874308333244175</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>13.14552385920374</v>
+        <v>25.22709794731107</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>13.17055992514498</v>
+        <v>28.62227193520135</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>13.14020630789805</v>
+        <v>31.08603430773972</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>13.20523305398327</v>
+        <v>28.77118335106805</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>13.24179457165953</v>
+        <v>29.7887427471974</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.02087040079914</v>
+        <v>7.835576070888452</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.16788035478852</v>
+        <v>15.18216043713098</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>13.21962171710154</v>
+        <v>18.53380825732634</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.02559191980682</v>
+        <v>5.730792774031359</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>13.13721378196683</v>
+        <v>12.93072677248935</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>13.17795939531807</v>
+        <v>17.76525149953373</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>12.99718549219066</v>
+        <v>-4.971019441821154</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>13.11537351791128</v>
+        <v>3.524949873613446</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>13.16075731011135</v>
+        <v>10.63456647217061</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>13.07827167308867</v>
+        <v>-4.124710833836529</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>13.17356186749417</v>
+        <v>15.82920922026374</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>13.20972383373507</v>
+        <v>24.77675057458137</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.1757024822879</v>
+        <v>21.39277053518515</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>13.27155254293375</v>
+        <v>18.7449471024127</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>13.32521560259928</v>
+        <v>25.43186058646015</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>13.02316931878346</v>
+        <v>-0.3368514302037138</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>13.2295582801934</v>
+        <v>14.19090955678115</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>13.30452173619608</v>
+        <v>19.98034636593113</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>13.07595099105391</v>
+        <v>12.54773356270566</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>13.2018450851489</v>
+        <v>26.31457573459453</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>13.25000159397623</v>
+        <v>30.22381317297521</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>13.05295381354859</v>
+        <v>-4.568743280678431</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>13.18705133164276</v>
+        <v>14.39034926095698</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>13.24070311010756</v>
+        <v>18.53447414426586</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>13.14351579289529</v>
+        <v>3.273876480983626</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>13.25169370328418</v>
+        <v>32.7293064380387</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>13.29455455281632</v>
+        <v>40.32936405235476</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>13.28128438152933</v>
+        <v>43.80575739865434</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>13.39422731453596</v>
+        <v>44.4079428223186</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>13.45707789518905</v>
+        <v>50.77766893112987</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>13.12169264774271</v>
+        <v>5.35236985126909</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>13.35378030460824</v>
+        <v>35.7307141361834</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>13.4424281955809</v>
+        <v>40.77424015313181</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>12.99531056602819</v>
+        <v>2.791948167386893</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>13.07648571796908</v>
+        <v>0.1565070271281375</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>13.10549537134378</v>
+        <v>0.7157119207884666</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>12.98092472845828</v>
+        <v>-3.991266847309616</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.06626163757363</v>
+        <v>-1.938534569401538</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.098668504751</v>
+        <v>-2.847404431262829</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>13.04187763175973</v>
+        <v>-5.452456612988724</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.11065860368229</v>
+        <v>6.227430588858146</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.13641012526597</v>
+        <v>7.311330369894145</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>13.09675398438264</v>
+        <v>11.44971567061066</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>13.16305984478541</v>
+        <v>3.904975426827869</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>13.20075657511912</v>
+        <v>2.366985632709911</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>12.97302092490762</v>
+        <v>-2.143309091596544</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>13.12375059093561</v>
+        <v>-5.625801238036614</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.17701496674851</v>
+        <v>-6.722600689494444</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>12.98635188124624</v>
+        <v>3.496356160836198</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.10092974868753</v>
+        <v>5.957232635704075</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>13.14295217057501</v>
+        <v>8.28250622808145</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>12.95189477347646</v>
+        <v>-4.498762737463812</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>13.07311783940648</v>
+        <v>-2.69677015166779</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>13.11989784923916</v>
+        <v>2.226009430291265</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>13.03790428624116</v>
+        <v>-6.407204893944192</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>13.13562185626151</v>
+        <v>6.981070340076657</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.1728923840774</v>
+        <v>13.738829421188</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>13.12850069346486</v>
+        <v>11.6884150212007</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>13.22650357246015</v>
+        <v>5.731973226767701</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>13.28192643469017</v>
+        <v>9.957419879525064</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>12.97031377494389</v>
+        <v>-2.685742357887213</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>13.18219921759594</v>
+        <v>3.600661970248234</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>13.25951740770217</v>
+        <v>5.921323165404226</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>13.04244998102885</v>
+        <v>14.34754461611702</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>13.17186335436501</v>
+        <v>23.48988879183225</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>13.22162597386711</v>
+        <v>25.04725673300075</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>13.01365167878692</v>
+        <v>-3.927201030504923</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.15141085915174</v>
+        <v>8.637513380135141</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>13.20682587994972</v>
+        <v>10.8880904186185</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>13.10932895662107</v>
+        <v>2.266467405307226</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>13.2204418738832</v>
+        <v>25.33144357619123</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>13.26470837681192</v>
+        <v>30.99864018287885</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.24262929718946</v>
+        <v>35.24013800893463</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>13.35841144738046</v>
+        <v>33.31793603741438</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>13.42342940454803</v>
+        <v>37.94661935807452</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>13.07707041836297</v>
+        <v>4.461966996850743</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>13.31566908832998</v>
+        <v>26.52766011447049</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>13.40727709086704</v>
+        <v>28.79584618130612</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>13.05392123953221</v>
+        <v>10.59571156187412</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>13.13504366056342</v>
+        <v>16.04497320200628</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>13.16727733114283</v>
+        <v>21.9082133277677</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>13.04219521652113</v>
+        <v>-4.102943387314665</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.12753517647812</v>
+        <v>12.87307049435685</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>13.16361889210402</v>
+        <v>17.07080874746284</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.10019577908855</v>
+        <v>3.293813814278428</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>13.16899339146375</v>
+        <v>29.23265871287389</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>13.19772609715088</v>
+        <v>34.84374158443552</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>13.17025549172087</v>
+        <v>32.99180168496262</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>13.2366940437856</v>
+        <v>33.37816222897575</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>13.27938855654913</v>
+        <v>35.8023193502037</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>13.04949837386842</v>
+        <v>8.117607882533088</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>13.20011224168984</v>
+        <v>20.40047122172012</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>13.25913481398517</v>
+        <v>28.46687173379012</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>13.05734949919925</v>
+        <v>11.60054379584295</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>13.17168501528199</v>
+        <v>23.49135270819528</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>13.21775454792802</v>
+        <v>30.94716091282292</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>13.02597326850807</v>
+        <v>-7.679945483208128</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>13.14700623271304</v>
+        <v>8.729914205560819</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>13.19839866612836</v>
+        <v>19.28263489627163</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>13.10823711615429</v>
+        <v>-2.247132622426021</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>13.20581920277361</v>
+        <v>25.99793605794815</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>13.24683074747148</v>
+        <v>37.3829537258603</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>13.21685225291488</v>
+        <v>29.63809958746186</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>13.31482548409724</v>
+        <v>35.24798587065764</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>13.37660181409152</v>
+        <v>43.22249647577817</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>13.06236378986897</v>
+        <v>5.248450682880128</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.27378999420454</v>
+        <v>31.97160032102155</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>13.35831897050859</v>
+        <v>39.80968969865032</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>13.09626089273466</v>
+        <v>12.8742193902289</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>13.22498223585017</v>
+        <v>29.74254274049294</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>13.27879852729998</v>
+        <v>37.51059720204471</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>13.07017156411714</v>
+        <v>-7.071428754283842</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>13.20723820173875</v>
+        <v>16.68872559812538</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>13.26727076832691</v>
+        <v>25.84596141570314</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>13.16267863627513</v>
+        <v>3.295168132393025</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>13.27324776989565</v>
+        <v>38.55483839256348</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>13.32126061512652</v>
+        <v>50.07750502328722</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>13.30999182923705</v>
+        <v>52.54495808974472</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.42519979175642</v>
+        <v>59.40902197158588</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>13.49664171599758</v>
+        <v>66.48706493866273</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>13.14847835444453</v>
+        <v>10.97579905146065</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>13.38580403154161</v>
+        <v>49.31347463559155</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>13.48461185260784</v>
+        <v>58.37751932596708</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>13.07371649288078</v>
+        <v>15.946751508313</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>13.15169759327646</v>
+        <v>31.69060110825205</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>13.17978024244437</v>
+        <v>37.83204059426062</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>13.06726879537875</v>
+        <v>9.655588512245989</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>13.14941390101513</v>
+        <v>34.3099910946971</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>13.18080027457294</v>
+        <v>38.77151781761568</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>13.12074421745679</v>
+        <v>18.68045461211218</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>13.18697116333301</v>
+        <v>51.04970290903594</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>13.21192782598255</v>
+        <v>57.21285143746088</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>13.19144192842091</v>
+        <v>52.18948626663264</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.25589458063704</v>
+        <v>60.81061223197491</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>13.29251961448574</v>
+        <v>62.39744968735566</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>13.07460519706989</v>
+        <v>14.06822519353654</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>13.21934363249441</v>
+        <v>41.79591092885161</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>13.27090390618011</v>
+        <v>47.11206000579369</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>13.0787320308002</v>
+        <v>11.37976575308672</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>13.18853333471662</v>
+        <v>30.0392471776108</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>13.229075509336</v>
+        <v>37.94523180217151</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>13.05497642604956</v>
+        <v>2.78028621408899</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13.1713431455402</v>
+        <v>24.03481883283156</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>13.21649788494747</v>
+        <v>34.69141108168421</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>13.13129822387765</v>
+        <v>9.058012242147479</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>13.2251248213222</v>
+        <v>40.48021439733676</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>13.26111857842353</v>
+        <v>52.65203541747526</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>13.23938196814277</v>
+        <v>42.5878524271864</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>13.33415597447318</v>
+        <v>50.55302056453921</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>13.38779077096455</v>
+        <v>58.95611314253195</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>13.09008140500365</v>
+        <v>8.220408028309487</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>13.29307766610702</v>
+        <v>42.3390799573667</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>13.36766303506769</v>
+        <v>51.3851000721921</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>13.12185676895455</v>
+        <v>9.020739293626294</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>13.24551870028112</v>
+        <v>31.41210083678531</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>13.29338020907933</v>
+        <v>40.95007205165918</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>13.10288753747198</v>
+        <v>-3.691116659827889</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>13.23470908893336</v>
+        <v>24.29813531742773</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>13.28802806151002</v>
+        <v>35.39994847443465</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>13.18878259762043</v>
+        <v>7.282306223108394</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>13.29512846831366</v>
+        <v>44.81909531360161</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>13.33773717343413</v>
+        <v>58.70715976003292</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>13.33485813410464</v>
+        <v>54.36253699160689</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>13.44623575362721</v>
+        <v>64.0723837932116</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>13.50897249080556</v>
+        <v>77.12089203999881</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>13.17878661153555</v>
+        <v>6.941679625080178</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>13.40674734614234</v>
+        <v>51.81020486105498</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>13.49484015980959</v>
+        <v>65.18825694069038</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>13.10779870932932</v>
+        <v>11.51355424501116</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>13.17766506971123</v>
+        <v>27.15473940069327</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>13.20480421343644</v>
+        <v>34.1046294902323</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>13.10359906697389</v>
+        <v>3.795109502451597</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>13.17721349911423</v>
+        <v>33.46096882097854</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>13.20760195209616</v>
+        <v>38.31705713473442</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>13.14989390669025</v>
+        <v>14.48770508073525</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>13.20925536082937</v>
+        <v>51.80057526816856</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>13.23345349158618</v>
+        <v>58.01961240861991</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>13.22100733152088</v>
+        <v>48.72647574458937</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>13.27898429887401</v>
+        <v>56.33727413275683</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>13.31495007332232</v>
+        <v>59.41930287145086</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>13.11880281140486</v>
+        <v>10.10123606501947</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>13.24847177708982</v>
+        <v>37.17646651831625</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>13.29815960710234</v>
+        <v>46.59684677319738</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.12402242230312</v>
+        <v>11.97840361563574</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>13.22231599891928</v>
+        <v>33.61022132650285</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>13.26104016772258</v>
+        <v>39.48607295971534</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>13.10496946644395</v>
+        <v>-3.451458616507692</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>13.20915875024942</v>
+        <v>25.11020593298409</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>13.25236488048321</v>
+        <v>33.41716925931276</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>13.17092882336051</v>
+        <v>4.884749959346914</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>13.25495195356032</v>
+        <v>44.05812857075694</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>13.28943056692344</v>
+        <v>53.42796167934399</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>13.27814062827031</v>
+        <v>42.8538938939574</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>13.36326529521532</v>
+        <v>54.98350431137307</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>13.41521709009334</v>
+        <v>61.26503221937397</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>13.14741852627532</v>
+        <v>7.704936902848539</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>13.32913828722668</v>
+        <v>48.59749049292172</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>13.40017839435138</v>
+        <v>54.05086650044438</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>13.1539938966652</v>
+        <v>8.798907336193972</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>13.26438192228327</v>
+        <v>33.96428222983959</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>13.30960464363372</v>
+        <v>40.29429050170014</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>13.13928638018153</v>
+        <v>-6.303006710936179</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>13.25695567580385</v>
+        <v>27.59756970972239</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>13.30740911631633</v>
+        <v>34.84754150617841</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>13.2139961468959</v>
+        <v>5.853443707277686</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>13.3089378699387</v>
+        <v>50.266890448357</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>13.34928939316383</v>
+        <v>60.04119216606831</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>13.35314132631014</v>
+        <v>60.78610662698328</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>13.45275732370711</v>
+        <v>73.00438373291402</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>13.51281394707802</v>
+        <v>78.19707191978449</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>13.21656719024562</v>
+        <v>10.31512175161742</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>13.42005866027419</v>
+        <v>60.80465592314329</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>13.50307779151005</v>
+        <v>67.64439781740865</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>13.09463010285172</v>
+        <v>20.48773557023598</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>13.14599116868497</v>
+        <v>30.67885163659827</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>13.16656647969217</v>
+        <v>36.82571303558971</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>13.0889225853416</v>
+        <v>15.08326650466477</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>13.14295964933559</v>
+        <v>37.53638962927919</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>13.16599426638923</v>
+        <v>42.54617509413963</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>13.12422898511082</v>
+        <v>22.37129719953325</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>13.16779246820657</v>
+        <v>52.55659332067626</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>13.18613833129027</v>
+        <v>58.60026568770325</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>13.17293353400994</v>
+        <v>48.87916604676749</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>13.21508640531691</v>
+        <v>52.95053373476012</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>13.24243291416444</v>
+        <v>56.32370088991045</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>13.09662617852441</v>
+        <v>20.54632926708284</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>13.19197975163069</v>
+        <v>39.00763174869252</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>13.22963309383953</v>
+        <v>48.34333840137317</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>13.10390393884657</v>
+        <v>21.98823631023359</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>13.17627236456702</v>
+        <v>37.94456893179278</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>13.20562649280702</v>
+        <v>44.0369176279798</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>13.08636728192342</v>
+        <v>11.54264867703962</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>13.16298034025062</v>
+        <v>33.03360070879869</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>13.19572882689983</v>
+        <v>42.34338966815398</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>13.13651793279298</v>
+        <v>15.83548749574217</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>13.19828799086762</v>
+        <v>47.90846595576404</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>13.22442570979112</v>
+        <v>57.82639318818946</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>13.21115154048346</v>
+        <v>46.18151021681849</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>13.27326971629171</v>
+        <v>54.90198626779362</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>13.31275158015292</v>
+        <v>61.91668189241405</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>13.1135078439411</v>
+        <v>18.42775058072769</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>13.24732458966616</v>
+        <v>50.50868075800875</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>13.3011539363967</v>
+        <v>56.89458182340015</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>13.1272663060256</v>
+        <v>20.37470280974212</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>13.20867697012012</v>
+        <v>39.70381156197533</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>13.24292697813691</v>
+        <v>45.88536413703988</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>13.11302198901119</v>
+        <v>8.737575082585169</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>13.19971210643234</v>
+        <v>35.41947839883634</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>13.2379202959139</v>
+        <v>43.28108464625755</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>13.16967750989958</v>
+        <v>17.48628781224089</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>13.23960965825064</v>
+        <v>54.66118395180867</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>13.27017159053026</v>
+        <v>64.60646899588704</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>13.26843612369316</v>
+        <v>64.37781523259869</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>13.34139114728269</v>
+        <v>73.38130602780323</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>13.38698347484264</v>
+        <v>79.1057839687661</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>13.1663761756215</v>
+        <v>21.55061249298429</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>13.31647054599255</v>
+        <v>62.40723448706346</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>13.3793209096744</v>
+        <v>69.7290770061222</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>13.08102611112654</v>
+        <v>9.759257660159539</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>13.15319935440179</v>
+        <v>26.00395098146333</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>13.18012976237085</v>
+        <v>31.97319194943895</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>13.07447676251487</v>
+        <v>0.05918060065473618</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>13.15051604832832</v>
+        <v>26.82782394510665</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>13.18063420888516</v>
+        <v>30.64167838839445</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>13.12397165213421</v>
+        <v>10.56543790220519</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>13.18527779986127</v>
+        <v>45.75527752176049</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>13.20924219572312</v>
+        <v>51.37620102534034</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>13.19073231873132</v>
+        <v>48.19575029416713</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>13.25045898406658</v>
+        <v>56.76513489000975</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>13.28584302317334</v>
+        <v>56.03332993242568</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>13.08332442446245</v>
+        <v>5.90484118272351</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>13.21728339045255</v>
+        <v>35.18381343003858</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>13.26668448098316</v>
+        <v>39.64705353970569</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>13.08773595790879</v>
+        <v>9.593930183152517</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>13.18933121360086</v>
+        <v>30.06419507721702</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>13.22803835477701</v>
+        <v>37.19579842917958</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>13.06504193578839</v>
+        <v>-4.036769188958294</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>13.17272593244974</v>
+        <v>20.05226543823448</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>13.21586514872251</v>
+        <v>29.81826932978293</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>13.13558857032985</v>
+        <v>3.870589168512327</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>13.22241664866467</v>
+        <v>39.10178400567411</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>13.25682173758801</v>
+        <v>50.43423063840767</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>13.23740870968383</v>
+        <v>42.5767825565456</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>13.32518977499657</v>
+        <v>52.45434600928576</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>13.37672777228817</v>
+        <v>58.23046423306943</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>13.10012180512602</v>
+        <v>4.653301785061226</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>13.28794990953846</v>
+        <v>43.28743233977689</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>13.35909509100624</v>
+        <v>49.8577924412408</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>13.12332503883142</v>
+        <v>6.516851484117398</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>13.23763478360947</v>
+        <v>30.49124897191797</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>13.28313751350008</v>
+        <v>39.73155909394402</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>13.10495133201115</v>
+        <v>-9.457372566897631</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>13.22681169467573</v>
+        <v>20.72243816926267</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>13.27753001197745</v>
+        <v>31.46555790278283</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>13.18450754805801</v>
+        <v>2.978343486260416</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>13.28281887430522</v>
+        <v>43.84396112699532</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>13.32336513531307</v>
+        <v>57.46670432071313</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>13.32049684575174</v>
+        <v>56.61185997767139</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>13.42351157012363</v>
+        <v>67.76474808477091</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>13.48352025636631</v>
+        <v>78.02577487879446</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>13.17703657845699</v>
+        <v>4.738109319693672</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>13.38776380656466</v>
+        <v>53.44262127587331</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>13.47144220049702</v>
+        <v>65.19596383692084</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>13.0528451367526</v>
+        <v>9.552819392432008</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>13.12295442707938</v>
+        <v>12.41595736163799</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>13.15080733958537</v>
+        <v>15.9440993237895</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>13.0416067657535</v>
+        <v>-3.630413864599243</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.11533194546633</v>
+        <v>9.317785724346235</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>13.14650045862088</v>
+        <v>11.37286561617855</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>13.09239652105932</v>
+        <v>2.651472847037811</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>13.15182703498247</v>
+        <v>24.08216449252416</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>13.17664458624678</v>
+        <v>27.6192076558047</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>13.15040063614694</v>
+        <v>27.31220210279235</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.20768197116058</v>
+        <v>26.02453917072187</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>13.24437923523611</v>
+        <v>28.32068003509224</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>13.0450699433855</v>
+        <v>5.017275562947694</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.17524845774278</v>
+        <v>13.29505503453613</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>13.22624181929464</v>
+        <v>17.54146022317865</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.05389415365721</v>
+        <v>11.41455258284777</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>13.15276418423457</v>
+        <v>21.12504487545343</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>13.19265439884939</v>
+        <v>28.90383591755441</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>13.0253030463388</v>
+        <v>-3.698381447484897</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.12993072108661</v>
+        <v>9.712484973575267</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>13.17441549521188</v>
+        <v>20.97504583782532</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>13.09726313827754</v>
+        <v>1.339187730607202</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>13.18161381409674</v>
+        <v>25.75809168026872</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>13.2171128258475</v>
+        <v>37.63560564164531</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>13.18807699094502</v>
+        <v>29.24830973768513</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>13.27264352231988</v>
+        <v>33.52230145030374</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>13.32587892876157</v>
+        <v>44.39153541117938</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>13.05329660608582</v>
+        <v>5.588740557660623</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>13.23613466017151</v>
+        <v>28.42150958493111</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>13.30931497603441</v>
+        <v>37.387031081084</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>13.08787788363052</v>
+        <v>13.78945369551433</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>13.19927477624539</v>
+        <v>27.97164965172027</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>13.24593554057311</v>
+        <v>37.73190706813033</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>13.06374196228357</v>
+        <v>-3.557596111219928</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>13.18233035657582</v>
+        <v>16.47608256186518</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>13.23436767345855</v>
+        <v>28.48305122704407</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>13.14461654651764</v>
+        <v>4.973546204992823</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>13.24027566972399</v>
+        <v>35.73036927714568</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>13.28189453896819</v>
+        <v>49.54234750532137</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>13.2690457373723</v>
+        <v>46.36993430173488</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>13.36861996174823</v>
+        <v>50.84485309205028</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>13.43029633082875</v>
+        <v>62.68958461527934</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>13.12810567668518</v>
+        <v>5.622225315993427</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>13.33349508262692</v>
+        <v>38.85522102238247</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>13.41915360843794</v>
+        <v>52.17455657593086</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>13.09008906573417</v>
+        <v>14.32602411767752</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>13.14102704843849</v>
+        <v>22.91764065614498</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>13.1615690468411</v>
+        <v>29.88211239505513</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>13.08382558202704</v>
+        <v>5.046344775974708</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>13.13740682740868</v>
+        <v>25.57333127311605</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>13.16040463788488</v>
+        <v>31.63811508322593</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>13.11923467037743</v>
+        <v>12.49902780528386</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>13.16242946402006</v>
+        <v>40.81075024518586</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>13.18074711770319</v>
+        <v>47.77790656999942</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>13.16651342393807</v>
+        <v>38.34492729151339</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>13.20822124134604</v>
+        <v>41.22334173987537</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>13.23552868649707</v>
+        <v>46.04093851485619</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>13.09069253669879</v>
+        <v>12.54724616916219</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>13.18526517416342</v>
+        <v>28.94675476306431</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>13.2228567261586</v>
+        <v>39.74767290709852</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.09708641108408</v>
+        <v>12.79274752236167</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>13.16886993025046</v>
+        <v>26.77635322518037</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>13.19817837975149</v>
+        <v>34.63103356143302</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>13.07881017469739</v>
+        <v>-0.7906642220269315</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>13.1547911061155</v>
+        <v>18.34594449164974</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>13.18748978594696</v>
+        <v>29.72168777531473</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>13.12912138977512</v>
+        <v>3.501755810761255</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>13.19038017563361</v>
+        <v>33.30355091298089</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>13.21647959233157</v>
+        <v>45.03909819721652</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>13.20162912706997</v>
+        <v>32.32148992125557</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>13.26312464466982</v>
+        <v>39.51049878765626</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>13.30255166628879</v>
+        <v>48.9141743399069</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>13.10460506497779</v>
+        <v>6.677460013413041</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>13.23734460776915</v>
+        <v>36.01596854070722</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>13.29108910678189</v>
+        <v>45.15292613774663</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>13.12004039610314</v>
+        <v>10.101145483218</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.20081599728881</v>
+        <v>27.5962182155293</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>13.23499962109972</v>
+        <v>35.54023675417044</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>13.10502807916864</v>
+        <v>-4.16948229824632</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>13.1910302486979</v>
+        <v>20.30572398173441</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>13.22916572528792</v>
+        <v>30.20592426311092</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>13.16182727666592</v>
+        <v>4.255490612616869</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>13.23120292911889</v>
+        <v>39.29657305727821</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>13.26170799090003</v>
+        <v>51.02501564654376</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>13.25827641915688</v>
+        <v>49.28053165275051</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>13.33054644719868</v>
+        <v>56.74456802125849</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>13.37606042067864</v>
+        <v>64.88787293524925</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>13.15685532662214</v>
+        <v>8.355801451973223</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>13.30578266442403</v>
+        <v>46.50841021473939</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>13.36850971006671</v>
+        <v>56.5510856969612</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>13.08883060012679</v>
+        <v>19.01739444609139</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>13.16631560524296</v>
+        <v>29.79494004394854</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>13.19607637381993</v>
+        <v>36.24538310220744</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>13.08214402693092</v>
+        <v>13.90742447275197</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>13.16367003409038</v>
+        <v>38.6826919470261</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>13.19698381613786</v>
+        <v>42.6763224848874</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>13.13494926644374</v>
+        <v>22.33583632982435</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>13.20068100498401</v>
+        <v>54.87057705443247</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>13.22719461160315</v>
+        <v>60.47393932751186</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>13.20865698381407</v>
+        <v>52.85811649406961</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>13.27221126122383</v>
+        <v>57.93971603660393</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>13.31138103189108</v>
+        <v>60.41546501827045</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>13.09295084842942</v>
+        <v>18.38037723673879</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>13.23678671684366</v>
+        <v>39.18466153091792</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>13.29129928531924</v>
+        <v>48.76020576682681</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>13.1016513548421</v>
+        <v>17.63879363750367</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>13.21082167072286</v>
+        <v>34.08506972670533</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>13.25343226048695</v>
+        <v>39.7190231431604</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.07769069215531</v>
+        <v>5.840377124254305</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>13.19326938403284</v>
+        <v>29.37530391551597</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>13.24079662051682</v>
+        <v>36.82562327331351</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>13.15286774724663</v>
+        <v>12.99038436221962</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>13.24606359692891</v>
+        <v>47.14411991240716</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>13.28397479901134</v>
+        <v>55.98662076596443</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>13.26537114372374</v>
+        <v>47.35121353763326</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>13.35901704376902</v>
+        <v>56.04250038275359</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>13.41584223126291</v>
+        <v>60.80456365042834</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>13.11736202428009</v>
+        <v>15.67652831317178</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>13.31920855018497</v>
+        <v>49.42852880703249</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>13.39742058162972</v>
+        <v>54.91450040789728</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>13.14171801414853</v>
+        <v>13.978766258713</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>13.26461881348225</v>
+        <v>35.11794009399441</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>13.3144924558551</v>
+        <v>40.67748531672694</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>13.1229647243861</v>
+        <v>1.291694447140715</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>13.25384629049327</v>
+        <v>31.89281074098977</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>13.30947432362127</v>
+        <v>37.46852847411967</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>13.2077231417747</v>
+        <v>12.94704021919585</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>13.31331434737384</v>
+        <v>53.89521352324431</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>13.35778969416882</v>
+        <v>62.36894354196701</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>13.35762996619398</v>
+        <v>63.24373064858014</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>13.46771909431512</v>
+        <v>72.49846044099566</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>13.53358409371821</v>
+        <v>76.06650615483599</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>13.20287752080806</v>
+        <v>14.26753765778181</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>13.42944061390448</v>
+        <v>59.81215510811045</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>13.52104740817059</v>
+        <v>65.56045435430568</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>13.08242146306129</v>
+        <v>10.04953917022737</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>13.15646910933698</v>
+        <v>26.62626166837298</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>13.18434923208465</v>
+        <v>32.30504465315506</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>13.07605215554932</v>
+        <v>1.050230522347904</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>13.15407501689993</v>
+        <v>28.97791588324733</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>13.18526494448284</v>
+        <v>32.52850822654302</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>13.12666120287019</v>
+        <v>11.61317847258083</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>13.18956992798245</v>
+        <v>47.74859402620807</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>13.21439180446426</v>
+        <v>53.02381976435465</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>13.19558892054851</v>
+        <v>50.07050312568804</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>13.25690927789843</v>
+        <v>58.06481694475351</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>13.29362851300703</v>
+        <v>57.54481702035721</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>13.08569774714133</v>
+        <v>5.989625435449037</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>13.22313030565503</v>
+        <v>35.666664877873</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>13.27425821590881</v>
+        <v>40.48861034026257</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.08912316357588</v>
+        <v>11.6793399023239</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>13.1933259795027</v>
+        <v>32.03423492675005</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>13.23333533042641</v>
+        <v>38.7278318328889</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>13.06623130268954</v>
+        <v>-1.759882845333101</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>13.17668863863334</v>
+        <v>22.80876689819944</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>13.22129204758702</v>
+        <v>32.22870612451568</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>13.13840416244493</v>
+        <v>6.525552669239184</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>13.22747262549889</v>
+        <v>42.1930181341979</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>13.26305066602293</v>
+        <v>53.02966195866191</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>13.24316304857055</v>
+        <v>45.55397718338495</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>13.33323997150503</v>
+        <v>54.37330046931545</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>13.38662379635322</v>
+        <v>60.36162871427133</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>13.1026938216131</v>
+        <v>6.403676458983734</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>13.29533754111744</v>
+        <v>44.98225977202309</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>13.3688546569947</v>
+        <v>51.2432885295837</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>13.12237259409595</v>
+        <v>8.181281387376041</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>13.23953836090778</v>
+        <v>30.43834152601192</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>13.28650636158193</v>
+        <v>39.61178918652207</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>13.10374059306503</v>
+        <v>-9.472815123806866</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>13.22865065303174</v>
+        <v>19.00230816506316</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>13.28101491078478</v>
+        <v>29.81442679201652</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>13.18528987950399</v>
+        <v>2.958894466509806</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>13.28606524365095</v>
+        <v>42.38623928483486</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>13.32793184421931</v>
+        <v>55.87305782984541</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>13.32427843112334</v>
+        <v>55.42086894569729</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>13.42988722664137</v>
+        <v>63.53935310268127</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>13.49194952073183</v>
+        <v>73.81398447786957</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>13.17751775465779</v>
+        <v>2.528515318663077</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>13.39350615145457</v>
+        <v>48.28112704314854</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>13.47985553212949</v>
+        <v>60.1734737739284</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.65175604609949</v>
+        <v>13.65175604610209</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.40126007501097</v>
+        <v>22.40126007501283</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.79977683541404</v>
+        <v>28.79977683541471</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.669693891239946</v>
+        <v>1.669693891239307</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.43894342309489</v>
+        <v>22.43894342309761</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.41133997830907</v>
+        <v>27.4113399783095</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.918394090493107</v>
+        <v>9.918394090491512</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.91149755362755</v>
+        <v>38.91149755362647</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>45.07674805105983</v>
+        <v>45.07674805106076</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.31475281582917</v>
+        <v>39.31475281582897</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.4661579797185</v>
+        <v>42.46615797971608</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>45.51494500442914</v>
+        <v>45.51494500442928</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.46559166719594</v>
+        <v>11.46559166719784</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.55383561495998</v>
+        <v>28.55383561495724</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.57938438877544</v>
+        <v>37.57938438877583</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.00159288600939</v>
+        <v>17.00159288600958</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.918484357489</v>
+        <v>31.91848435748931</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.32147916575504</v>
+        <v>39.32147916575444</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.6762533637443173</v>
+        <v>0.6762533637412833</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20.72989372015021</v>
+        <v>20.72989372015372</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.30612757156319</v>
+        <v>31.30612757156315</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.460935278922408</v>
+        <v>6.460935278923012</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37.59797780130229</v>
+        <v>37.59797780130009</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>48.82238227500507</v>
+        <v>48.82238227500768</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>38.78325515540899</v>
+        <v>38.78325515541124</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>47.09085850797145</v>
+        <v>47.09085850797083</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>55.0781988954591</v>
+        <v>55.07819889546026</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11.67073979409827</v>
+        <v>11.67073979409667</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.88172184604912</v>
+        <v>42.88172184604874</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50.69724174594102</v>
+        <v>50.69724174593743</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.55305682093276</v>
+        <v>16.55305682093286</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.66606179655114</v>
+        <v>35.66606179655103</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.37502581183909</v>
+        <v>43.37502581184231</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.3564503375038388</v>
+        <v>0.3564503375075478</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.6011106045903</v>
+        <v>26.60111060459218</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.91060437140506</v>
+        <v>35.91060437140746</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>10.50464581656994</v>
+        <v>10.50464581657055</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.62981121386215</v>
+        <v>47.62981121386803</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>59.06723631421316</v>
+        <v>59.06723631421503</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59.9122911334474</v>
+        <v>59.91229113344674</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>69.03337225138088</v>
+        <v>69.03337225138291</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>76.04249646557449</v>
+        <v>76.04249646557531</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.94691329412952</v>
+        <v>16.94691329412926</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>58.24210989153035</v>
+        <v>58.24210989153011</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>67.3191960995244</v>
+        <v>67.31919609952119</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.4336568742178</v>
+        <v>10.43365687421375</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.58544429805843</v>
+        <v>28.58544429806067</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.38345583778659</v>
+        <v>34.38345583778727</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.248910674231253</v>
+        <v>4.248910674234251</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.11756051655055</v>
+        <v>34.1175605165494</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.04193847714924</v>
+        <v>37.04193847714896</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.26886256521059</v>
+        <v>14.268862565211</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>52.02035657234959</v>
+        <v>52.0203565723541</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>56.98643552111926</v>
+        <v>56.9864355211218</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.77010562676217</v>
+        <v>51.77010562676406</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>60.90491161310141</v>
+        <v>60.90491161310258</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.85499026466471</v>
+        <v>61.85499026466843</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8.150003211367855</v>
+        <v>8.150003211371741</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>38.40335842940301</v>
+        <v>38.40335842940479</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.68386934130068</v>
+        <v>43.68386934130108</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.77946438569171</v>
+        <v>14.77946438568981</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.03620551772545</v>
+        <v>38.03620551772401</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.93594299032474</v>
+        <v>42.93594299032568</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.030766085067727</v>
+        <v>3.030766085065453</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.49605382347512</v>
+        <v>31.49605382347504</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.94951730168281</v>
+        <v>37.94951730167983</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.37087397417503</v>
+        <v>12.37087397417628</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>51.21862216236369</v>
+        <v>51.21862216236703</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>59.75732542873153</v>
+        <v>59.75732542873546</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>53.05042041382533</v>
+        <v>53.05042041382562</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>63.65898033378996</v>
+        <v>63.65898033379273</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>68.71847742181875</v>
+        <v>68.71847742182057</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.57726886731871</v>
+        <v>14.57726886732075</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>55.18056250843376</v>
+        <v>55.18056250843569</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>59.70120673485457</v>
+        <v>59.70120673485565</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.21517123029776</v>
+        <v>12.21517123029836</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.19390780749078</v>
+        <v>40.1939078074909</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.32623248640924</v>
+        <v>45.32623248640704</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-2.907093446912915</v>
+        <v>-2.907093446913143</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.37330434466444</v>
+        <v>33.37330434466342</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.40302261778763</v>
+        <v>38.40302261778561</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11.46073166605799</v>
+        <v>11.46073166605655</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>57.48633176289723</v>
+        <v>57.48633176289798</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>66.10300571877291</v>
+        <v>66.10300571876974</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>67.00302215655353</v>
+        <v>67.00302215655188</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>79.31330520992167</v>
+        <v>79.3133052099215</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>85.35810469468035</v>
+        <v>85.35810469468149</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>13.09406866234392</v>
+        <v>13.09406866234309</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>66.78134888825105</v>
+        <v>66.7813488882493</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>72.69102886665151</v>
+        <v>72.69102886665192</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.4336568742178</v>
+        <v>10.43365687421375</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.58544429805843</v>
+        <v>28.58544429806067</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.38345583778659</v>
+        <v>34.38345583778727</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.248910674231253</v>
+        <v>4.248910674234251</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.11756051655055</v>
+        <v>34.1175605165494</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.04193847714924</v>
+        <v>37.04193847714896</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.26886256521059</v>
+        <v>14.268862565211</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>52.02035657234959</v>
+        <v>52.0203565723541</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.98643552111926</v>
+        <v>56.9864355211218</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51.77010562676217</v>
+        <v>51.77010562676406</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60.90491161310141</v>
+        <v>60.90491161310258</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>61.85499026466471</v>
+        <v>61.85499026466843</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.150003211367855</v>
+        <v>8.150003211371741</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>38.40335842940301</v>
+        <v>38.40335842940479</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.68386934130068</v>
+        <v>43.68386934130108</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.77946438569171</v>
+        <v>14.77946438568981</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.03620551772545</v>
+        <v>38.03620551772401</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.93594299032474</v>
+        <v>42.93594299032568</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.030766085067727</v>
+        <v>3.030766085065453</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.49605382347512</v>
+        <v>31.49605382347504</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.94951730168281</v>
+        <v>37.94951730167983</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12.37087397417503</v>
+        <v>12.37087397417628</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>51.21862216236369</v>
+        <v>51.21862216236703</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>59.75732542873153</v>
+        <v>59.75732542873546</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.05042041382533</v>
+        <v>53.05042041382562</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>63.65898033378996</v>
+        <v>63.65898033379273</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>68.71847742181875</v>
+        <v>68.71847742182057</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>14.57726886731871</v>
+        <v>14.57726886732075</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>55.18056250843376</v>
+        <v>55.18056250843569</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>59.70120673485457</v>
+        <v>59.70120673485565</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>12.21517123029776</v>
+        <v>12.21517123029836</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.19390780749078</v>
+        <v>40.1939078074909</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.32623248640924</v>
+        <v>45.32623248640704</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-2.907093446912915</v>
+        <v>-2.907093446913143</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.37330434466444</v>
+        <v>33.37330434466342</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.40302261778763</v>
+        <v>38.40302261778561</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.46073166605799</v>
+        <v>11.46073166605655</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.48633176289723</v>
+        <v>57.48633176289798</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>66.10300571877291</v>
+        <v>66.10300571876974</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.00302215655353</v>
+        <v>67.00302215655188</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>79.31330520992167</v>
+        <v>79.3133052099215</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.35810469468035</v>
+        <v>85.35810469468149</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>13.09406866234392</v>
+        <v>13.09406866234309</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>66.78134888825105</v>
+        <v>66.7813488882493</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.69102886665151</v>
+        <v>72.69102886665192</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>12.13582523068429</v>
+        <v>12.13582523068583</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>15.75815643642494</v>
+        <v>15.75815643642706</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>20.36218875565984</v>
+        <v>20.3621887556603</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.159420685268545</v>
+        <v>1.159420685268083</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.21927869466764</v>
+        <v>15.21927869466942</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.60291659249727</v>
+        <v>18.60291659249828</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6.257317983876709</v>
+        <v>6.257317983878787</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.44567582492127</v>
+        <v>29.44567582492217</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.14456292665596</v>
+        <v>34.14456292665784</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.04145802154202</v>
+        <v>32.04145802154207</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.31390054023895</v>
+        <v>30.31390054024093</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.60852740202359</v>
+        <v>32.60852740202787</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12.32590867441128</v>
+        <v>12.32590867441017</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>20.26438256917386</v>
+        <v>20.26438256917354</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.97843972596019</v>
+        <v>26.97843972595629</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.80434668780193</v>
+        <v>13.80434668780081</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.24934536439664</v>
+        <v>24.24934536439368</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.0640460771095</v>
+        <v>30.06404607710874</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-2.144366996477066</v>
+        <v>-2.144366996475766</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.05175042720998</v>
+        <v>12.05175042721076</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>21.30247956892308</v>
+        <v>21.30247956892245</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.96188668014143</v>
+        <v>26.96188668014363</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.98475668374802</v>
+        <v>36.98475668375237</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.37634064250491</v>
+        <v>29.3763406425024</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.28349937246902</v>
+        <v>33.28349937246995</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.79391013664719</v>
+        <v>40.79391013664465</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>8.784985594148973</v>
+        <v>8.784985594148887</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.87956488105257</v>
+        <v>31.87956488105216</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>37.98317662503398</v>
+        <v>37.98317662503373</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>16.77461099090122</v>
+        <v>16.77461099090104</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.79582938283328</v>
+        <v>31.79582938283324</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.60770546087647</v>
+        <v>37.60770546087637</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-2.507605367880307</v>
+        <v>-2.507605367878012</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.70275834988535</v>
+        <v>18.70275834988153</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.21864448561366</v>
+        <v>26.21864448561205</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>6.182718363903641</v>
+        <v>6.182718363903982</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>38.94099395431031</v>
+        <v>38.94099395431127</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>48.80371089254044</v>
+        <v>48.80371089254135</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>52.08183584559944</v>
+        <v>52.0818358456</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.22250384480167</v>
+        <v>57.2225038448016</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>63.22740124633975</v>
+        <v>63.22740124634079</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>14.77933674058299</v>
+        <v>14.77933674058176</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>48.9421311864111</v>
+        <v>48.94213118640997</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.83815960745665</v>
+        <v>55.83815960745813</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.046206495914484</v>
+        <v>7.046206495916232</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.45220564084101</v>
+        <v>19.45220564084082</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24.94486861681071</v>
+        <v>24.9448686168074</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.08113723211784141</v>
+        <v>0.08113723211845247</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.91376055331614</v>
+        <v>24.91376055331738</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.69290278058603</v>
+        <v>28.6929027805853</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.539196039686031</v>
+        <v>8.539196039687051</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>41.32710770017956</v>
+        <v>41.3271077001807</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>46.39827856794619</v>
+        <v>46.39827856794859</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.32293768538106</v>
+        <v>37.32293768538199</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.52359919477061</v>
+        <v>42.5235991947666</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.33744389013623</v>
+        <v>44.33744389013683</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>4.138311363987251</v>
+        <v>4.138311363988132</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.52233568832034</v>
+        <v>25.52233568832181</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.56422915128995</v>
+        <v>32.56422915129057</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>14.99992618779031</v>
+        <v>14.99992618778918</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.7437041896068</v>
+        <v>34.74370418960733</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>39.64110572549579</v>
+        <v>39.64110572549633</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1.083371263030935</v>
+        <v>1.083371263033245</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.77677952714074</v>
+        <v>26.77677952714277</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.45644889151622</v>
+        <v>34.45644889151755</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>44.30239583916686</v>
+        <v>44.30239583916523</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>52.91024091498737</v>
+        <v>52.9102409149864</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>42.20451801825953</v>
+        <v>42.20451801825814</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>53.76971428586926</v>
+        <v>53.76971428586904</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>59.28030640331623</v>
+        <v>59.28030640331478</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>10.89310591015783</v>
+        <v>10.89310591015703</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>48.44277238920467</v>
+        <v>48.44277238920207</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>52.4734625727508</v>
+        <v>52.47346257274943</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>12.35344352439327</v>
+        <v>12.35344352439041</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.32997699582084</v>
+        <v>35.32997699581902</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.89740608958126</v>
+        <v>40.89740608958045</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-3.135596944904568</v>
+        <v>-3.135596944905805</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.55407848982179</v>
+        <v>27.55407848982026</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.52347244390491</v>
+        <v>34.52347244390435</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>8.159147859342548</v>
+        <v>8.159147859342697</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>49.36507318872597</v>
+        <v>49.36507318872633</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>58.6852262156978</v>
+        <v>58.68522621570137</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>59.54071739136167</v>
+        <v>59.54071739135777</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>71.35474699615278</v>
+        <v>71.35474699615482</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>76.17206401266824</v>
+        <v>76.17206401266941</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>13.56032358687425</v>
+        <v>13.56032358687465</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>59.95326388025077</v>
+        <v>59.95326388024859</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>65.998342618309</v>
+        <v>65.99834261830544</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2.65043635551808</v>
+        <v>2.650436355521586</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.35382516160357</v>
+        <v>18.35382516160732</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>23.14763750651435</v>
+        <v>23.14763750651516</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1.754534633632568</v>
+        <v>1.754534633632252</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.09024357544894</v>
+        <v>31.09024357545152</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>32.20876338815059</v>
+        <v>32.20876338815116</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>11.20423040517112</v>
+        <v>11.20423040517209</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>48.26707242774142</v>
+        <v>48.26707242774473</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>51.49883068528462</v>
+        <v>51.4988306852846</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>41.34222308394742</v>
+        <v>41.34222308394536</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>48.38784033816079</v>
+        <v>48.38784033816091</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>48.93566890786754</v>
+        <v>48.93566890786794</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-2.171647354762706</v>
+        <v>-2.171647354759981</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.46404557236543</v>
+        <v>23.46404557236697</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.02639933797091</v>
+        <v>28.02639933797122</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.38293859594167</v>
+        <v>17.38293859594216</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.04562149067365</v>
+        <v>43.04562149067582</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.77519010255899</v>
+        <v>44.77519010256031</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4.761236346076531</v>
+        <v>4.761236346077618</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>38.53646010265643</v>
+        <v>38.53646010265575</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>40.78443223896132</v>
+        <v>40.78443223896136</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>17.19418616961955</v>
+        <v>17.19418616962064</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>60.71720001423513</v>
+        <v>60.71720001423752</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>65.18957017726751</v>
+        <v>65.18957017726808</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>56.19388630645431</v>
+        <v>56.19388630645359</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.94502085425314</v>
+        <v>70.94502085425411</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>72.74728458101674</v>
+        <v>72.74728458102024</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.02341432387554</v>
+        <v>18.02341432387446</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>63.03119393751026</v>
+        <v>63.03119393751191</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>62.53911696216372</v>
+        <v>62.53911696216555</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>12.08477903347242</v>
+        <v>12.08477903347041</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-5.342829523003791</v>
+        <v>-5.342829523004971</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>35.21674064361382</v>
+        <v>35.2167406436118</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.83459404701834</v>
+        <v>35.83459404701666</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>11.78912635929156</v>
+        <v>11.78912635929265</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>61.71650255577924</v>
+        <v>61.71650255577974</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>66.01859283009183</v>
+        <v>66.01859283009124</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>67.42916674646227</v>
+        <v>67.42916674646064</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>82.64354429324402</v>
+        <v>82.64354429324551</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>82.82308212687417</v>
+        <v>82.82308212687255</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>13.23494791118482</v>
+        <v>13.2349479111845</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>70.52402026152954</v>
+        <v>70.52402026153078</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>70.63502308427387</v>
+        <v>70.63502308427474</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>3.686215763928258</v>
+        <v>3.686215763929093</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.262468257271715</v>
+        <v>9.262468257271481</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>15.18774419868067</v>
+        <v>15.18774419868307</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-7.382322125890402</v>
+        <v>-7.38232212589069</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.46492894172213</v>
+        <v>10.46492894172135</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.26926831566492</v>
+        <v>13.26926831566239</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-0.7474857728936524</v>
+        <v>-0.7474857728949562</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.64478451472217</v>
+        <v>25.6447845147231</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.46680126751289</v>
+        <v>30.46680126751267</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>30.67676514666365</v>
+        <v>30.67676514666383</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.72885347603158</v>
+        <v>31.72885347603028</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.83599034717165</v>
+        <v>33.83599034717221</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.7428072888049311</v>
+        <v>0.742807288805496</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.71654470110264</v>
+        <v>13.71654470110197</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.43939496313884</v>
+        <v>21.43939496313869</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.20857218169234</v>
+        <v>13.20857218169396</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.92803145223799</v>
+        <v>25.92803145223907</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.76695353687431</v>
+        <v>32.76695353687301</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-2.371993814138909</v>
+        <v>-2.371993814142121</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.18918711532833</v>
+        <v>16.18918711532538</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.35054390761836</v>
+        <v>24.35054390761587</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5.200838081647911</v>
+        <v>5.200838081646106</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.78160442964253</v>
+        <v>34.78160442964166</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>44.62078895053031</v>
+        <v>44.62078895052927</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>39.16646590579563</v>
+        <v>39.16646590579491</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>45.25243599675066</v>
+        <v>45.25243599674975</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>51.64877457151686</v>
+        <v>51.64877457151881</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>11.53384221234584</v>
+        <v>11.53384221234345</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>39.0111843645179</v>
+        <v>39.0111843645175</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>46.18802063368143</v>
+        <v>46.18802063368109</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>12.85166528080053</v>
+        <v>12.8516652808009</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.26570870064334</v>
+        <v>32.26570870064265</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.76453627017971</v>
+        <v>38.7645362701802</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-3.044155052707088</v>
+        <v>-3.044155052704516</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.29275310769985</v>
+        <v>25.29275310770295</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.10180406153324</v>
+        <v>31.101804061532</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>9.485822960478787</v>
+        <v>9.485822960475668</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>48.20526411860913</v>
+        <v>48.20526411860708</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>57.21465553597771</v>
+        <v>57.21465553597523</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>60.29756955555654</v>
+        <v>60.29756955555718</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>68.48104044868838</v>
+        <v>68.48104044868894</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>73.2018075472015</v>
+        <v>73.20180754720282</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>14.49750907246478</v>
+        <v>14.49750907246685</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>57.46234296088148</v>
+        <v>57.46234296088247</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>64.19247126020825</v>
+        <v>64.19247126020866</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1.850540171428557</v>
+        <v>1.850540171426362</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>12.33807036444294</v>
+        <v>12.3380703644442</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>17.07332775119097</v>
+        <v>17.07332775118919</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-6.36017245996379</v>
+        <v>-6.360172459964522</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.23858291444969</v>
+        <v>16.23858291445225</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>18.93423205479464</v>
+        <v>18.93423205479689</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1.499057839667875</v>
+        <v>1.499057839666362</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>32.68415263461621</v>
+        <v>32.68415263461623</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>36.91363527553597</v>
+        <v>36.91363527553462</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>30.47861386120153</v>
+        <v>30.47861386120212</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33.7178138365978</v>
+        <v>33.71781383659568</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.59313273546572</v>
+        <v>34.59313273546354</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-1.555160301264221</v>
+        <v>-1.5551603012656</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.71871804064784</v>
+        <v>16.71871804064538</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>22.26298622966413</v>
+        <v>22.26298622966482</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>8.443613293368513</v>
+        <v>8.443613293367539</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.94710441652103</v>
+        <v>26.94710441651967</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.09354761822668</v>
+        <v>31.09354761822465</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-7.931572793392418</v>
+        <v>-7.931572793388254</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>16.21589122674351</v>
+        <v>16.21589122674187</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>22.94236102913122</v>
+        <v>22.94236102913324</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-0.8257595068167216</v>
+        <v>-0.8257595068187538</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>34.51661466698113</v>
+        <v>34.51661466698081</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>42.44292389808314</v>
+        <v>42.44292389808223</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.73238632050379</v>
+        <v>33.7323863205032</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>43.79714723145273</v>
+        <v>43.79714723145478</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>48.52290972050295</v>
+        <v>48.52290972050116</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>3.73711726335396</v>
+        <v>3.737117263350919</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>39.19549009047975</v>
+        <v>39.19549009048067</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.04363651636035</v>
+        <v>42.04363651636029</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>6.929040690305763</v>
+        <v>6.929040690305692</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.11554766741212</v>
+        <v>29.11554766741084</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.0155406576324</v>
+        <v>34.01554065763237</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-12.40874269954385</v>
+        <v>-12.40874269954229</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.48192947267986</v>
+        <v>17.48192947268428</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>23.50422307455216</v>
+        <v>23.50422307455699</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.366217909992832</v>
+        <v>-0.3662179099928533</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>40.5203466022784</v>
+        <v>40.52034660227676</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>49.20558132398057</v>
+        <v>49.20558132398138</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>51.61540548944928</v>
+        <v>51.61540548945063</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>62.16314679548888</v>
+        <v>62.16314679549017</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.31526112978342</v>
+        <v>66.31526112978443</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>5.948778909179987</v>
+        <v>5.948778909182218</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>51.34773854597234</v>
+        <v>51.34773854597653</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>56.36285782232832</v>
+        <v>56.36285782233029</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>7.744214343742302</v>
+        <v>7.744214343741804</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.6457821563862</v>
+        <v>27.64578215638624</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>35.42038477638074</v>
+        <v>35.42038477638069</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>5.020967566528141</v>
+        <v>5.020967566530745</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>40.46116053002368</v>
+        <v>40.46116053002685</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>44.36287657469041</v>
+        <v>44.3628765746919</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>17.18803301655004</v>
+        <v>17.18803301654924</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>59.27550018767705</v>
+        <v>59.27550018767737</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>65.14500628064941</v>
+        <v>65.14500628065024</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>56.95604280142496</v>
+        <v>56.95604280142469</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>67.42363267545169</v>
+        <v>67.42363267544823</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>71.12325883670677</v>
+        <v>71.12325883670654</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>8.409633015400951</v>
+        <v>8.409633015399793</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.75169420533125</v>
+        <v>41.75169420533297</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>51.62477214254188</v>
+        <v>51.62477214254212</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>9.08123695070787</v>
+        <v>9.081236950706559</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.9657540079464</v>
+        <v>34.96575400794681</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>39.52604013635809</v>
+        <v>39.52604013635934</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-4.606773302753977</v>
+        <v>-4.606773302753849</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.29566958716624</v>
+        <v>30.29566958716489</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.99970106422151</v>
+        <v>34.99970106421794</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>7.920634007397156</v>
+        <v>7.920634007398201</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>52.06257149861295</v>
+        <v>52.0625714986131</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>58.8672762644365</v>
+        <v>58.86727626443744</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>51.62154864250575</v>
+        <v>51.62154864250614</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>65.26015805615694</v>
+        <v>65.26015805615683</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>69.75730076865312</v>
+        <v>69.75730076865118</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.5545202877052</v>
+        <v>10.55452028770498</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>56.36630031638631</v>
+        <v>56.36630031638646</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>60.29391655809843</v>
+        <v>60.29391655809991</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>4.174618802785746</v>
+        <v>4.174618802785206</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.52738373354176</v>
+        <v>34.52738373354331</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.81031122496341</v>
+        <v>38.810311224964</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-8.938097152724749</v>
+        <v>-8.938097152724479</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.75609085501447</v>
+        <v>32.756090855013</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.42015322387492</v>
+        <v>35.42015322387467</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>6.879799662453161</v>
+        <v>6.879799662454376</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>57.49937843842319</v>
+        <v>57.49937843842436</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>63.67848564584429</v>
+        <v>63.67848564584621</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>65.71547827576123</v>
+        <v>65.71547827576154</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>79.53507400060148</v>
+        <v>79.53507400060164</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>81.78768295002743</v>
+        <v>81.78768295002726</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>8.882807370189967</v>
+        <v>8.882807370188475</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>67.21528700433801</v>
+        <v>67.2152870043374</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>70.63486862847371</v>
+        <v>70.63486862847267</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.868120406956015</v>
+        <v>6.868120406958047</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9.592844105468105</v>
+        <v>9.592844105471238</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>15.09820538848031</v>
+        <v>15.09820538848372</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-4.14778521151114</v>
+        <v>-4.147785211511808</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>4.898500457875111</v>
+        <v>4.898500457874993</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.964374902662202</v>
+        <v>8.96437490266108</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1.013166626407761</v>
+        <v>-1.013166626406592</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.17150966676548</v>
+        <v>17.17150966676766</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.91138242792861</v>
+        <v>22.91138242792801</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.2935351443198</v>
+        <v>24.29353514432179</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.42970016815497</v>
+        <v>22.42970016815832</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.68338614044078</v>
+        <v>23.68338614044364</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-1.119019601831679</v>
+        <v>-1.119019601831601</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>7.626565195467892</v>
+        <v>7.626565195469356</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>11.9632941752359</v>
+        <v>11.96329417523607</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>9.689604203551765</v>
+        <v>9.68960420355114</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.84832791267677</v>
+        <v>15.84832791267834</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.29136291466486</v>
+        <v>26.29136291466359</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1.334983933806518</v>
+        <v>-1.334983933805942</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.949234409088982</v>
+        <v>4.949234409091035</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>18.67961072419488</v>
+        <v>18.67961072419594</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.3708903348640238</v>
+        <v>0.3708903348664467</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18.15873331336993</v>
+        <v>18.15873331337137</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.97835817239095</v>
+        <v>32.97835817239027</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.47931394922411</v>
+        <v>24.47931394922315</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>23.20990070613957</v>
+        <v>23.20990070614044</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.34943653173163</v>
+        <v>34.34943653173222</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.622280490899529</v>
+        <v>0.6222804909020088</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.59037257186589</v>
+        <v>16.59037257186521</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.86562934861499</v>
+        <v>28.86562934861526</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>12.98306586089133</v>
+        <v>12.98306586089105</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.85580652436695</v>
+        <v>23.85580652436701</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.30090642744761</v>
+        <v>36.30090642744673</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-2.172597732657385</v>
+        <v>-2.172597732656888</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.94742661839823</v>
+        <v>11.94742661839922</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.42430130794548</v>
+        <v>26.42430130794759</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>5.264170667255494</v>
+        <v>5.2641706672543</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.17421374685404</v>
+        <v>30.17421374685323</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>46.97590697355741</v>
+        <v>46.97590697355591</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>43.07811465787095</v>
+        <v>43.07811465787246</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>44.02543017917716</v>
+        <v>44.02543017917957</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>60.42590838404266</v>
+        <v>60.42590838404563</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>5.044229060276402</v>
+        <v>5.044229060274747</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.56709030724527</v>
+        <v>32.56709030724451</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>49.73381385641517</v>
+        <v>49.73381385641385</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-1.285702529864425</v>
+        <v>-1.285702529862894</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>11.77652204571211</v>
+        <v>11.77652204571241</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>14.90953300167137</v>
+        <v>14.90953300166939</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-6.40056826875834</v>
+        <v>-6.400568268761729</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.78640618825947</v>
+        <v>15.78640618825678</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.45213833600746</v>
+        <v>16.45213833600638</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.3691350762500907</v>
+        <v>0.3691350762477317</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.96968300462673</v>
+        <v>30.96968300462964</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.68322686612343</v>
+        <v>33.68322686612496</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.59056563026336</v>
+        <v>29.59056563025904</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>34.62490955942609</v>
+        <v>34.62490955942447</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.84038506610729</v>
+        <v>32.84038506610641</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-6.11725077330984</v>
+        <v>-6.117250773308411</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.36408447725013</v>
+        <v>15.36408447725334</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>16.15235074914849</v>
+        <v>16.15235074915022</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.09408874878306</v>
+        <v>13.09408874878623</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.3377845491791</v>
+        <v>33.33778454917866</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.80438181676185</v>
+        <v>35.80438181676305</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>3.254217817212615</v>
+        <v>3.25421781721356</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.13776464226213</v>
+        <v>27.1377646422635</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.41642787561413</v>
+        <v>31.41642787561547</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>10.8916384662329</v>
+        <v>10.89163846623524</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>45.16264300096577</v>
+        <v>45.16264300096571</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>51.54009966054481</v>
+        <v>51.54009966054547</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.78429657460058</v>
+        <v>45.78429657459805</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>54.74932628680403</v>
+        <v>54.74932628680377</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>57.19954470340546</v>
+        <v>57.19954470340477</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>12.97488288475027</v>
+        <v>12.9748828847487</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>48.19793872806883</v>
+        <v>48.19793872806894</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>49.16133606195345</v>
+        <v>49.16133606195197</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>13.85487602261947</v>
+        <v>13.85487602261765</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.80672852170402</v>
+        <v>38.80672852170363</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>41.8079444647114</v>
+        <v>41.80794446470936</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-2.768215933510517</v>
+        <v>-2.768215933512208</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.03036684870038</v>
+        <v>29.03036684870145</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.37122653993264</v>
+        <v>32.3712265399334</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.84389028837114</v>
+        <v>10.84389028837268</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>52.29108650856114</v>
+        <v>52.29108650855791</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>59.18059968789063</v>
+        <v>59.18059968788972</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>60.49988627229225</v>
+        <v>60.499886272291</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>71.8633534164027</v>
+        <v>71.86335341640212</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>76.20010583016351</v>
+        <v>76.20010583016112</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>12.66589998425663</v>
+        <v>12.66589998425412</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>60.69636949015207</v>
+        <v>60.69636949014973</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>64.01902042080303</v>
+        <v>64.01902042080327</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>11.07612563651337</v>
+        <v>11.07612563651241</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>14.80405368670766</v>
+        <v>14.80405368670552</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>18.17621256794172</v>
+        <v>18.17621256793845</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>2.381395166697194</v>
+        <v>2.3813951666961</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>13.72226598419992</v>
+        <v>13.72226598419884</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.11487178716894</v>
+        <v>15.11487178716746</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.874308333244175</v>
+        <v>4.874308333242206</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.22709794731107</v>
+        <v>25.22709794731244</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.62227193520135</v>
+        <v>28.62227193520095</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.08603430773972</v>
+        <v>31.08603430773592</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.77118335106805</v>
+        <v>28.77118335106983</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.7887427471974</v>
+        <v>29.78874274719721</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>7.835576070888452</v>
+        <v>7.835576070886281</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>15.18216043713098</v>
+        <v>15.18216043712995</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>18.53380825732634</v>
+        <v>18.53380825732373</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.730792774031359</v>
+        <v>5.730792774030563</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.93072677248935</v>
+        <v>12.93072677248631</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>17.76525149953373</v>
+        <v>17.76525149953416</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-4.971019441821154</v>
+        <v>-4.971019441818688</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>3.524949873613446</v>
+        <v>3.524949873612856</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>10.63456647217061</v>
+        <v>10.63456647217073</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-4.124710833836529</v>
+        <v>-4.124710833836913</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>15.82920922026374</v>
+        <v>15.82920922026351</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.77675057458137</v>
+        <v>24.77675057458103</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.39277053518515</v>
+        <v>21.3927705351831</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>18.7449471024127</v>
+        <v>18.74494710241552</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.43186058646015</v>
+        <v>25.43186058646079</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-0.3368514302037138</v>
+        <v>-0.3368514302023708</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.19090955678115</v>
+        <v>14.19090955678198</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>19.98034636593113</v>
+        <v>19.98034636592992</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>12.54773356270566</v>
+        <v>12.5477335627052</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.31457573459453</v>
+        <v>26.31457573459622</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.22381317297521</v>
+        <v>30.22381317297657</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-4.568743280678431</v>
+        <v>-4.568743280675141</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>14.39034926095698</v>
+        <v>14.39034926095765</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>18.53447414426586</v>
+        <v>18.5344741442668</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.273876480983626</v>
+        <v>3.273876480984322</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.7293064380387</v>
+        <v>32.72930643804025</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.32936405235476</v>
+        <v>40.32936405235507</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>43.80575739865434</v>
+        <v>43.80575739865012</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>44.4079428223186</v>
+        <v>44.40794282231811</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.77766893112987</v>
+        <v>50.77766893112963</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>5.35236985126909</v>
+        <v>5.352369851269609</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.7307141361834</v>
+        <v>35.73071413618208</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.77424015313181</v>
+        <v>40.77424015313361</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2.791948167386893</v>
+        <v>2.791948167385582</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>0.1565070271281375</v>
+        <v>0.1565070271281233</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>0.7157119207884666</v>
+        <v>0.7157119207882214</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-3.991266847309616</v>
+        <v>-3.991266847307136</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.938534569401538</v>
+        <v>-1.93853456940221</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2.847404431262829</v>
+        <v>-2.847404431263078</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-5.452456612988724</v>
+        <v>-5.452456612988369</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>6.227430588858146</v>
+        <v>6.227430588856544</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.311330369894145</v>
+        <v>7.311330369896355</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.44971567061066</v>
+        <v>11.44971567061318</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.904975426827869</v>
+        <v>3.904975426831106</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>2.366985632709911</v>
+        <v>2.366985632711783</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-2.143309091596544</v>
+        <v>-2.143309091596356</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-5.625801238036614</v>
+        <v>-5.625801238034713</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-6.722600689494444</v>
+        <v>-6.722600689491562</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.496356160836198</v>
+        <v>3.496356160835271</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.957232635704075</v>
+        <v>5.957232635704523</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>8.28250622808145</v>
+        <v>8.282506228083564</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.498762737463812</v>
+        <v>-4.498762737464416</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-2.69677015166779</v>
+        <v>-2.696770151669062</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>2.226009430291265</v>
+        <v>2.226009430291862</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-6.407204893944192</v>
+        <v>-6.407204893940195</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>6.981070340076657</v>
+        <v>6.981070340077659</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.738829421188</v>
+        <v>13.73882942118647</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.6884150212007</v>
+        <v>11.68841502120091</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.731973226767701</v>
+        <v>5.731973226768106</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>9.957419879525064</v>
+        <v>9.95741987952527</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-2.685742357887213</v>
+        <v>-2.685742357887326</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.600661970248234</v>
+        <v>3.600661970246891</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>5.921323165404226</v>
+        <v>5.92132316540309</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>14.34754461611702</v>
+        <v>14.34754461611636</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.48988879183225</v>
+        <v>23.48988879183208</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.04725673300075</v>
+        <v>25.04725673299985</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-3.927201030504923</v>
+        <v>-3.927201030504909</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>8.637513380135141</v>
+        <v>8.637513380134466</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>10.8880904186185</v>
+        <v>10.88809041861981</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>2.266467405307226</v>
+        <v>2.266467405307958</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.33144357619123</v>
+        <v>25.3314435761896</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.99864018287885</v>
+        <v>30.99864018288061</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>35.24013800893463</v>
+        <v>35.240138008937</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.31793603741438</v>
+        <v>33.31793603741618</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.94661935807452</v>
+        <v>37.94661935807663</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>4.461966996850743</v>
+        <v>4.461966996849776</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.52766011447049</v>
+        <v>26.52766011447016</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.79584618130612</v>
+        <v>28.79584618130528</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.59571156187412</v>
+        <v>10.59571156187403</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.04497320200628</v>
+        <v>16.04497320200744</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.9082133277677</v>
+        <v>21.90821332776869</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-4.102943387314665</v>
+        <v>-4.102943387318012</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>12.87307049435685</v>
+        <v>12.87307049435509</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>17.07080874746284</v>
+        <v>17.07080874746168</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>3.293813814278428</v>
+        <v>3.293813814281917</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.23265871287389</v>
+        <v>29.23265871287708</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.84374158443552</v>
+        <v>34.84374158443588</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.99180168496262</v>
+        <v>32.99180168496468</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.37816222897575</v>
+        <v>33.37816222897625</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.8023193502037</v>
+        <v>35.8023193502014</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>8.117607882533088</v>
+        <v>8.117607882531816</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>20.40047122172012</v>
+        <v>20.40047122171926</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.46687173379012</v>
+        <v>28.46687173378706</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.60054379584295</v>
+        <v>11.60054379583982</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.49135270819528</v>
+        <v>23.49135270819296</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.94716091282292</v>
+        <v>30.94716091282317</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-7.679945483208128</v>
+        <v>-7.679945483207716</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>8.729914205560819</v>
+        <v>8.729914205560606</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>19.28263489627163</v>
+        <v>19.28263489627649</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-2.247132622426021</v>
+        <v>-2.247132622429872</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.99793605794815</v>
+        <v>25.99793605794607</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.3829537258603</v>
+        <v>37.38295372586024</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.63809958746186</v>
+        <v>29.6380995874657</v>
       </c>
     </row>
     <row r="608">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>43.22249647577817</v>
+        <v>43.22249647577723</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>5.248450682880128</v>
+        <v>5.248450682883595</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.97160032102155</v>
+        <v>31.97160032102457</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>39.80968969865032</v>
+        <v>39.80968969865083</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>12.8742193902289</v>
+        <v>12.87421939023087</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.74254274049294</v>
+        <v>29.74254274049536</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>37.51059720204471</v>
+        <v>37.5105972020432</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-7.071428754283842</v>
+        <v>-7.071428754283984</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.68872559812538</v>
+        <v>16.68872559812451</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.84596141570314</v>
+        <v>25.84596141570205</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>3.295168132393025</v>
+        <v>3.295168132393686</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.55483839256348</v>
+        <v>38.55483839256274</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>50.07750502328722</v>
+        <v>50.07750502328837</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>52.54495808974472</v>
+        <v>52.54495808974539</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>59.40902197158588</v>
+        <v>59.40902197158797</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>66.48706493866273</v>
+        <v>66.48706493866328</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>10.97579905146065</v>
+        <v>10.97579905145742</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>49.31347463559155</v>
+        <v>49.31347463558949</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>58.37751932596708</v>
+        <v>58.37751932596633</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>15.946751508313</v>
+        <v>15.94675150831169</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.69060110825205</v>
+        <v>31.6906011082507</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>37.83204059426062</v>
+        <v>37.83204059426033</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>9.655588512245989</v>
+        <v>9.655588512245556</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.3099910946971</v>
+        <v>34.30999109469731</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.77151781761568</v>
+        <v>38.77151781761771</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>18.68045461211218</v>
+        <v>18.68045461211022</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>51.04970290903594</v>
+        <v>51.04970290903753</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>57.21285143746088</v>
+        <v>57.21285143745988</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>52.18948626663264</v>
+        <v>52.18948626663166</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>60.81061223197491</v>
+        <v>60.8106122319735</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>62.39744968735566</v>
+        <v>62.39744968735648</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>14.06822519353654</v>
+        <v>14.06822519353639</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.79591092885161</v>
+        <v>41.79591092885207</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>47.11206000579369</v>
+        <v>47.11206000579613</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>11.37976575308672</v>
+        <v>11.37976575308576</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.0392471776108</v>
+        <v>30.03924717761129</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.94523180217151</v>
+        <v>37.94523180217075</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>2.78028621408899</v>
+        <v>2.780286214086738</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.03481883283156</v>
+        <v>24.03481883283109</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.69141108168421</v>
+        <v>34.69141108168366</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>9.058012242147479</v>
+        <v>9.058012242148182</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>40.48021439733676</v>
+        <v>40.48021439733797</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>52.65203541747526</v>
+        <v>52.65203541747967</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.5878524271864</v>
+        <v>42.58785242718522</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>50.55302056453921</v>
+        <v>50.55302056453712</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>58.95611314253195</v>
+        <v>58.9561131425319</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>8.220408028309487</v>
+        <v>8.220408028309039</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.3390799573667</v>
+        <v>42.33907995736643</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.3851000721921</v>
+        <v>51.38510007219119</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.020739293626294</v>
+        <v>9.020739293625946</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.41210083678531</v>
+        <v>31.41210083678646</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.95007205165918</v>
+        <v>40.95007205166004</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-3.691116659827889</v>
+        <v>-3.691116659827292</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.29813531742773</v>
+        <v>24.29813531743083</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.39994847443465</v>
+        <v>35.39994847443726</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>7.282306223108394</v>
+        <v>7.282306223107911</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.81909531360161</v>
+        <v>44.81909531360079</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>58.70715976003292</v>
+        <v>58.70715976003358</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>54.36253699160689</v>
+        <v>54.36253699160651</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>64.0723837932116</v>
+        <v>64.07238379321397</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>77.12089203999881</v>
+        <v>77.12089204000013</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>6.941679625080178</v>
+        <v>6.941679625082267</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>51.81020486105498</v>
+        <v>51.81020486105559</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>65.18825694069038</v>
+        <v>65.18825694069098</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>11.51355424501116</v>
+        <v>11.51355424501336</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.15473940069327</v>
+        <v>27.1547394006925</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.1046294902323</v>
+        <v>34.10462949023184</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>3.795109502451597</v>
+        <v>3.795109502453494</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.46096882097854</v>
+        <v>33.46096882097768</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>38.31705713473442</v>
+        <v>38.31705713473266</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>14.48770508073525</v>
+        <v>14.48770508073988</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>51.80057526816856</v>
+        <v>51.80057526816953</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>58.01961240861991</v>
+        <v>58.01961240862143</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>48.72647574458937</v>
+        <v>48.72647574458605</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>56.33727413275683</v>
+        <v>56.33727413275621</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>59.41930287145086</v>
+        <v>59.41930287144763</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.10123606501947</v>
+        <v>10.10123606501813</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.17646651831625</v>
+        <v>37.1764665183165</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>46.59684677319738</v>
+        <v>46.59684677319599</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.97840361563574</v>
+        <v>11.97840361563438</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.61022132650285</v>
+        <v>33.61022132650204</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.48607295971534</v>
+        <v>39.4860729597106</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-3.451458616507692</v>
+        <v>-3.451458616509745</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.11020593298409</v>
+        <v>25.11020593298407</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.41716925931276</v>
+        <v>33.4171692593112</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>4.884749959346914</v>
+        <v>4.884749959343148</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>44.05812857075694</v>
+        <v>44.05812857075018</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>53.42796167934399</v>
+        <v>53.42796167934167</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.8538938939574</v>
+        <v>42.8538938939545</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.98350431137307</v>
+        <v>54.98350431137659</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>61.26503221937397</v>
+        <v>61.26503221937605</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>7.704936902848539</v>
+        <v>7.704936902851566</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>48.59749049292172</v>
+        <v>48.59749049292174</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>54.05086650044438</v>
+        <v>54.05086650044036</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>8.798907336193972</v>
+        <v>8.79890733619324</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>33.96428222983959</v>
+        <v>33.9642822298379</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.29429050170014</v>
+        <v>40.29429050169747</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-6.303006710936179</v>
+        <v>-6.303006710936918</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.59756970972239</v>
+        <v>27.59756970972312</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.84754150617841</v>
+        <v>34.84754150618014</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.853443707277686</v>
+        <v>5.853443707274389</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>50.266890448357</v>
+        <v>50.26689044835621</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>60.04119216606831</v>
+        <v>60.0411921660656</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>60.78610662698328</v>
+        <v>60.78610662698413</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>73.00438373291402</v>
+        <v>73.00438373291347</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>78.19707191978449</v>
+        <v>78.19707191978689</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>10.31512175161742</v>
+        <v>10.31512175161344</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>60.80465592314329</v>
+        <v>60.80465592314227</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>67.64439781740865</v>
+        <v>67.64439781740919</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>20.48773557023598</v>
+        <v>20.48773557023611</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.67885163659827</v>
+        <v>30.67885163659677</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.82571303558971</v>
+        <v>36.8257130355931</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>15.08326650466477</v>
+        <v>15.08326650466336</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>37.53638962927919</v>
+        <v>37.53638962927811</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>42.54617509413963</v>
+        <v>42.54617509414079</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.37129719953325</v>
+        <v>22.37129719953296</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>52.55659332067626</v>
+        <v>52.55659332067845</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>58.60026568770325</v>
+        <v>58.60026568770642</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>48.87916604676749</v>
+        <v>48.8791660467674</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>52.95053373476012</v>
+        <v>52.95053373476376</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>56.32370088991045</v>
+        <v>56.32370088990981</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>20.54632926708284</v>
+        <v>20.54632926708397</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>39.00763174869252</v>
+        <v>39.00763174869167</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>48.34333840137317</v>
+        <v>48.3433384013746</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.98823631023359</v>
+        <v>21.98823631023289</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>37.94456893179278</v>
+        <v>37.94456893178961</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>44.0369176279798</v>
+        <v>44.036917627977</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>11.54264867703962</v>
+        <v>11.54264867703621</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>33.03360070879869</v>
+        <v>33.03360070879681</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>42.34338966815398</v>
+        <v>42.34338966815269</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.83548749574217</v>
+        <v>15.83548749574488</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>47.90846595576404</v>
+        <v>47.90846595576458</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>57.82639318818946</v>
+        <v>57.82639318819154</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>46.18151021681849</v>
+        <v>46.18151021681593</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>54.90198626779362</v>
+        <v>54.90198626779544</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>61.91668189241405</v>
+        <v>61.91668189241162</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>18.42775058072769</v>
+        <v>18.4277505807289</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>50.50868075800875</v>
+        <v>50.50868075801051</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.89458182340015</v>
+        <v>56.89458182340157</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.37470280974212</v>
+        <v>20.37470280974375</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>39.70381156197533</v>
+        <v>39.70381156197526</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.88536413703988</v>
+        <v>45.88536413704009</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>8.737575082585169</v>
+        <v>8.7375750825874</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>35.41947839883634</v>
+        <v>35.41947839883316</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.28108464625755</v>
+        <v>43.28108464625556</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>17.48628781224089</v>
+        <v>17.48628781223826</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>54.66118395180867</v>
+        <v>54.66118395180627</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.60646899588704</v>
+        <v>64.60646899588485</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>64.37781523259869</v>
+        <v>64.37781523259606</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>73.38130602780323</v>
+        <v>73.38130602780424</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>79.1057839687661</v>
+        <v>79.10578396876697</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>21.55061249298429</v>
+        <v>21.55061249298431</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.40723448706346</v>
+        <v>62.40723448706481</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>69.7290770061222</v>
+        <v>69.72907700611934</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>9.759257660159539</v>
+        <v>9.759257660158168</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.00395098146333</v>
+        <v>26.00395098146362</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.97319194943895</v>
+        <v>31.97319194943739</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.05918060065473618</v>
+        <v>0.05918060065414998</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.82782394510665</v>
+        <v>26.8278239451053</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.64167838839445</v>
+        <v>30.64167838839474</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>10.56543790220519</v>
+        <v>10.56543790220129</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>45.75527752176049</v>
+        <v>45.75527752175802</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>51.37620102534034</v>
+        <v>51.37620102533739</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>48.19575029416713</v>
+        <v>48.19575029416549</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>56.76513489000975</v>
+        <v>56.76513489000874</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>56.03332993242568</v>
+        <v>56.03332993242074</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>5.90484118272351</v>
+        <v>5.90484118272415</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>35.18381343003858</v>
+        <v>35.18381343003969</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.64705353970569</v>
+        <v>39.64705353970805</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>9.593930183152517</v>
+        <v>9.593930183150563</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.06419507721702</v>
+        <v>30.06419507721667</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>37.19579842917958</v>
+        <v>37.19579842918353</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-4.036769188958294</v>
+        <v>-4.036769188963261</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>20.05226543823448</v>
+        <v>20.05226543823192</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.81826932978293</v>
+        <v>29.81826932977887</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3.870589168512327</v>
+        <v>3.870589168511559</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>39.10178400567411</v>
+        <v>39.10178400567222</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>50.43423063840767</v>
+        <v>50.4342306384079</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>42.5767825565456</v>
+        <v>42.57678255654786</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>52.45434600928576</v>
+        <v>52.45434600928695</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>58.23046423306943</v>
+        <v>58.2304642330701</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>4.653301785061226</v>
+        <v>4.653301785063151</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>43.28743233977689</v>
+        <v>43.28743233977686</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.8577924412408</v>
+        <v>49.85779244124009</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>6.516851484117398</v>
+        <v>6.516851484116438</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.49124897191797</v>
+        <v>30.49124897191894</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>39.73155909394402</v>
+        <v>39.7315590939424</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-9.457372566897631</v>
+        <v>-9.457372566896657</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>20.72243816926267</v>
+        <v>20.72243816926133</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.46555790278283</v>
+        <v>31.46555790278254</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.978343486260416</v>
+        <v>2.978343486257254</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.84396112699532</v>
+        <v>43.8439611269927</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>57.46670432071313</v>
+        <v>57.46670432071083</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>56.61185997767139</v>
+        <v>56.61185997766561</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>67.76474808477091</v>
+        <v>67.76474808476837</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>78.02577487879446</v>
+        <v>78.02577487879236</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>4.738109319693672</v>
+        <v>4.738109319696372</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>53.44262127587331</v>
+        <v>53.4426212758728</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>65.19596383692084</v>
+        <v>65.19596383692263</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>9.552819392432008</v>
+        <v>9.552819392433397</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>12.41595736163799</v>
+        <v>12.41595736163708</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.9440993237895</v>
+        <v>15.94409932378943</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-3.630413864599243</v>
+        <v>-3.630413864596351</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>9.317785724346235</v>
+        <v>9.317785724347088</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>11.37286561617855</v>
+        <v>11.37286561617954</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>2.651472847037811</v>
+        <v>2.651472847039377</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.08216449252416</v>
+        <v>24.08216449252666</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.6192076558047</v>
+        <v>27.61920765580412</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.31220210279235</v>
+        <v>27.31220210279461</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.02453917072187</v>
+        <v>26.02453917072673</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.32068003509224</v>
+        <v>28.32068003509488</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>5.017275562947694</v>
+        <v>5.01727556294855</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.29505503453613</v>
+        <v>13.29505503453779</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>17.54146022317865</v>
+        <v>17.54146022317821</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>11.41455258284777</v>
+        <v>11.41455258284931</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.12504487545343</v>
+        <v>21.1250448754534</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.90383591755441</v>
+        <v>28.9038359175559</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-3.698381447484897</v>
+        <v>-3.698381447480804</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.712484973575267</v>
+        <v>9.712484973577128</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.97504583782532</v>
+        <v>20.97504583782518</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1.339187730607202</v>
+        <v>1.339187730610009</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.75809168026872</v>
+        <v>25.75809168027098</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>37.63560564164531</v>
+        <v>37.63560564164784</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.24830973768513</v>
+        <v>29.24830973768803</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.52230145030374</v>
+        <v>33.52230145030489</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.39153541117938</v>
+        <v>44.39153541117956</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>5.588740557660623</v>
+        <v>5.588740557659635</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.42150958493111</v>
+        <v>28.42150958493234</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.387031081084</v>
+        <v>37.3870310810855</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>13.78945369551433</v>
+        <v>13.78945369551485</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.97164965172027</v>
+        <v>27.97164965172135</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>37.73190706813033</v>
+        <v>37.73190706812919</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-3.557596111219928</v>
+        <v>-3.557596111220759</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>16.47608256186518</v>
+        <v>16.47608256186684</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.48305122704407</v>
+        <v>28.48305122704517</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>4.973546204992823</v>
+        <v>4.973546204991083</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.73036927714568</v>
+        <v>35.73036927714871</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>49.54234750532137</v>
+        <v>49.54234750532181</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.36993430173488</v>
+        <v>46.36993430173797</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>50.84485309205028</v>
+        <v>50.84485309205126</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>62.68958461527934</v>
+        <v>62.68958461528015</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>5.622225315993427</v>
+        <v>5.622225315992695</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.85522102238247</v>
+        <v>38.85522102238291</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>52.17455657593086</v>
+        <v>52.17455657593521</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>14.32602411767752</v>
+        <v>14.32602411767913</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.91764065614498</v>
+        <v>22.91764065614569</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.88211239505513</v>
+        <v>29.88211239505431</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>5.046344775974708</v>
+        <v>5.046344775976079</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.57333127311605</v>
+        <v>25.57333127311784</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.63811508322593</v>
+        <v>31.63811508322613</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>12.49902780528386</v>
+        <v>12.499027805287</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>40.81075024518586</v>
+        <v>40.81075024518699</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>47.77790656999942</v>
+        <v>47.77790656999771</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>38.34492729151339</v>
+        <v>38.34492729151279</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.22334173987537</v>
+        <v>41.22334173987268</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.04093851485619</v>
+        <v>46.04093851485406</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>12.54724616916219</v>
+        <v>12.54724616916295</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.94675476306431</v>
+        <v>28.94675476306656</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.74767290709852</v>
+        <v>39.7476729070987</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.79274752236167</v>
+        <v>12.79274752236139</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.77635322518037</v>
+        <v>26.77635322517974</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.63103356143302</v>
+        <v>34.63103356143316</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-0.7906642220269315</v>
+        <v>-0.7906642220253826</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>18.34594449164974</v>
+        <v>18.34594449164985</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.72168777531473</v>
+        <v>29.72168777531612</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>3.501755810761255</v>
+        <v>3.50175581076453</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.30355091298089</v>
+        <v>33.30355091297819</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>45.03909819721652</v>
+        <v>45.03909819721526</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.32148992125557</v>
+        <v>32.32148992125455</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.51049878765626</v>
+        <v>39.51049878765789</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>48.9141743399069</v>
+        <v>48.91417433990731</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.677460013413041</v>
+        <v>6.677460013414555</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.01596854070722</v>
+        <v>36.01596854070792</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.15292613774663</v>
+        <v>45.15292613774403</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>10.101145483218</v>
+        <v>10.10114548322197</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.5962182155293</v>
+        <v>27.59621821552867</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.54023675417044</v>
+        <v>35.54023675416965</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-4.16948229824632</v>
+        <v>-4.169482298246775</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.30572398173441</v>
+        <v>20.30572398173164</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.20592426311092</v>
+        <v>30.20592426310762</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>4.255490612616869</v>
+        <v>4.255490612617246</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>39.29657305727821</v>
+        <v>39.29657305727732</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>51.02501564654376</v>
+        <v>51.02501564654535</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>49.28053165275051</v>
+        <v>49.2805316527496</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>56.74456802125849</v>
+        <v>56.74456802125852</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>64.88787293524925</v>
+        <v>64.88787293524757</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>8.355801451973223</v>
+        <v>8.355801451973564</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>46.50841021473939</v>
+        <v>46.50841021474097</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>56.5510856969612</v>
+        <v>56.55108569696245</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>19.01739444609139</v>
+        <v>19.01739444609272</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.79494004394854</v>
+        <v>29.79494004394937</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.24538310220744</v>
+        <v>36.24538310220898</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>13.90742447275197</v>
+        <v>13.90742447275694</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>38.6826919470261</v>
+        <v>38.68269194702861</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>42.6763224848874</v>
+        <v>42.6763224848884</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>22.33583632982435</v>
+        <v>22.33583632982814</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.87057705443247</v>
+        <v>54.87057705443229</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>60.47393932751186</v>
+        <v>60.47393932751298</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>52.85811649406961</v>
+        <v>52.85811649407102</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>57.93971603660393</v>
+        <v>57.93971603660484</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>60.41546501827045</v>
+        <v>60.41546501827184</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>18.38037723673879</v>
+        <v>18.38037723673648</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.18466153091792</v>
+        <v>39.18466153091688</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>48.76020576682681</v>
+        <v>48.76020576682477</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.63879363750367</v>
+        <v>17.63879363750114</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>34.08506972670533</v>
+        <v>34.08506972670574</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.7190231431604</v>
+        <v>39.71902314316068</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.840377124254305</v>
+        <v>5.840377124258994</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.37530391551597</v>
+        <v>29.37530391551549</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.82562327331351</v>
+        <v>36.82562327331598</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>12.99038436221962</v>
+        <v>12.9903843622216</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>47.14411991240716</v>
+        <v>47.14411991240791</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>55.98662076596443</v>
+        <v>55.98662076596722</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>47.35121353763326</v>
+        <v>47.35121353763322</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>56.04250038275359</v>
+        <v>56.04250038275067</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>60.80456365042834</v>
+        <v>60.80456365042674</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>15.67652831317178</v>
+        <v>15.67652831317189</v>
       </c>
     </row>
     <row r="926">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>54.91450040789728</v>
+        <v>54.91450040789877</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>13.978766258713</v>
+        <v>13.97876625871099</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.11794009399441</v>
+        <v>35.11794009399096</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.67748531672694</v>
+        <v>40.67748531672711</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>1.291694447140715</v>
+        <v>1.291694447140687</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>31.89281074098977</v>
+        <v>31.89281074099019</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.46852847411967</v>
+        <v>37.4685284741153</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.94704021919585</v>
+        <v>12.9470402191967</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>53.89521352324431</v>
+        <v>53.89521352324314</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>62.36894354196701</v>
+        <v>62.36894354196632</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>63.24373064858014</v>
+        <v>63.24373064857921</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>72.49846044099566</v>
+        <v>72.49846044099569</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>76.06650615483599</v>
+        <v>76.06650615483831</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>14.26753765778181</v>
+        <v>14.26753765778042</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>59.81215510811045</v>
+        <v>59.81215510810919</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>65.56045435430568</v>
+        <v>65.56045435430526</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>10.04953917022737</v>
+        <v>10.04953917022756</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.62626166837298</v>
+        <v>26.62626166837423</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.30504465315506</v>
+        <v>32.30504465315367</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1.050230522347904</v>
+        <v>1.05023052234924</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.97791588324733</v>
+        <v>28.97791588324719</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.52850822654302</v>
+        <v>32.52850822654501</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>11.61317847258083</v>
+        <v>11.61317847258027</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>47.74859402620807</v>
+        <v>47.74859402620583</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>53.02381976435465</v>
+        <v>53.02381976435545</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>50.07050312568804</v>
+        <v>50.07050312568514</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>58.06481694475351</v>
+        <v>58.06481694475244</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>57.54481702035721</v>
+        <v>57.54481702035774</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>5.989625435449037</v>
+        <v>5.989625435450856</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>35.666664877873</v>
+        <v>35.66666487787359</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.48861034026257</v>
+        <v>40.48861034026474</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.6793399023239</v>
+        <v>11.67933990232422</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.03423492675005</v>
+        <v>32.03423492674931</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>38.7278318328889</v>
+        <v>38.72783183288898</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-1.759882845333101</v>
+        <v>-1.759882845332312</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>22.80876689819944</v>
+        <v>22.80876689819846</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.22870612451568</v>
+        <v>32.22870612451239</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>6.525552669239184</v>
+        <v>6.525552669240811</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>42.1930181341979</v>
+        <v>42.19301813419857</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>53.02966195866191</v>
+        <v>53.02966195866147</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>45.55397718338495</v>
+        <v>45.55397718338538</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>54.37330046931545</v>
+        <v>54.37330046931374</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>60.36162871427133</v>
+        <v>60.36162871427201</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>6.403676458983734</v>
+        <v>6.403676458983663</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.98225977202309</v>
+        <v>44.98225977202234</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.2432885295837</v>
+        <v>51.2432885295845</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>8.181281387376041</v>
+        <v>8.181281387378791</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.43834152601192</v>
+        <v>30.43834152601416</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>39.61178918652207</v>
+        <v>39.61178918652195</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-9.472815123806866</v>
+        <v>-9.472815123805516</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>19.00230816506316</v>
+        <v>19.00230816506237</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.81442679201652</v>
+        <v>29.81442679201588</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>2.958894466509806</v>
+        <v>2.958894466511063</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>42.38623928483486</v>
+        <v>42.38623928483219</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>55.87305782984541</v>
+        <v>55.8730578298447</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>55.42086894569729</v>
+        <v>55.4208689456956</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>63.53935310268127</v>
+        <v>63.53935310268377</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>73.81398447786957</v>
+        <v>73.81398447787282</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>2.528515318663077</v>
+        <v>2.528515318664413</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>48.28112704314854</v>
+        <v>48.28112704314928</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>60.1734737739284</v>
+        <v>60.17347377392847</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.518</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.962</v>
+        <v>16.249</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.638</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.929</v>
+        <v>13.965</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.839</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.608</v>
+        <v>7.21</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.65175604610209</v>
+        <v>3.593837899342741</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.40126007501283</v>
+        <v>11.44454912104782</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.79977683541471</v>
+        <v>18.68220047115371</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.669693891239307</v>
+        <v>-8.978826909240542</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.43894342309761</v>
+        <v>13.91227547447811</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.4113399783095</v>
+        <v>15.49930602252025</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.918394090491512</v>
+        <v>-4.608450561292642</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.91149755362647</v>
+        <v>27.81269785520431</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>45.07674805106076</v>
+        <v>30.73195857560454</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.31475281582897</v>
+        <v>26.51764020244052</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>42.46615797971608</v>
+        <v>30.63635879672641</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>45.51494500442928</v>
+        <v>33.45377148013819</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.46559166719784</v>
+        <v>3.776286080355636</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.55383561495724</v>
+        <v>21.18214436045174</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.57938438877583</v>
+        <v>25.45135719793333</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.00159288600958</v>
+        <v>11.9755445997285</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.91848435748931</v>
+        <v>24.44308757604323</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.32147916575444</v>
+        <v>39.31382010538928</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.6762533637412833</v>
+        <v>2.120557795535667</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>20.72989372015372</v>
+        <v>17.3036984669575</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.30612757156315</v>
+        <v>35.64190531976093</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.460935278923012</v>
+        <v>3.28092514706913</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37.59797780130009</v>
+        <v>32.2415786920879</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>48.82238227500768</v>
+        <v>55.3299784487527</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>38.78325515541124</v>
+        <v>36.84965396743606</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>47.09085850797083</v>
+        <v>52.2707606974338</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>55.07819889546026</v>
+        <v>68.30846599723563</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11.67073979409667</v>
+        <v>11.39871776238502</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.88172184604874</v>
+        <v>44.25942062004199</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50.69724174593743</v>
+        <v>60.10255332278508</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.55305682093286</v>
+        <v>12.94693363747817</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.66606179655103</v>
+        <v>32.98879093082809</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.37502581184231</v>
+        <v>42.72840104681939</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.3564503375075478</v>
+        <v>5.410632143195212</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.60111060459218</v>
+        <v>27.99349081138404</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35.91060437140746</v>
+        <v>38.81970322727717</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>10.50464581657055</v>
+        <v>6.297745440871196</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>47.62981121386803</v>
+        <v>46.84677588405774</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>59.06723631421503</v>
+        <v>63.10934626634429</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59.91229113344674</v>
+        <v>59.94184212196917</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>69.03337225138291</v>
+        <v>73.29538729732</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>76.04249646557531</v>
+        <v>84.26431428044982</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.94691329412926</v>
+        <v>17.30742646548978</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>58.24210989153011</v>
+        <v>59.78722997707123</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>67.31919609952119</v>
+        <v>68.75966750495435</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.43365687421375</v>
+        <v>7.391006637552362</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.58544429806067</v>
+        <v>29.95609914518352</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.38345583778727</v>
+        <v>37.30610354462898</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.248910674234251</v>
+        <v>4.71433403610629</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.1175605165494</v>
+        <v>41.42209666488191</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37.04193847714896</v>
+        <v>46.41006999134665</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.268862565211</v>
+        <v>11.06720963198242</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>52.0203565723541</v>
+        <v>61.83803040230804</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>56.9864355211218</v>
+        <v>63.97340322154002</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.77010562676406</v>
+        <v>57.48513124873703</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>60.90491161310258</v>
+        <v>70.78284255722761</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>61.85499026466843</v>
+        <v>66.2857951052306</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8.150003211371741</v>
+        <v>12.02863490419252</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>38.40335842940479</v>
+        <v>41.55217471705976</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.68386934130108</v>
+        <v>48.82095925694576</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>14.77946438568981</v>
+        <v>10.03102851840466</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.03620551772401</v>
+        <v>33.01166697545956</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.93594299032568</v>
+        <v>42.00108476861264</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.030766085065453</v>
+        <v>-1.941637542379294</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.49605382347504</v>
+        <v>29.65246967348373</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.94951730167983</v>
+        <v>41.21540760113731</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>12.37087397417628</v>
+        <v>4.614109501141559</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>51.21862216236703</v>
+        <v>46.35654301564138</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>59.75732542873546</v>
+        <v>59.69253402916647</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>53.05042041382562</v>
+        <v>48.65545693830124</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>63.65898033379273</v>
+        <v>62.02987923460699</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>68.71847742182057</v>
+        <v>68.83710370449514</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.57726886732075</v>
+        <v>10.79034247275817</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>55.18056250843569</v>
+        <v>54.85353566564467</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>59.70120673485565</v>
+        <v>62.17085285425391</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.21517123029836</v>
+        <v>11.86599963742771</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.1939078074909</v>
+        <v>42.73307734745948</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.32623248640704</v>
+        <v>52.55990831003042</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-2.907093446913143</v>
+        <v>-2.890307085393971</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.37330434466342</v>
+        <v>38.02280099797194</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.40302261778561</v>
+        <v>49.41650002024328</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11.46073166605655</v>
+        <v>8.115963275084825</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>57.48633176289798</v>
+        <v>61.12433665533071</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>66.10300571876974</v>
+        <v>75.64862622167898</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>67.00302215655188</v>
+        <v>66.01663637511218</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>79.3133052099215</v>
+        <v>80.92330767163111</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>85.35810469468149</v>
+        <v>88.30696819144406</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>13.09406866234309</v>
+        <v>9.768905525491261</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>66.7813488882493</v>
+        <v>67.31396370937338</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>72.69102886665192</v>
+        <v>74.37668606410178</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>10.43365687421375</v>
+        <v>8.9230415697455</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.58544429806067</v>
+        <v>27.75192415299677</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.38345583778727</v>
+        <v>31.51177284849127</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.248910674234251</v>
+        <v>4.145376121706708</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>34.1175605165494</v>
+        <v>35.86303170428082</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>37.04193847714896</v>
+        <v>36.50571560779694</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.268862565211</v>
+        <v>10.78870357002914</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>52.0203565723541</v>
+        <v>56.16711495254424</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>56.9864355211218</v>
+        <v>53.1300971815899</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>51.77010562676406</v>
+        <v>45.37924397119984</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>60.90491161310258</v>
+        <v>56.07917970628395</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>61.85499026466843</v>
+        <v>53.79926801545032</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>8.150003211371741</v>
+        <v>12.0829227339074</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>38.40335842940479</v>
+        <v>36.81005797879813</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.68386934130108</v>
+        <v>41.57260668261737</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.77946438568981</v>
+        <v>14.37294893606222</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>38.03620551772401</v>
+        <v>37.6897418809027</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>42.93594299032568</v>
+        <v>43.5107707382021</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.030766085065453</v>
+        <v>2.531815271043229</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.49605382347504</v>
+        <v>34.92861693579623</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>37.94951730167983</v>
+        <v>42.09555605381821</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12.37087397417628</v>
+        <v>9.375695427670427</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>51.21862216236703</v>
+        <v>51.99172710697142</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>59.75732542873546</v>
+        <v>60.72893453112927</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.05042041382562</v>
+        <v>54.06747008292812</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>63.65898033379273</v>
+        <v>65.15636451504709</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>68.71847742182057</v>
+        <v>69.51062132029459</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>14.57726886732075</v>
+        <v>15.71162417460277</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>55.18056250843569</v>
+        <v>58.73632184894338</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>59.70120673485565</v>
+        <v>61.77473640810933</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>12.21517123029836</v>
+        <v>12.82547762229877</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.1939078074909</v>
+        <v>44.94792148274917</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.32623248640704</v>
+        <v>52.45581288094603</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-2.907093446913143</v>
+        <v>-2.671388078641318</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.37330434466342</v>
+        <v>40.13590109401181</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.40302261778561</v>
+        <v>48.39468475128237</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.46073166605655</v>
+        <v>7.808415613017882</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.48633176289798</v>
+        <v>63.17578072196646</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>66.10300571876974</v>
+        <v>74.22770175379233</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>67.00302215655188</v>
+        <v>70.06324574740096</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>79.3133052099215</v>
+        <v>82.37314832850166</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>85.35810469468149</v>
+        <v>87.83331717781098</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>13.09406866234309</v>
+        <v>12.03206616993769</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>66.7813488882493</v>
+        <v>68.82271849124162</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.69102886665192</v>
+        <v>74.33419735362517</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>12.13582523068583</v>
+        <v>9.862925466152397</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>15.75815643642706</v>
+        <v>14.73134668788996</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>20.3621887556603</v>
+        <v>21.11511507389658</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.159420685268083</v>
+        <v>-0.3504344390205745</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.21927869466942</v>
+        <v>17.88430468933049</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.60291659249828</v>
+        <v>17.94376633079302</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>6.257317983878787</v>
+        <v>3.194022299776318</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.44567582492217</v>
+        <v>31.28259521283431</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.14456292665784</v>
+        <v>32.45428623946074</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>32.04145802154207</v>
+        <v>29.34632640088156</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.31390054024093</v>
+        <v>32.06464273219125</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.60852740202787</v>
+        <v>37.49904717407047</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>12.32590867441017</v>
+        <v>43.29067525107932</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>20.26438256917354</v>
+        <v>55.35702126019461</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.97843972595629</v>
+        <v>55.59732522313037</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.80434668780081</v>
+        <v>14.8078821186915</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.24934536439368</v>
+        <v>24.87882590642442</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.06404607710874</v>
+        <v>38.39935739550521</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-2.144366996475766</v>
+        <v>5.737230301478835</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.05175042721076</v>
+        <v>16.99756520694165</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>21.30247956892245</v>
+        <v>33.56944061617919</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.96188668014363</v>
+        <v>32.65158755649312</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.98475668375237</v>
+        <v>53.30269031797873</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.3763406425024</v>
+        <v>31.4339431227056</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.28349937246995</v>
+        <v>42.41281673084675</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>40.79391013664465</v>
+        <v>60.32423139975012</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>8.784985594148887</v>
+        <v>13.33902943496178</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>31.87956488105216</v>
+        <v>42.21712720166943</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>37.98317662503373</v>
+        <v>52.18528880871239</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>16.77461099090104</v>
+        <v>14.86645464373375</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>31.79582938283324</v>
+        <v>30.27391087498165</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>37.60770546087637</v>
+        <v>41.52594069228733</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-2.507605367878012</v>
+        <v>7.92413342724927</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>18.70275834988153</v>
+        <v>23.7123063344325</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.21864448561205</v>
+        <v>36.50768907323197</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>6.182718363903982</v>
+        <v>8.937479946203947</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>38.94099395431127</v>
+        <v>42.8390821846004</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>48.80371089254135</v>
+        <v>61.12752302607851</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>52.0818358456</v>
+        <v>49.9220958886317</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.2225038448016</v>
+        <v>62.81929261439714</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>63.22740124634079</v>
+        <v>77.57478195288344</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>14.77933674058176</v>
+        <v>22.34518019598907</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>48.94213118640997</v>
+        <v>56.07596483478208</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.83815960745813</v>
+        <v>63.71591074762364</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.046206495916232</v>
+        <v>11.08530283845307</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.45220564084082</v>
+        <v>23.5666386315398</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24.9448686168074</v>
+        <v>31.2549020683912</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.08113723211845247</v>
+        <v>4.640359780854784</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.91376055331738</v>
+        <v>33.37101497474681</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.6929027805853</v>
+        <v>35.20996642370957</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.539196039687051</v>
+        <v>14.06150709593334</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>41.3271077001807</v>
+        <v>55.02163067969343</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>46.39827856794859</v>
+        <v>57.2793588181427</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.32293768538199</v>
+        <v>48.40815329812693</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.5235991947666</v>
+        <v>52.0976656954872</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.33744389013683</v>
+        <v>53.68072138461322</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>4.138311363988132</v>
+        <v>11.7215932880361</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.52233568832181</v>
+        <v>20.73708003103855</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>32.56422915129057</v>
+        <v>25.41544829785801</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>14.99992618778918</v>
+        <v>17.2815919088825</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.74370418960733</v>
+        <v>38.26241784398549</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>39.64110572549633</v>
+        <v>44.81332202760432</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1.083371263033245</v>
+        <v>10.62823681187829</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.77677952714277</v>
+        <v>37.38385733995634</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.45644889151755</v>
+        <v>46.02323870998335</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>44.30239583916523</v>
+        <v>56.63173236245036</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>52.9102409149864</v>
+        <v>67.65497982364248</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>42.20451801825814</v>
+        <v>61.06508557941267</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>53.76971428586904</v>
+        <v>71.73211780437556</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>59.28030640331478</v>
+        <v>80.79449306878648</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>10.89310591015703</v>
+        <v>29.47008892700127</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>48.44277238920207</v>
+        <v>66.00375836105242</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>52.47346257274943</v>
+        <v>67.89361627320172</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>12.35344352439041</v>
+        <v>17.5376026916411</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>35.32997699581902</v>
+        <v>39.55131266793105</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.89740608958045</v>
+        <v>48.64549465429879</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>-3.135596944905805</v>
+        <v>9.991988050195248</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>27.55407848982026</v>
+        <v>35.42334293522684</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.52347244390435</v>
+        <v>45.90025977495633</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>8.159147859342697</v>
+        <v>14.33477949650592</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>49.36507318872633</v>
+        <v>58.79155889085924</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>58.68522621570137</v>
+        <v>74.26071068772224</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>59.54071739135777</v>
+        <v>70.56201799188116</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>71.35474699615482</v>
+        <v>83.83360289562204</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>76.17206401266941</v>
+        <v>91.53772800224718</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>13.56032358687465</v>
+        <v>28.32470305953131</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>59.95326388024859</v>
+        <v>67.91527710943433</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>65.99834261830544</v>
+        <v>72.50829509802389</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2.650436355521586</v>
+        <v>5.416183336612853</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.35382516160732</v>
+        <v>23.42227423578208</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>23.14763750651516</v>
+        <v>29.3127130549243</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1.754534633632252</v>
+        <v>7.735198255168616</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.09024357545152</v>
+        <v>39.32691858922541</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>32.20876338815116</v>
+        <v>40.28383468977258</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>11.20423040517209</v>
+        <v>15.8447798659349</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>48.26707242774473</v>
+        <v>61.32968193664695</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>51.4988306852846</v>
+        <v>60.48698094663995</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>41.34222308394536</v>
+        <v>51.44112170814198</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>48.38784033816091</v>
+        <v>64.40409146845012</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>48.93566890786794</v>
+        <v>63.81882962946707</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>-2.171647354759981</v>
+        <v>3.162772094651686</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.46404557236697</v>
+        <v>8.576328458358962</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.02639933797122</v>
+        <v>10.13313849261543</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.38293859594216</v>
+        <v>10.27398761851099</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.04562149067582</v>
+        <v>41.33804390705252</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>44.77519010256031</v>
+        <v>43.46239282578465</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4.761236346077618</v>
+        <v>-0.008228608067639698</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>38.53646010265575</v>
+        <v>42.34669800028396</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>40.78443223896136</v>
+        <v>44.88485420873341</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>17.19418616962064</v>
+        <v>8.534321038511905</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>60.71720001423752</v>
+        <v>62.26090939900246</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>65.18957017726808</v>
+        <v>65.0689149523821</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>56.19388630645359</v>
+        <v>52.2831647221852</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.94502085425411</v>
+        <v>69.99912391508231</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>72.74728458102024</v>
+        <v>74.89583101636261</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>18.02341432387446</v>
+        <v>21.30464181592043</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>63.03119393751191</v>
+        <v>67.9855382936644</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>62.53911696216555</v>
+        <v>68.56792096063955</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>12.08477903347041</v>
+        <v>13.74862259347648</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>-5.342829523004971</v>
+        <v>0.6005586777947194</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>35.2167406436118</v>
+        <v>41.48578801784139</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.83459404701666</v>
+        <v>47.4539362550863</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>11.78912635929265</v>
+        <v>11.87544275086556</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>61.71650255577974</v>
+        <v>65.05367462998619</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>66.01859283009124</v>
+        <v>73.66026500728788</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>67.42916674646064</v>
+        <v>68.87583972915483</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>82.64354429324551</v>
+        <v>85.36432363747059</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>82.82308212687255</v>
+        <v>88.26525129162282</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>13.2349479111845</v>
+        <v>19.96293673609025</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>70.52402026153078</v>
+        <v>72.97404269614438</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>70.63502308427474</v>
+        <v>74.55937683826522</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>3.686215763929093</v>
+        <v>1.355013443093348</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.262468257271481</v>
+        <v>9.621717179819061</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>15.18774419868307</v>
+        <v>13.65763976514903</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-7.38232212589069</v>
+        <v>-7.53418738723887</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.46492894172135</v>
+        <v>11.09604650329716</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>13.26926831566239</v>
+        <v>10.88122923213287</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-0.7474857728949562</v>
+        <v>-4.50498896914544</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.6447845147231</v>
+        <v>23.81188853522805</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>30.46680126751267</v>
+        <v>22.67990331825519</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>30.67676514666383</v>
+        <v>20.55246489750871</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.72885347603028</v>
+        <v>27.70197436265374</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.83599034717221</v>
+        <v>27.24770501751115</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>0.742807288805496</v>
+        <v>1.394244151159651</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.71654470110197</v>
+        <v>13.18244965743161</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.43939496313869</v>
+        <v>16.76370332630325</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.20857218169396</v>
+        <v>11.16797519798185</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.92803145223907</v>
+        <v>23.57651011616951</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.76695353687301</v>
+        <v>35.86982710943876</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-2.371993814142121</v>
+        <v>-4.861196624697712</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>16.18918711532538</v>
+        <v>12.95433725205446</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.35054390761587</v>
+        <v>27.3715053725463</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5.200838081646106</v>
+        <v>4.213269840851069</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>34.78160442964166</v>
+        <v>29.78030903713688</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>44.62078895052927</v>
+        <v>47.79442396045765</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>39.16646590579491</v>
+        <v>30.85496873014795</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>45.25243599674975</v>
+        <v>43.75601177430862</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>51.64877457151881</v>
+        <v>54.07156570100319</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>11.53384221234345</v>
+        <v>7.83436189001031</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>39.0111843645175</v>
+        <v>37.57185388355903</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>46.18802063368109</v>
+        <v>50.33863263482602</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>12.8516652808009</v>
+        <v>12.89569281350977</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.26570870064265</v>
+        <v>35.20426531415171</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.7645362701802</v>
+        <v>44.01385533677873</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-3.044155052704516</v>
+        <v>-2.798571279484538</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.29275310770295</v>
+        <v>27.00787284528373</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>31.101804061532</v>
+        <v>36.75465006736875</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>9.485822960475668</v>
+        <v>7.608951217666867</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>48.20526411860708</v>
+        <v>47.849342950088</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>57.21465553597523</v>
+        <v>60.54691849656038</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>60.29756955555718</v>
+        <v>57.60370629011857</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>68.48104044868894</v>
+        <v>69.27051685968209</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>73.20180754720282</v>
+        <v>78.82578908032406</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>14.49750907246685</v>
+        <v>14.11527677625598</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>57.46234296088247</v>
+        <v>58.78489950205466</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>64.19247126020866</v>
+        <v>69.83957218086391</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1.850540171426362</v>
+        <v>-0.3577558058384867</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>12.3380703644442</v>
+        <v>3.112467950829458</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>17.07332775118919</v>
+        <v>9.35547289619004</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-6.360172459964522</v>
+        <v>-9.273358105085268</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.23858291445225</v>
+        <v>6.17802002095689</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>18.93423205479689</v>
+        <v>6.83592255942229</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>1.499057839666362</v>
+        <v>-7.56200234284206</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>32.68415263461623</v>
+        <v>19.17529583778141</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>36.91363527553462</v>
+        <v>19.68721423719803</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>30.47861386120212</v>
+        <v>15.81609987668926</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>33.71781383659568</v>
+        <v>18.5181685219097</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.59313273546354</v>
+        <v>18.2794110191595</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-1.5551603012656</v>
+        <v>1.831105427998409</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>16.71871804064538</v>
+        <v>4.32904550490143</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>22.26298622966482</v>
+        <v>6.212525386957413</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>8.443613293367539</v>
+        <v>3.432981161744109</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.94710441651967</v>
+        <v>10.59285765065938</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>31.09354761822465</v>
+        <v>19.4167034320713</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-7.931572793388254</v>
+        <v>-7.868138307366653</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>16.21589122674187</v>
+        <v>0.8199705731712363</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>22.94236102913324</v>
+        <v>12.30776575867553</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-0.8257595068187538</v>
+        <v>-6.900473043188878</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>34.51661466698081</v>
+        <v>14.53748366044963</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>42.44292389808223</v>
+        <v>29.22577783574541</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.7323863205032</v>
+        <v>17.72418377956671</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>43.79714723145478</v>
+        <v>26.69176582515515</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>48.52290972050116</v>
+        <v>40.78223036586493</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>3.737117263350919</v>
+        <v>-4.573713757439851</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>39.19549009048067</v>
+        <v>16.88088776113218</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>42.04363651636029</v>
+        <v>17.56624655353229</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>6.929040690305692</v>
+        <v>3.543501185053099</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.11554766741084</v>
+        <v>13.69538343606055</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.01554065763237</v>
+        <v>30.6271260369349</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-12.40874269954229</v>
+        <v>-9.566578726885549</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.48192947268428</v>
+        <v>0.5862386153556258</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>23.50422307455699</v>
+        <v>21.21607035669095</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.3662179099928533</v>
+        <v>-7.060529021748611</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>40.52034660227676</v>
+        <v>19.62095773607162</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>49.20558132398138</v>
+        <v>46.2102087935626</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>51.61540548945063</v>
+        <v>24.67445408592245</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>62.16314679549017</v>
+        <v>45.32653333058659</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.31526112978443</v>
+        <v>60.54814755807118</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>5.948778909182218</v>
+        <v>-7.454710402669914</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>51.34773854597653</v>
+        <v>15.52876207511858</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>56.36285782233029</v>
+        <v>29.75002856082354</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>7.744214343741804</v>
+        <v>3.936613561044613</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.64578215638624</v>
+        <v>27.31722292626129</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>35.42038477638069</v>
+        <v>37.10599770238691</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>5.020967566530745</v>
+        <v>3.898214973883448</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>40.46116053002685</v>
+        <v>45.96198058982237</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>44.3628765746919</v>
+        <v>51.21880715205384</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>17.18803301654924</v>
+        <v>12.0208632073018</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>59.27550018767737</v>
+        <v>68.27468825734171</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>65.14500628065024</v>
+        <v>70.93617333099505</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>56.95604280142469</v>
+        <v>62.34888515736854</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>67.42363267544823</v>
+        <v>73.30104762166809</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>71.12325883670654</v>
+        <v>67.26377430270729</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>8.409633015399793</v>
+        <v>17.63547775025442</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.75169420533297</v>
+        <v>41.35934060684703</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>51.62477214254212</v>
+        <v>60.86497084505278</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>9.081236950706559</v>
+        <v>8.832043729303871</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.96575400794681</v>
+        <v>34.27662121652848</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>39.52604013635934</v>
+        <v>41.5442045729263</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-4.606773302753849</v>
+        <v>-5.089374047898342</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>30.29566958716489</v>
+        <v>31.10110007472961</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.99970106421794</v>
+        <v>39.15713106123778</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>7.920634007398201</v>
+        <v>3.567089299855631</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>52.0625714986131</v>
+        <v>50.0116963618768</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>58.86727626443744</v>
+        <v>59.66602455729625</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>51.62154864250614</v>
+        <v>46.39599670512987</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>65.26015805615683</v>
+        <v>59.20176482254874</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>69.75730076865118</v>
+        <v>63.53130890041339</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.55452028770498</v>
+        <v>11.5543200170098</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>56.36630031638646</v>
+        <v>55.75175555197953</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>60.29391655809991</v>
+        <v>62.84891384165086</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>4.174618802785206</v>
+        <v>10.13820297719673</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.52738373354331</v>
+        <v>40.6625198416005</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.810311224964</v>
+        <v>49.53398234343673</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-8.938097152724479</v>
+        <v>-4.960950409576963</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>32.756090855013</v>
+        <v>36.65522789936593</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>35.42015322387467</v>
+        <v>46.51472235951313</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>6.879799662454376</v>
+        <v>5.731763836844365</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>57.49937843842436</v>
+        <v>59.05617248259625</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>63.67848564584621</v>
+        <v>71.50517178338534</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>65.71547827576154</v>
+        <v>65.81299317415028</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>79.53507400060164</v>
+        <v>79.33864757500336</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>81.78768295002726</v>
+        <v>83.4970150971666</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>8.882807370188475</v>
+        <v>9.135848260454397</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>67.2152870043374</v>
+        <v>66.19457853924909</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>70.63486862847267</v>
+        <v>75.18555963533957</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.868120406958047</v>
+        <v>6.121601315330956</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>9.592844105471238</v>
+        <v>13.39420072599766</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>15.09820538848372</v>
+        <v>19.31862589852017</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-4.147785211511808</v>
+        <v>-4.421724717857948</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>4.898500457874993</v>
+        <v>7.530697017536603</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>8.96437490266108</v>
+        <v>13.56137619844596</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1.013166626406592</v>
+        <v>-0.8040531541908322</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.17150966676766</v>
+        <v>20.69728698406872</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.91138242792801</v>
+        <v>25.18326518022623</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.29353514432179</v>
+        <v>21.5461892525413</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.42970016815832</v>
+        <v>25.13140428366917</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.68338614044364</v>
+        <v>26.87125702333063</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-1.119019601831601</v>
+        <v>-1.267149465601449</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>7.626565195469356</v>
+        <v>15.80108436104404</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>11.96329417523607</v>
+        <v>15.50435464671552</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>9.68960420355114</v>
+        <v>8.516059832253193</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>15.84832791267834</v>
+        <v>14.93143882157497</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.29136291466359</v>
+        <v>29.9904641522405</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1.334983933805942</v>
+        <v>-4.302211504697766</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.949234409091035</v>
+        <v>4.344145525324567</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>18.67961072419594</v>
+        <v>23.64927244762151</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.3708903348664467</v>
+        <v>1.036201943721448</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>18.15873331337137</v>
+        <v>15.73885832839656</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.97835817239027</v>
+        <v>38.80141532474582</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.47931394922315</v>
+        <v>19.55134995543892</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>23.20990070614044</v>
+        <v>29.04126316420425</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.34943653173222</v>
+        <v>40.02721446699222</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.6222804909020088</v>
+        <v>0.9757668627163092</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.59037257186521</v>
+        <v>22.91660838082913</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.86562934861526</v>
+        <v>37.49757265317702</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>12.98306586089105</v>
+        <v>11.99638685351959</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.85580652436701</v>
+        <v>26.27178866339677</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.30090642744673</v>
+        <v>38.93302917673095</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-2.172597732656888</v>
+        <v>-1.405854568127591</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.94742661839922</v>
+        <v>16.68941563183781</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.42430130794759</v>
+        <v>32.09293508798224</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>5.2641706672543</v>
+        <v>6.155369319498487</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.17421374685323</v>
+        <v>32.60683866259082</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>46.97590697355591</v>
+        <v>51.54414872155471</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>43.07811465787246</v>
+        <v>36.72099881836414</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>44.02543017917957</v>
+        <v>47.31756503741634</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>60.42590838404563</v>
+        <v>66.23781008780144</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>5.044229060274747</v>
+        <v>9.796925003190232</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>32.56709030724451</v>
+        <v>41.47852713910432</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>49.73381385641385</v>
+        <v>54.2291276579233</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-1.285702529862894</v>
+        <v>-0.1144539004478169</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>11.77652204571241</v>
+        <v>5.500012907987571</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>14.90953300166939</v>
+        <v>10.07835868445524</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-6.400568268761729</v>
+        <v>-7.189378203666418</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.78640618825678</v>
+        <v>4.38425569025717</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>16.45213833600638</v>
+        <v>7.281368116459038</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0.3691350762477317</v>
+        <v>-6.13386174431422</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>30.96968300462964</v>
+        <v>16.69343119310939</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.68322686612496</v>
+        <v>16.73978747785918</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.59056563025904</v>
+        <v>4.666027493828025</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>34.62490955942447</v>
+        <v>9.553792932773105</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.84038506610641</v>
+        <v>18.31913985084444</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-6.117250773308411</v>
+        <v>-10.08779281881587</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.36408447725334</v>
+        <v>-7.23354422598641</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>16.15235074915022</v>
+        <v>-6.028750378208262</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>13.09408874878623</v>
+        <v>12.52952947411364</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.33778454917866</v>
+        <v>33.89343734418246</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.80438181676305</v>
+        <v>36.33496128636655</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>3.25421781721356</v>
+        <v>2.932774475454995</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>27.1377646422635</v>
+        <v>31.82865232044671</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.41642787561547</v>
+        <v>35.43008154437457</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>10.89163846623524</v>
+        <v>7.881827067367411</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>45.16264300096571</v>
+        <v>46.39684513578139</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>51.54009966054547</v>
+        <v>50.6314661470727</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.78429657459805</v>
+        <v>44.88912508732195</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>54.74932628680377</v>
+        <v>55.11866088365393</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>57.19954470340477</v>
+        <v>60.1348650129508</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>12.9748828847487</v>
+        <v>16.27018706282096</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>48.19793872806894</v>
+        <v>53.21056967780284</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>49.16133606195197</v>
+        <v>52.9970920906652</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>13.85487602261765</v>
+        <v>14.78941474950039</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.80672852170363</v>
+        <v>42.84996390137122</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>41.80794446470936</v>
+        <v>47.80147714140896</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>-2.768215933512208</v>
+        <v>1.466440538568907</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.03036684870145</v>
+        <v>38.12805096788995</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>32.3712265399334</v>
+        <v>43.21349088231931</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>10.84389028837268</v>
+        <v>11.38348138356769</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>52.29108650855791</v>
+        <v>59.84774519134952</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>59.18059968788972</v>
+        <v>67.48844420886417</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>60.499886272291</v>
+        <v>64.82294503538472</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>71.86335341640212</v>
+        <v>75.72702984312639</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>76.20010583016112</v>
+        <v>80.32439271620291</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>12.66589998425412</v>
+        <v>17.94783887063729</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>60.69636949014973</v>
+        <v>65.09631834614522</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>64.01902042080327</v>
+        <v>66.76280106787254</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>11.07612563651241</v>
+        <v>8.304617371825721</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>14.80405368670552</v>
+        <v>16.10304800679138</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>18.17621256793845</v>
+        <v>18.47990097137339</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>2.3813951666961</v>
+        <v>0.5711481496399955</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>13.72226598419884</v>
+        <v>15.81934467765408</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.11487178716746</v>
+        <v>15.43758073257416</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.874308333242206</v>
+        <v>3.942068503290713</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.22709794731244</v>
+        <v>28.94917287301067</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.62227193520095</v>
+        <v>26.34819244190492</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31.08603430773592</v>
+        <v>21.77176962090983</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.77118335106983</v>
+        <v>27.61946457916849</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.78874274719721</v>
+        <v>27.73105721304145</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>7.835576070886281</v>
+        <v>9.516220741722654</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>15.18216043712995</v>
+        <v>22.39601599559914</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>18.53380825732373</v>
+        <v>22.36411861006871</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.730792774030563</v>
+        <v>4.245223204054021</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.93072677248631</v>
+        <v>14.31206221154579</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>17.76525149953416</v>
+        <v>21.96174258440897</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-4.971019441818688</v>
+        <v>-10.30824644738319</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>3.524949873612856</v>
+        <v>3.387180318305415</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>10.63456647217073</v>
+        <v>12.77647044372016</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-4.124710833836913</v>
+        <v>-8.186993915753948</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>15.82920922026351</v>
+        <v>13.19989758194235</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.77675057458103</v>
+        <v>24.87546994035431</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>21.3927705351831</v>
+        <v>15.57929959367443</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>18.74494710241552</v>
+        <v>22.61836401168359</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.43186058646079</v>
+        <v>27.29560336360588</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-0.3368514302023708</v>
+        <v>-4.244184000906163</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.19090955678198</v>
+        <v>19.17861361963558</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>19.98034636592992</v>
+        <v>25.09763505370085</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>12.5477335627052</v>
+        <v>10.52224430850579</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.31457573459622</v>
+        <v>30.58498375039425</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>30.22381317297657</v>
+        <v>36.90867707401683</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-4.568743280675141</v>
+        <v>-4.692416219488695</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>14.39034926095765</v>
+        <v>21.24570946231683</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>18.5344741442668</v>
+        <v>27.97475306917022</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.273876480984322</v>
+        <v>2.591891199327591</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>32.72930643804025</v>
+        <v>38.77596344945516</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.32936405235507</v>
+        <v>48.15226539531017</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>43.80575739865012</v>
+        <v>45.32281338471338</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>44.40794282231811</v>
+        <v>52.61576844075269</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.77766893112963</v>
+        <v>58.57658695933685</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>5.352369851269609</v>
+        <v>10.25696387148658</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.73071413618208</v>
+        <v>44.06221875734734</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>40.77424015313361</v>
+        <v>48.44234217469959</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2.791948167385582</v>
+        <v>7.325652857217971</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>0.1565070271281233</v>
+        <v>5.262747315653343</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>0.7157119207882214</v>
+        <v>7.096431666966545</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-3.991266847307136</v>
+        <v>-0.5474957421933695</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.93853456940221</v>
+        <v>-0.1474836882672754</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-2.847404431263078</v>
+        <v>-0.2692156373296584</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-5.452456612988369</v>
+        <v>0.1710182643657951</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>6.227430588856544</v>
+        <v>8.151117762446949</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.311330369896355</v>
+        <v>6.187272367254113</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>11.44971567061318</v>
+        <v>-1.03289910529427</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>3.904975426831106</v>
+        <v>1.078883682649316</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>2.366985632711783</v>
+        <v>5.623598065750301</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-2.143309091596356</v>
+        <v>8.501333469590708</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-5.625801238034713</v>
+        <v>8.827003803270401</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-6.722600689491562</v>
+        <v>5.346236612234996</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.496356160835271</v>
+        <v>3.041044545578121</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.957232635704523</v>
+        <v>7.408971901912409</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>8.282506228083564</v>
+        <v>11.81708228460906</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.498762737464416</v>
+        <v>-9.248721419994393</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-2.696770151669062</v>
+        <v>-3.726765759067934</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>2.226009430291862</v>
+        <v>2.091560590535067</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-6.407204893940195</v>
+        <v>-8.521221967956432</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>6.981070340077659</v>
+        <v>3.447513184333733</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>13.73882942118647</v>
+        <v>10.83939979198659</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.68841502120091</v>
+        <v>2.626078303968011</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.731973226768106</v>
+        <v>7.659191577926055</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>9.95741987952527</v>
+        <v>10.26010374780165</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-2.685742357887326</v>
+        <v>-6.951687035976395</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.600661970246891</v>
+        <v>7.323561347748086</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>5.92132316540309</v>
+        <v>8.506074265485196</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>14.34754461611636</v>
+        <v>11.1572540940257</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.48988879183208</v>
+        <v>23.40385219252973</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.04725673299985</v>
+        <v>28.97977267959807</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-3.927201030504909</v>
+        <v>-1.616492462050026</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>8.637513380134466</v>
+        <v>13.27560732649797</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>10.88809041861981</v>
+        <v>19.29794789870086</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>2.266467405307958</v>
+        <v>3.906394105589605</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.3314435761896</v>
+        <v>27.92514407189552</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.99864018288061</v>
+        <v>36.44006277257152</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>35.240138008937</v>
+        <v>32.71740809005962</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.31793603741618</v>
+        <v>39.09900052197863</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.94661935807663</v>
+        <v>43.94953861336123</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>4.461966996849776</v>
+        <v>14.00891683095192</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.52766011447016</v>
+        <v>31.54833696277108</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.79584618130528</v>
+        <v>34.66271476958038</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>10.59571156187403</v>
+        <v>13.53292721511838</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>16.04497320200744</v>
+        <v>24.30851484254215</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.90821332776869</v>
+        <v>31.39550209905541</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-4.102943387318012</v>
+        <v>-1.390857759083055</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>12.87307049435509</v>
+        <v>23.79524117704576</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>17.07080874746168</v>
+        <v>26.03858671271372</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>3.293813814281917</v>
+        <v>7.093776968605177</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.23265871287708</v>
+        <v>42.41464126024142</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.84374158443588</v>
+        <v>45.38974782078542</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>32.99180168496468</v>
+        <v>38.16552914824111</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>33.37816222897625</v>
+        <v>44.1561893459628</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>35.8023193502014</v>
+        <v>47.11647555658612</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>8.117607882531816</v>
+        <v>27.34674255101265</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>20.40047122171926</v>
+        <v>51.35618672602529</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.46687173378706</v>
+        <v>57.37273359572744</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.60054379583982</v>
+        <v>10.87005370505593</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.49135270819296</v>
+        <v>21.34689156468563</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.94716091282317</v>
+        <v>33.56984958399207</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-7.679945483207716</v>
+        <v>-6.261950210084269</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>8.729914205560606</v>
+        <v>6.139177077757562</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>19.28263489627649</v>
+        <v>19.91205986445662</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-2.247132622429872</v>
+        <v>-0.919887929649331</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.99793605794607</v>
+        <v>24.62484225877274</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.38295372586024</v>
+        <v>43.65108125487222</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.6380995874657</v>
+        <v>27.95858727598475</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.24798587065764</v>
+        <v>40.6091407475316</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>43.22249647577723</v>
+        <v>50.3757735756442</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>5.248450682883595</v>
+        <v>11.80198201553731</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>31.97160032102457</v>
+        <v>39.15804622571711</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>39.80968969865083</v>
+        <v>51.35168954709536</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>12.87421939023087</v>
+        <v>16.11286090073488</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.74254274049536</v>
+        <v>33.55509708390357</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>37.5105972020432</v>
+        <v>44.05464187645076</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-7.071428754283984</v>
+        <v>4.079063965687549</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.68872559812451</v>
+        <v>23.25156882776211</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.84596141570205</v>
+        <v>34.62744517144297</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>3.295168132393686</v>
+        <v>8.444118101098724</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.55483839256274</v>
+        <v>44.84679253479607</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>50.07750502328837</v>
+        <v>61.60208094850353</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>52.54495808974539</v>
+        <v>57.82742496700219</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>59.40902197158797</v>
+        <v>68.82354552116115</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>66.48706493866328</v>
+        <v>78.93796926110575</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>10.97579905145742</v>
+        <v>23.7780977565921</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>49.31347463558949</v>
+        <v>58.38728363487671</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>58.37751932596633</v>
+        <v>69.33206496870868</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>15.94675150831169</v>
+        <v>15.6405334829889</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.6906011082507</v>
+        <v>32.29421981262441</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>37.83204059426033</v>
+        <v>38.0691524514342</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>9.655588512245556</v>
+        <v>10.43312424410614</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.30999109469731</v>
+        <v>35.86639941405205</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.77151781761771</v>
+        <v>41.38710139878101</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>18.68045461211022</v>
+        <v>17.71176320352385</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>51.04970290903753</v>
+        <v>54.4595121448832</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>57.21285143745988</v>
+        <v>57.47138448563194</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>52.18948626663166</v>
+        <v>56.48681090420401</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>60.8106122319735</v>
+        <v>62.34319883284562</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>62.39744968735648</v>
+        <v>62.1137455346383</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>14.06822519353639</v>
+        <v>17.54949677980656</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.79591092885207</v>
+        <v>42.92888501308155</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>47.11206000579613</v>
+        <v>46.67281742575203</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>11.37976575308576</v>
+        <v>13.10604432380089</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.03924717761129</v>
+        <v>27.81094502885048</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.94523180217075</v>
+        <v>36.90170198398998</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>2.780286214086738</v>
+        <v>3.592709422887431</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.03481883283109</v>
+        <v>23.43968670636602</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.69141108168366</v>
+        <v>35.36779318496177</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>9.058012242148182</v>
+        <v>8.328433892180957</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>40.48021439733797</v>
+        <v>35.90776768313104</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>52.65203541747967</v>
+        <v>50.04577742974953</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.58785242718522</v>
+        <v>41.3286539051083</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>50.55302056453712</v>
+        <v>49.98662338400775</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>58.9561131425319</v>
+        <v>56.67442737507248</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>8.220408028309039</v>
+        <v>10.82915491659384</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.33907995736643</v>
+        <v>43.39838096039592</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.38510007219119</v>
+        <v>50.63452342960817</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>9.020739293625946</v>
+        <v>13.06949665879641</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.41210083678646</v>
+        <v>35.90864197630567</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>40.95007205166004</v>
+        <v>45.58628337961618</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-3.691116659827292</v>
+        <v>0.7126502718858951</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.29813531743083</v>
+        <v>30.32779241059415</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.39994847443726</v>
+        <v>41.99765421893326</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>7.282306223107911</v>
+        <v>9.047915075368801</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.81909531360079</v>
+        <v>48.51258640208988</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>58.70715976003358</v>
+        <v>63.0523859308617</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>54.36253699160651</v>
+        <v>53.03843701470417</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>64.07238379321397</v>
+        <v>63.80350432475961</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>77.12089204000013</v>
+        <v>76.01915417520539</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>6.941679625082267</v>
+        <v>8.711634519363356</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>51.81020486105559</v>
+        <v>53.08347269117122</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>65.18825694069098</v>
+        <v>62.54026983172399</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>11.51355424501336</v>
+        <v>9.190593170069626</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>27.1547394006925</v>
+        <v>26.22848784737421</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.10462949023184</v>
+        <v>36.37556649184111</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>3.795109502453494</v>
+        <v>3.15315108999221</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>33.46096882097768</v>
+        <v>39.08134419732568</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>38.31705713473266</v>
+        <v>44.1379555477028</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>14.48770508073988</v>
+        <v>11.57512639703488</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>51.80057526816953</v>
+        <v>60.14873670075821</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>58.01961240862143</v>
+        <v>65.08908854275732</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>48.72647574458605</v>
+        <v>59.41972408310085</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>56.33727413275621</v>
+        <v>62.75036283352483</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>59.41930287144763</v>
+        <v>62.31090089397865</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>10.10123606501813</v>
+        <v>13.35055689703677</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.1764665183165</v>
+        <v>36.17663211995924</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>46.59684677319599</v>
+        <v>49.89370182945202</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>11.97840361563438</v>
+        <v>10.63622983222323</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.61022132650204</v>
+        <v>30.11455435558422</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>39.4860729597106</v>
+        <v>41.18634412561337</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-3.451458616509745</v>
+        <v>1.200279786904765</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.11020593298407</v>
+        <v>26.37088751179259</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>33.4171692593112</v>
+        <v>40.04147770651647</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>4.884749959343148</v>
+        <v>3.411105049091468</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>44.05812857075018</v>
+        <v>43.54673166781319</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>53.42796167934167</v>
+        <v>60.77228800863824</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.8538938939545</v>
+        <v>46.0038372381584</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>54.98350431137659</v>
+        <v>59.41393019491395</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>61.26503221937605</v>
+        <v>68.58207004374593</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>7.704936902851566</v>
+        <v>11.54835654548546</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>48.59749049292174</v>
+        <v>51.33508780989236</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>54.05086650044036</v>
+        <v>61.80018834825155</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>8.79890733619324</v>
+        <v>11.48079344801934</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>33.9642822298379</v>
+        <v>35.90756208682366</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.29429050169747</v>
+        <v>46.34628611486588</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-6.303006710936918</v>
+        <v>3.345334832663422</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.59756970972312</v>
+        <v>32.45261142942564</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.84754150618014</v>
+        <v>44.41540474705984</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.853443707274389</v>
+        <v>5.833750826364835</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>50.26689044835621</v>
+        <v>53.43690144865974</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>60.0411921660656</v>
+        <v>70.55424262746804</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>60.78610662698413</v>
+        <v>65.80455307695651</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>73.00438373291347</v>
+        <v>79.46912429398424</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>78.19707191978689</v>
+        <v>87.20735811575034</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>10.31512175161344</v>
+        <v>12.41410784839717</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>60.80465592314227</v>
+        <v>61.40805293246011</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>67.64439781740919</v>
+        <v>70.33371081875065</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>20.48773557023611</v>
+        <v>15.26771387326325</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>30.67885163659677</v>
+        <v>27.01960393753395</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.8257130355931</v>
+        <v>36.50944684505485</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>15.08326650466336</v>
+        <v>15.63935171994207</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>37.53638962927811</v>
+        <v>46.19429361304788</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>42.54617509414079</v>
+        <v>49.20382188619128</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.37129719953296</v>
+        <v>19.24787368171557</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>52.55659332067845</v>
+        <v>59.70117755512319</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>58.60026568770642</v>
+        <v>64.08759925446375</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>48.8791660467674</v>
+        <v>55.42266800378002</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>52.95053373476376</v>
+        <v>57.47766833818044</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>56.32370088990981</v>
+        <v>59.03957080686396</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>20.54632926708397</v>
+        <v>21.27319647449984</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>39.00763174869167</v>
+        <v>37.91473710399472</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>48.3433384013746</v>
+        <v>50.11047262629754</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>21.98823631023289</v>
+        <v>19.48851776190433</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>37.94456893178961</v>
+        <v>34.00181450577848</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>44.036917627977</v>
+        <v>43.70927720252558</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>11.54264867703621</v>
+        <v>29.13567369889766</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>33.03360070879681</v>
+        <v>46.21092335221148</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>42.34338966815269</v>
+        <v>58.63618071070974</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>15.83548749574488</v>
+        <v>16.14309414256177</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>47.90846595576458</v>
+        <v>49.4759089014354</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>57.82639318819154</v>
+        <v>65.16191363456154</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>46.18151021681593</v>
+        <v>49.97093335254283</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>54.90198626779544</v>
+        <v>58.96879005124369</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>61.91668189241162</v>
+        <v>67.74241135773264</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>18.4277505807289</v>
+        <v>21.44108966737527</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>50.50868075801051</v>
+        <v>52.09831273607868</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>56.89458182340157</v>
+        <v>61.67501566189982</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.37470280974375</v>
+        <v>20.20903664514162</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>39.70381156197526</v>
+        <v>39.77309884348364</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>45.88536413704009</v>
+        <v>47.077878061413</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>8.7375750825874</v>
+        <v>31.08225635626858</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>35.41947839883316</v>
+        <v>51.59645523969412</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>43.28108464625556</v>
+        <v>60.2069136393024</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>17.48628781223826</v>
+        <v>20.10106830753774</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>54.66118395180627</v>
+        <v>60.95732973456478</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.60646899588485</v>
+        <v>74.14341692004432</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>64.37781523259606</v>
+        <v>70.19397425364792</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>73.38130602780424</v>
+        <v>76.3034276710476</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>79.10578396876697</v>
+        <v>86.82830422424146</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>21.55061249298431</v>
+        <v>25.12902905524855</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.40723448706481</v>
+        <v>62.91820178983791</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>69.72907700611934</v>
+        <v>70.79019887866231</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>9.759257660158168</v>
+        <v>12.23030051930189</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.00395098146362</v>
+        <v>26.24978192554278</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.97319194943739</v>
+        <v>34.7588531286725</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.05918060065414998</v>
+        <v>0.6490253721275003</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.8278239451053</v>
+        <v>23.61212540289034</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.64167838839474</v>
+        <v>32.81559868917743</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>10.56543790220129</v>
+        <v>13.05681571742886</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>45.75527752175802</v>
+        <v>49.79463278309063</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>51.37620102533739</v>
+        <v>54.95688323765717</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>48.19575029416549</v>
+        <v>56.1604059508354</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>56.76513489000874</v>
+        <v>56.68682261571381</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>56.03332993242074</v>
+        <v>58.59282094069388</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>5.90484118272415</v>
+        <v>11.24791504679573</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>35.18381343003969</v>
+        <v>36.11273753940178</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.64705353970805</v>
+        <v>43.48093249658663</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>9.593930183150563</v>
+        <v>11.63274999931409</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.06419507721667</v>
+        <v>27.7564209927362</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>37.19579842918353</v>
+        <v>37.54493430432785</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-4.036769188963261</v>
+        <v>-1.364286268775853</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>20.05226543823192</v>
+        <v>20.3327355664393</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.81826932977887</v>
+        <v>32.84252641548962</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>3.870589168511559</v>
+        <v>5.289756423730754</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>39.10178400567222</v>
+        <v>36.96880425233335</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>50.4342306384079</v>
+        <v>52.1186726123939</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>42.57678255654786</v>
+        <v>42.16276148586105</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>52.45434600928695</v>
+        <v>50.34675087304745</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>58.2304642330701</v>
+        <v>57.67011276494701</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>4.653301785063151</v>
+        <v>7.213352126031118</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>43.28743233977686</v>
+        <v>40.31116046013582</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.85779244124009</v>
+        <v>50.11971999576666</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>6.516851484116438</v>
+        <v>11.86854552559476</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>30.49124897191894</v>
+        <v>35.15424684093595</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>39.7315590939424</v>
+        <v>46.60912214219798</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-9.457372566896657</v>
+        <v>-2.859199299463935</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>20.72243816926133</v>
+        <v>26.79729819269638</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>31.46555790278254</v>
+        <v>40.47570239881357</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.978343486257254</v>
+        <v>5.713336009877093</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.8439611269927</v>
+        <v>47.98093792235761</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>57.46670432071083</v>
+        <v>65.4040871825534</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>56.61185997766561</v>
+        <v>57.30159681478534</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>67.76474808476837</v>
+        <v>68.81767180674298</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>78.02577487879236</v>
+        <v>80.87717512364966</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>4.738109319696372</v>
+        <v>7.666190783835695</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>53.4426212758728</v>
+        <v>54.14776037669185</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>65.19596383692263</v>
+        <v>65.01107536002094</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>9.552819392433397</v>
+        <v>8.467769220472569</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>12.41595736163708</v>
+        <v>14.83666146082518</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>15.94409932378943</v>
+        <v>20.90467866335444</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-3.630413864596351</v>
+        <v>-1.658540284341676</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>9.317785724347088</v>
+        <v>14.79146249705774</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>11.37286561617954</v>
+        <v>17.56687791303778</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>2.651472847039377</v>
+        <v>2.879614006991961</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.08216449252666</v>
+        <v>27.68684899829509</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>27.61920765580412</v>
+        <v>30.47500220787774</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.31220210279461</v>
+        <v>27.30478561139714</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.02453917072673</v>
+        <v>30.77543943167572</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.32068003509488</v>
+        <v>33.17106284986556</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>5.01727556294855</v>
+        <v>10.10789779169057</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.29505503453779</v>
+        <v>21.51370623889209</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>17.54146022317821</v>
+        <v>27.95764418836917</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>11.41455258284931</v>
+        <v>12.29438302780365</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.1250448754534</v>
+        <v>21.13523225733602</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.9038359175559</v>
+        <v>33.52153424961696</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-3.698381447480804</v>
+        <v>0.6501423731958802</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>9.712484973577128</v>
+        <v>11.90826005650163</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.97504583782518</v>
+        <v>27.23307613023647</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1.339187730610009</v>
+        <v>4.774411090934173</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.75809168027098</v>
+        <v>25.48266431869547</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>37.63560564164784</v>
+        <v>44.30084688441184</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.24830973768803</v>
+        <v>27.60337520618883</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>33.52230145030489</v>
+        <v>38.00849934474563</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>44.39153541117956</v>
+        <v>51.28122696093335</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>5.588740557659635</v>
+        <v>7.496154015065731</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.42150958493234</v>
+        <v>30.36942870730313</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.3870310810855</v>
+        <v>46.2353526220847</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>13.78945369551485</v>
+        <v>12.25242407729785</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.97164965172135</v>
+        <v>26.78390926008043</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>37.73190706812919</v>
+        <v>39.83602020877994</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-3.557596111220759</v>
+        <v>1.05797550553828</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>16.47608256186684</v>
+        <v>18.03110093541013</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.48305122704517</v>
+        <v>34.19425624791376</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>4.973546204991083</v>
+        <v>5.583089630559279</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.73036927714871</v>
+        <v>35.06983020282555</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>49.54234750532181</v>
+        <v>54.80550145179917</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>46.36993430173797</v>
+        <v>43.91821498275083</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>50.84485309205126</v>
+        <v>52.83877186585963</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>62.68958461528015</v>
+        <v>69.17111585962726</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>5.622225315992695</v>
+        <v>6.893421360198627</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.85522102238291</v>
+        <v>35.71320256616656</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>52.17455657593521</v>
+        <v>59.01347088758976</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>14.32602411767913</v>
+        <v>10.06912054198903</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.91764065614569</v>
+        <v>20.3344488957198</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.88211239505431</v>
+        <v>27.61486489553741</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>5.046344775976079</v>
+        <v>1.660139182759451</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.57333127311784</v>
+        <v>29.76410677049035</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.63811508322613</v>
+        <v>29.7936677901466</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>12.499027805287</v>
+        <v>7.307758355063399</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>40.81075024518699</v>
+        <v>44.34175809501139</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>47.77790656999771</v>
+        <v>46.43200370544376</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>38.34492729151279</v>
+        <v>39.66169930490572</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.22334173987268</v>
+        <v>44.1140540830601</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.04093851485406</v>
+        <v>46.04018694768156</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>12.54724616916295</v>
+        <v>15.66899028049167</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.94675476306656</v>
+        <v>36.17485295081751</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>39.7476729070987</v>
+        <v>42.54108261252939</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.79274752236139</v>
+        <v>11.28555614679613</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.77635322517974</v>
+        <v>24.02000665803696</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.63103356143316</v>
+        <v>35.6359253354137</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-0.7906642220253826</v>
+        <v>8.650598691558381</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>18.34594449164985</v>
+        <v>23.55105384172328</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.72168777531612</v>
+        <v>38.23245477146077</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>3.50175581076453</v>
+        <v>2.540979206617262</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.30355091297819</v>
+        <v>32.52252905208722</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>45.03909819721526</v>
+        <v>50.86072780440786</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.32148992125455</v>
+        <v>33.31832407021223</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>39.51049878765789</v>
+        <v>43.8648833293212</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>48.91417433990731</v>
+        <v>57.23462591110787</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.677460013414555</v>
+        <v>8.195329239932891</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.01596854070792</v>
+        <v>38.53921176671371</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.15292613774403</v>
+        <v>50.83091429763905</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>10.10114548322197</v>
+        <v>9.991176557408442</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.59621821552867</v>
+        <v>28.83405883276478</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.54023675416965</v>
+        <v>36.61047712664207</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-4.169482298246775</v>
+        <v>7.744556714657584</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>20.30572398173164</v>
+        <v>27.85510493794107</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.20592426310762</v>
+        <v>36.77653755316507</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>4.255490612617246</v>
+        <v>3.2974870809057</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>39.29657305727732</v>
+        <v>42.46187771339242</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>51.02501564654535</v>
+        <v>56.06757019857582</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>49.2805316527496</v>
+        <v>49.78512058367201</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>56.74456802125852</v>
+        <v>55.57896727270284</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>64.88787293524757</v>
+        <v>69.55399315026676</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>8.355801451973564</v>
+        <v>6.468807886087149</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>46.50841021474097</v>
+        <v>43.86678016626509</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>56.55108569696245</v>
+        <v>54.53380969004807</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>19.01739444609272</v>
+        <v>14.3509137874923</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.79494004394937</v>
+        <v>29.32243819955712</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.24538310220898</v>
+        <v>40.03197512555817</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>13.90742447275694</v>
+        <v>10.71626087774551</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>38.68269194702861</v>
+        <v>40.04899190336727</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>42.6763224848884</v>
+        <v>49.045816496046</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>22.33583632982814</v>
+        <v>18.43309664828529</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.87057705443229</v>
+        <v>59.26629910471763</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>60.47393932751298</v>
+        <v>65.9543464235112</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>52.85811649407102</v>
+        <v>57.65115365665639</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>57.93971603660484</v>
+        <v>57.66376436132786</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>60.41546501827184</v>
+        <v>60.12032000292984</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>18.38037723673648</v>
+        <v>18.31376321027093</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.18466153091688</v>
+        <v>26.38862446205084</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>48.76020576682477</v>
+        <v>62.15414394272695</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>17.63879363750114</v>
+        <v>18.10616144717666</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>34.08506972670574</v>
+        <v>33.630688898682</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.71902314316068</v>
+        <v>41.73724529320718</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.840377124258994</v>
+        <v>10.82499975390283</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.37530391551549</v>
+        <v>32.24500044888514</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.82562327331598</v>
+        <v>42.23006751879102</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>12.9903843622216</v>
+        <v>12.83056876962682</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>47.14411991240791</v>
+        <v>45.00335309140701</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>55.98662076596722</v>
+        <v>57.34588310589298</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>47.35121353763322</v>
+        <v>46.69741825449305</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>56.04250038275067</v>
+        <v>53.78877478185845</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>60.80456365042674</v>
+        <v>59.52570987748774</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>15.67652831317189</v>
+        <v>18.22886093962225</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>49.42852880703249</v>
+        <v>47.54851602366968</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>54.91450040789877</v>
+        <v>59.99697127663272</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>13.97876625871099</v>
+        <v>18.24021865071589</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.11794009399096</v>
+        <v>40.64840932120697</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>40.67748531672711</v>
+        <v>47.45683507626367</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>1.291694447140687</v>
+        <v>9.191184623611816</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>31.89281074099019</v>
+        <v>37.49872891698238</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.4685284741153</v>
+        <v>46.2236843954378</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.9470402191967</v>
+        <v>14.39465102474689</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>53.89521352324314</v>
+        <v>56.95428280959766</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>62.36894354196632</v>
+        <v>67.82246670908803</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>63.24373064857921</v>
+        <v>68.17661458981539</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>72.49846044099569</v>
+        <v>73.3483494021386</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>76.06650615483831</v>
+        <v>83.23098119072903</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>14.26753765778042</v>
+        <v>19.56579778195806</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>59.81215510810919</v>
+        <v>59.11404842798656</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>65.56045435430526</v>
+        <v>72.38050917925715</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>10.04953917022756</v>
+        <v>10.50110767791464</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.62626166837423</v>
+        <v>24.70214420279689</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.30504465315367</v>
+        <v>32.09185845965506</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1.05023052234924</v>
+        <v>1.077604541553388</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.97791588324719</v>
+        <v>26.16515726679572</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.52850822654501</v>
+        <v>31.93194018113916</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>11.61317847258027</v>
+        <v>10.74179058780519</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>47.74859402620583</v>
+        <v>48.44172715042829</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>53.02381976435545</v>
+        <v>51.84219826765226</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>50.07050312568514</v>
+        <v>51.8614016948339</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>58.06481694475244</v>
+        <v>57.25889712662344</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>57.54481702035774</v>
+        <v>54.74299826444057</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>5.989625435450856</v>
+        <v>10.88479300336944</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>35.66666487787359</v>
+        <v>34.16266705764091</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.48861034026474</v>
+        <v>40.27555670940869</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>11.67933990232422</v>
+        <v>12.70185375687709</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.03423492674931</v>
+        <v>29.90873067888699</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>38.72783183288898</v>
+        <v>38.56585450122607</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-1.759882845332312</v>
+        <v>1.055320746724245</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>22.80876689819846</v>
+        <v>24.36515663187372</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.22870612451239</v>
+        <v>35.11475523706619</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>6.525552669240811</v>
+        <v>7.041867506767343</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>42.19301813419857</v>
+        <v>40.48693881264271</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>53.02966195866147</v>
+        <v>54.06287674411304</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>45.55397718338538</v>
+        <v>44.7923812827608</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>54.37330046931374</v>
+        <v>54.88601962067651</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>60.36162871427201</v>
+        <v>61.02818176385594</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>6.403676458983663</v>
+        <v>10.84376678520914</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.98225977202234</v>
+        <v>48.11723409295817</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.2432885295845</v>
+        <v>53.5694612619186</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>8.181281387378791</v>
+        <v>11.04882302252036</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.43834152601416</v>
+        <v>32.95108659952168</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>39.61178918652195</v>
+        <v>44.63504345727944</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-9.472815123805516</v>
+        <v>-2.182791302221386</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>19.00230816506237</v>
+        <v>25.53197528695035</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.81442679201588</v>
+        <v>39.47817980923159</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>2.958894466511063</v>
+        <v>4.200187943820406</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>42.38623928483219</v>
+        <v>44.74578003579697</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>55.8730578298447</v>
+        <v>62.63254767159539</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>55.4208689456956</v>
+        <v>57.15444429467671</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>63.53935310268377</v>
+        <v>67.55552454630893</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>73.81398447787282</v>
+        <v>79.26148987255826</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>2.528515318664413</v>
+        <v>7.270085167198378</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>48.28112704314928</v>
+        <v>51.89039118875137</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>60.17347377392847</v>
+        <v>63.05896531773197</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.249</v>
+        <v>16.375</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.754</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.965</v>
+        <v>12.861</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.926</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.21</v>
+        <v>3.926</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.593837899342741</v>
+        <v>8.120358356035879</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.44454912104782</v>
+        <v>11.15655377136761</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>18.68220047115371</v>
+        <v>15.39254668400041</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-8.978826909240542</v>
+        <v>-3.233113673393991</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.91227547447811</v>
+        <v>10.86947936825298</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.49930602252025</v>
+        <v>15.27676133430402</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-4.608450561292642</v>
+        <v>0.1727673726674332</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.81269785520431</v>
+        <v>22.94141908567068</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.73195857560454</v>
+        <v>26.00082305484318</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.51764020244052</v>
+        <v>23.88705661219119</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.63635879672641</v>
+        <v>27.79542281775078</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33.45377148013819</v>
+        <v>32.68256295533217</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.776286080355636</v>
+        <v>5.134327812338846</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>21.18214436045174</v>
+        <v>16.96244113422173</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.45135719793333</v>
+        <v>19.36391717023645</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.9755445997285</v>
+        <v>10.08283183103754</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.44308757604323</v>
+        <v>26.2733320954333</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>39.31382010538928</v>
+        <v>38.82969745607232</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.120557795535667</v>
+        <v>-2.917563861264334</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.3036984669575</v>
+        <v>13.25032829085507</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.64190531976093</v>
+        <v>35.02170412964013</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.28092514706913</v>
+        <v>-1.07841620969651</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.2415786920879</v>
+        <v>27.41110209478868</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>55.3299784487527</v>
+        <v>56.18408726626232</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.84965396743606</v>
+        <v>32.59757912801884</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>52.2707606974338</v>
+        <v>53.38097089886583</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>68.30846599723563</v>
+        <v>73.63818884620929</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11.39871776238502</v>
+        <v>5.96066871790422</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>44.25942062004199</v>
+        <v>45.76849246457446</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>60.10255332278508</v>
+        <v>63.49901236959918</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>12.94693363747817</v>
+        <v>14.30930607315012</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.98879093082809</v>
+        <v>34.53419475156318</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.72840104681939</v>
+        <v>43.19311135105852</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.410632143195212</v>
+        <v>2.228989197740574</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>27.99349081138404</v>
+        <v>29.10006000999251</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38.81970322727717</v>
+        <v>38.75755563635884</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.297745440871196</v>
+        <v>3.676819665057163</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.84677588405774</v>
+        <v>49.46123428718628</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>63.10934626634429</v>
+        <v>62.58902742016695</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>59.94184212196917</v>
+        <v>61.25024963467783</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>73.29538729732</v>
+        <v>77.97676439102857</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>84.26431428044982</v>
+        <v>84.32937337994656</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>17.30742646548978</v>
+        <v>16.36098802641934</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>59.78722997707123</v>
+        <v>66.04657569688314</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>68.75966750495435</v>
+        <v>71.80962382514249</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.391006637552362</v>
+        <v>5.95529585904805</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.95609914518352</v>
+        <v>30.35177850283169</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>37.30610354462898</v>
+        <v>38.10657052357463</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.71433403610629</v>
+        <v>0.7641335029891785</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>41.42209666488191</v>
+        <v>42.01337844124328</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>46.41006999134665</v>
+        <v>43.93920867425808</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>11.06720963198242</v>
+        <v>6.435684367453103</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>61.83803040230804</v>
+        <v>66.3577912657087</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>63.97340322154002</v>
+        <v>66.71815354628839</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>57.48513124873703</v>
+        <v>61.83323590006269</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>70.78284255722761</v>
+        <v>75.99515261090662</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>66.2857951052306</v>
+        <v>64.83278753900893</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.02863490419252</v>
+        <v>8.075396935635521</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>41.55217471705976</v>
+        <v>45.10738434271548</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>48.82095925694576</v>
+        <v>51.52307586064923</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>10.03102851840466</v>
+        <v>8.754989162040427</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.01166697545956</v>
+        <v>33.82709262776524</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.00108476861264</v>
+        <v>40.95048610619986</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-1.941637542379294</v>
+        <v>-4.480176351106493</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.65246967348373</v>
+        <v>24.71408172039317</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>41.21540760113731</v>
+        <v>38.10248346695465</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.614109501141559</v>
+        <v>-0.3580095848670624</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>46.35654301564138</v>
+        <v>45.50490212817175</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>59.69253402916647</v>
+        <v>61.46995281257768</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>48.65545693830124</v>
+        <v>51.33348613448281</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>62.02987923460699</v>
+        <v>65.83532145519564</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>68.83710370449514</v>
+        <v>74.26861920713726</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10.79034247275817</v>
+        <v>6.257622170123746</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>54.85353566564467</v>
+        <v>58.7819349663399</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>62.17085285425391</v>
+        <v>63.25369625244243</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11.86599963742771</v>
+        <v>9.392569297559877</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.73307734745948</v>
+        <v>36.42766665397156</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>52.55990831003042</v>
+        <v>46.21959323869108</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-2.890307085393971</v>
+        <v>-2.304613387001705</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>38.02280099797194</v>
+        <v>35.04674540860297</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>49.41650002024328</v>
+        <v>45.14192190921558</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>8.115963275084825</v>
+        <v>4.084316610990321</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>61.12433665533071</v>
+        <v>59.82665403286649</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>75.64862622167898</v>
+        <v>76.69882940701831</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>66.01663637511218</v>
+        <v>69.61031830116342</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>80.92330767163111</v>
+        <v>84.69581316014174</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>88.30696819144406</v>
+        <v>93.42513283250776</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>9.768905525491261</v>
+        <v>6.542107020149853</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>67.31396370937338</v>
+        <v>71.32990940944501</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>74.37668606410178</v>
+        <v>77.86959503855019</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>8.9230415697455</v>
+        <v>11.11195858906735</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>27.75192415299677</v>
+        <v>29.60972585831102</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.51177284849127</v>
+        <v>34.82879490193806</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.145376121706708</v>
+        <v>1.166311711943997</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>35.86303170428082</v>
+        <v>36.60346138751954</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.50571560779694</v>
+        <v>36.41777466813136</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.78870357002914</v>
+        <v>6.55607215147057</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>56.16711495254424</v>
+        <v>61.04649062662864</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>53.1300971815899</v>
+        <v>57.13233465895365</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>45.37924397119984</v>
+        <v>52.45781468185845</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>56.07917970628395</v>
+        <v>61.48351528160129</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>53.79926801545032</v>
+        <v>58.19892922889983</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>12.0829227339074</v>
+        <v>10.12618328542951</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.81005797879813</v>
+        <v>37.6152297487982</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.57260668261737</v>
+        <v>41.7952708602235</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.37294893606222</v>
+        <v>18.57028416660796</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.6897418809027</v>
+        <v>42.22176556323598</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.5107707382021</v>
+        <v>45.07862959020981</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2.531815271043229</v>
+        <v>0.1296806506938459</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>34.92861693579623</v>
+        <v>33.01981631319149</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>42.09555605381821</v>
+        <v>39.52159112313326</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.375695427670427</v>
+        <v>5.074295036565129</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>51.99172710697142</v>
+        <v>56.78354263326804</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>60.72893453112927</v>
+        <v>63.79661501553608</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.06747008292812</v>
+        <v>58.96070827968099</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>65.15636451504709</v>
+        <v>70.43524352601116</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>69.51062132029459</v>
+        <v>74.56491067551936</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.71162417460277</v>
+        <v>15.40944030217739</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>58.73632184894338</v>
+        <v>63.99852191926264</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>61.77473640810933</v>
+        <v>63.01092733317351</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>12.82547762229877</v>
+        <v>17.62747646459957</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>44.94792148274917</v>
+        <v>43.63184019847805</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>52.45581288094603</v>
+        <v>50.25018686772145</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-2.671388078641318</v>
+        <v>0.3106401421688751</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>40.13590109401181</v>
+        <v>41.71500514140646</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>48.39468475128237</v>
+        <v>44.81538569180928</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.808415613017882</v>
+        <v>4.794405454856062</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>63.17578072196646</v>
+        <v>66.51258347724894</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>74.22770175379233</v>
+        <v>75.605464613905</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>70.06324574740096</v>
+        <v>76.12873470444235</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>82.37314832850166</v>
+        <v>83.89803096472434</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>87.83331717781098</v>
+        <v>93.44079544846861</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>12.03206616993769</v>
+        <v>15.9686369420388</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>68.82271849124162</v>
+        <v>74.05886391056438</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>74.33419735362517</v>
+        <v>79.17395269867654</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9.862925466152397</v>
+        <v>10.89058691365002</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>14.73134668788996</v>
+        <v>13.8089820018943</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>21.11511507389658</v>
+        <v>17.82549408492545</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.3504344390205745</v>
+        <v>0.882048361177258</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>17.88430468933049</v>
+        <v>13.17421886016748</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>17.94376633079302</v>
+        <v>13.85667821779673</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3.194022299776318</v>
+        <v>4.450402834871038</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>31.28259521283431</v>
+        <v>26.59791135938822</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.45428623946074</v>
+        <v>27.64338434811009</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.34632640088156</v>
+        <v>24.18173199630197</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32.06464273219125</v>
+        <v>26.79048351290763</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>37.49904717407047</v>
+        <v>35.1474369270617</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.29067525107932</v>
+        <v>63.50448564661573</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>55.35702126019461</v>
+        <v>64.27684012833777</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>55.59732522313037</v>
+        <v>61.05998520350213</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>14.8078821186915</v>
+        <v>8.958897265859619</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.87882590642442</v>
+        <v>24.67483702654656</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.39935739550521</v>
+        <v>37.85762126556235</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>5.737230301478835</v>
+        <v>-1.458563841448033</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>16.99756520694165</v>
+        <v>12.25157068516794</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.56944061617919</v>
+        <v>29.83290865923601</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>32.65158755649312</v>
+        <v>31.46560671167281</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>53.30269031797873</v>
+        <v>59.08025873640592</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.4339431227056</v>
+        <v>30.75334532797757</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>42.41281673084675</v>
+        <v>47.95469823037418</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>60.32423139975012</v>
+        <v>70.18901677052337</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>13.33902943496178</v>
+        <v>7.468335904528903</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>42.21712720166943</v>
+        <v>45.18680727687654</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>52.18528880871239</v>
+        <v>54.68735890089201</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14.86645464373375</v>
+        <v>19.53359791937307</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.27391087498165</v>
+        <v>32.90468856198365</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>41.52594069228733</v>
+        <v>44.4357308844771</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>7.92413342724927</v>
+        <v>3.428162436772663</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>23.7123063344325</v>
+        <v>19.4264205378252</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.50768907323197</v>
+        <v>30.94986718697717</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>8.937479946203947</v>
+        <v>8.899758486879385</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>42.8390821846004</v>
+        <v>43.3446892387509</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>61.12752302607851</v>
+        <v>63.56789777777482</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>49.9220958886317</v>
+        <v>44.412383516416</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>62.81929261439714</v>
+        <v>63.75517570828703</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>77.57478195288344</v>
+        <v>81.03254133878232</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>22.34518019598907</v>
+        <v>25.81255762366679</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.07596483478208</v>
+        <v>60.7153843929205</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>63.71591074762364</v>
+        <v>67.69006039105935</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>11.08530283845307</v>
+        <v>7.701826665220075</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.5666386315398</v>
+        <v>22.94511603963448</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.2549020683912</v>
+        <v>31.03452469375954</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>4.640359780854784</v>
+        <v>2.884783962574637</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.37101497474681</v>
+        <v>33.4290855239337</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>35.20996642370957</v>
+        <v>38.32143916164018</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>14.06150709593334</v>
+        <v>8.566819200380518</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>55.02163067969343</v>
+        <v>61.96647835084502</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>57.2793588181427</v>
+        <v>62.74586747685728</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.40815329812693</v>
+        <v>53.70351369609531</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>52.0976656954872</v>
+        <v>65.58425340078392</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>53.68072138461322</v>
+        <v>66.22394679048409</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>11.7215932880361</v>
+        <v>8.184658309567858</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.73708003103855</v>
+        <v>10.25332686529175</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.41544829785801</v>
+        <v>10.89338436182663</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>17.2815919088825</v>
+        <v>20.38799517215497</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>38.26241784398549</v>
+        <v>41.25470169082905</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>44.81332202760432</v>
+        <v>42.6755220465603</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>10.62823681187829</v>
+        <v>5.590066384268276</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>37.38385733995634</v>
+        <v>35.71512155963306</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>46.02323870998335</v>
+        <v>42.47108654275713</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>56.63173236245036</v>
+        <v>60.6467301365454</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>67.65497982364248</v>
+        <v>67.09377308179222</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>61.06508557941267</v>
+        <v>65.39575536939293</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>71.73211780437556</v>
+        <v>76.41461090220139</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>80.79449306878648</v>
+        <v>81.93682098849747</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.47008892700127</v>
+        <v>32.49005540514115</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>66.00375836105242</v>
+        <v>68.82208003194449</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>67.89361627320172</v>
+        <v>69.55597452587739</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>17.5376026916411</v>
+        <v>21.21383985032978</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>39.55131266793105</v>
+        <v>40.11154358480445</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.64549465429879</v>
+        <v>48.27681841681584</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>9.991988050195248</v>
+        <v>4.502761486961056</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>35.42334293522684</v>
+        <v>32.28865329426942</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>45.90025977495633</v>
+        <v>41.68630374538257</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>14.33477949650592</v>
+        <v>10.79550393611296</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>58.79155889085924</v>
+        <v>61.23658469646723</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>74.26071068772224</v>
+        <v>75.17946793773999</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>70.56201799188116</v>
+        <v>73.24206680575023</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>83.83360289562204</v>
+        <v>85.04771841370206</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>91.53772800224718</v>
+        <v>87.30428107985644</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.32470305953131</v>
+        <v>32.74530057534605</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>67.91527710943433</v>
+        <v>71.3870307534595</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>72.50829509802389</v>
+        <v>73.27601751335607</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>5.416183336612853</v>
+        <v>3.010971466298844</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>23.42227423578208</v>
+        <v>18.39151730300159</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.3127130549243</v>
+        <v>30.12651808506666</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>7.735198255168616</v>
+        <v>3.146737450107825</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>39.32691858922541</v>
+        <v>38.23479844730655</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>40.28383468977258</v>
+        <v>39.04273301644294</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>15.8447798659349</v>
+        <v>10.33110414639653</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>61.32968193664695</v>
+        <v>64.7079583017574</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>60.48698094663995</v>
+        <v>64.32195470376521</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>51.44112170814198</v>
+        <v>53.82226718482123</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>64.40409146845012</v>
+        <v>66.76985719687838</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>63.81882962946707</v>
+        <v>69.46032705667295</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>3.162772094651686</v>
+        <v>4.756901626021286</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>8.576328458358962</v>
+        <v>6.543358014677128</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>10.13313849261543</v>
+        <v>7.092613626194677</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.27398761851099</v>
+        <v>13.82531183612422</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>41.33804390705252</v>
+        <v>43.88585868777162</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>43.46239282578465</v>
+        <v>45.06047502695657</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-0.008228608067639698</v>
+        <v>-0.506935172773634</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>42.34669800028396</v>
+        <v>40.89471412295732</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>44.88485420873341</v>
+        <v>45.4329063848763</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>8.534321038511905</v>
+        <v>4.726577570737824</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>62.26090939900246</v>
+        <v>66.99960304664623</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>65.0689149523821</v>
+        <v>70.4915559297724</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>52.2831647221852</v>
+        <v>53.43750309904125</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>69.99912391508231</v>
+        <v>70.13927477368679</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>74.89583101636261</v>
+        <v>80.08086522043688</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.30464181592043</v>
+        <v>17.60613245996783</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>67.9855382936644</v>
+        <v>69.44949919999155</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>68.56792096063955</v>
+        <v>72.04281035105811</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>13.74862259347648</v>
+        <v>16.04052056331786</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.6005586777947194</v>
+        <v>0.1849010444646098</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>41.48578801784139</v>
+        <v>39.73735227215523</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>47.4539362550863</v>
+        <v>43.47618493106195</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>11.87544275086556</v>
+        <v>8.628824055524127</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>65.05367462998619</v>
+        <v>67.09571229159985</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>73.66026500728788</v>
+        <v>74.16478560718345</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>68.87583972915483</v>
+        <v>72.58862312832829</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>85.36432363747059</v>
+        <v>83.79555187580064</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>88.26525129162282</v>
+        <v>87.93311507639717</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>19.96293673609025</v>
+        <v>16.43671371863592</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>72.97404269614438</v>
+        <v>76.3155564563308</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>74.55937683826522</v>
+        <v>79.16237353106837</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>1.355013443093348</v>
+        <v>4.62959999058678</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.621717179819061</v>
+        <v>7.931643704304658</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>13.65763976514903</v>
+        <v>8.858474666002373</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-7.53418738723887</v>
+        <v>-1.747176296970043</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.09604650329716</v>
+        <v>11.11321839322471</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>10.88122923213287</v>
+        <v>11.16250243258667</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-4.50498896914544</v>
+        <v>0.1364810113692805</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.81188853522805</v>
+        <v>19.11436243718916</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.67990331825519</v>
+        <v>18.89025763585856</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>20.55246489750871</v>
+        <v>21.68763993260243</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.70197436265374</v>
+        <v>26.77911343404375</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.24770501751115</v>
+        <v>29.92657626880949</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>1.394244151159651</v>
+        <v>3.842893937732576</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.18244965743161</v>
+        <v>7.755190179022797</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>16.76370332630325</v>
+        <v>9.928899301901321</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>11.16797519798185</v>
+        <v>8.526173988813106</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.57651011616951</v>
+        <v>23.87110805960146</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>35.86982710943876</v>
+        <v>33.57560063949399</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-4.861196624697712</v>
+        <v>-2.427570044972054</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>12.95433725205446</v>
+        <v>15.62021695965935</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.3715053725463</v>
+        <v>30.18389298195327</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>4.213269840851069</v>
+        <v>7.653068962301148</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.78030903713688</v>
+        <v>31.9826687319705</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>47.79442396045765</v>
+        <v>52.23467390270079</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.85496873014795</v>
+        <v>34.01313877709967</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>43.75601177430862</v>
+        <v>50.00478240268485</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>54.07156570100319</v>
+        <v>56.96048725019959</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>7.83436189001031</v>
+        <v>8.053842208514951</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>37.57185388355903</v>
+        <v>42.0322837430233</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.33863263482602</v>
+        <v>51.12148816958242</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>12.89569281350977</v>
+        <v>9.457827240490751</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>35.20426531415171</v>
+        <v>30.42099980365593</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>44.01385533677873</v>
+        <v>38.47902257028266</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-2.798571279484538</v>
+        <v>-1.341182738734002</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.00787284528373</v>
+        <v>30.34809926837708</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.75465006736875</v>
+        <v>36.86782881003558</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>7.608951217666867</v>
+        <v>4.982096185329222</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.849342950088</v>
+        <v>49.58737906836275</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>60.54691849656038</v>
+        <v>59.82201683282182</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>57.60370629011857</v>
+        <v>62.55114100894617</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>69.27051685968209</v>
+        <v>74.24361786826219</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>78.82578908032406</v>
+        <v>78.88297344918126</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>14.11527677625598</v>
+        <v>10.54425422522427</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>58.78489950205466</v>
+        <v>61.57274168690262</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>69.83957218086391</v>
+        <v>73.06067349331636</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-0.3577558058384867</v>
+        <v>2.734947145421636</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>3.112467950829458</v>
+        <v>7.453797816938501</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>9.35547289619004</v>
+        <v>9.953559131526371</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-9.273358105085268</v>
+        <v>-3.523808057061579</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>6.17802002095689</v>
+        <v>6.214201615917407</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>6.83592255942229</v>
+        <v>9.529248689216296</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-7.56200234284206</v>
+        <v>-3.20899837417414</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>19.17529583778141</v>
+        <v>15.72293081133601</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.68721423719803</v>
+        <v>14.97723349346913</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.81609987668926</v>
+        <v>14.56521500229886</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>18.5181685219097</v>
+        <v>16.55991994258733</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>18.2794110191595</v>
+        <v>16.47724085379008</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>1.831105427998409</v>
+        <v>4.033519468886023</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>4.32904550490143</v>
+        <v>11.86469411262791</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>6.212525386957413</v>
+        <v>11.84357812102226</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>3.432981161744109</v>
+        <v>4.148027846197408</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>10.59285765065938</v>
+        <v>8.927366550867919</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>19.4167034320713</v>
+        <v>17.72899641953557</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-7.868138307366653</v>
+        <v>-3.843646343738762</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>0.8199705731712363</v>
+        <v>-2.577038237379828</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>12.30776575867553</v>
+        <v>10.92308752642908</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-6.900473043188878</v>
+        <v>-1.628429716141937</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>14.53748366044963</v>
+        <v>8.990079462931632</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.22577783574541</v>
+        <v>28.14341333835976</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.72418377956671</v>
+        <v>13.64475260248473</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.69176582515515</v>
+        <v>24.29073951255274</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>40.78223036586493</v>
+        <v>41.77736014231779</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-4.573713757439851</v>
+        <v>-2.841939588450956</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>16.88088776113218</v>
+        <v>12.69230613005392</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>17.56624655353229</v>
+        <v>13.93536725406017</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>3.543501185053099</v>
+        <v>5.055847770076326</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>13.69538343606055</v>
+        <v>10.81096280602674</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.6271260369349</v>
+        <v>30.6925466074731</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-9.566578726885549</v>
+        <v>-4.696454716834925</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>0.5862386153556258</v>
+        <v>1.211777026841816</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.21607035669095</v>
+        <v>23.99693874738253</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-7.060529021748611</v>
+        <v>-0.980072234054095</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.62095773607162</v>
+        <v>14.65076052923371</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>46.2102087935626</v>
+        <v>52.00225192058043</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>24.67445408592245</v>
+        <v>20.498846800612</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>45.32653333058659</v>
+        <v>47.32682074719941</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>60.54814755807118</v>
+        <v>66.19113717167851</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-7.454710402669914</v>
+        <v>-3.517269861701553</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>15.52876207511858</v>
+        <v>12.08047322221095</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.75002856082354</v>
+        <v>23.76751857089695</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>3.936613561044613</v>
+        <v>7.33003141844863</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>27.31722292626129</v>
+        <v>21.76377400541331</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>37.10599770238691</v>
+        <v>36.35550957834703</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>3.898214973883448</v>
+        <v>3.949096722864507</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>45.96198058982237</v>
+        <v>44.40440006201813</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>51.21880715205384</v>
+        <v>48.56361110830262</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>12.0208632073018</v>
+        <v>5.972307652518957</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>68.27468825734171</v>
+        <v>65.53771242556405</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>70.93617333099505</v>
+        <v>69.12027878501993</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>62.34888515736854</v>
+        <v>62.84463952208989</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>73.30104762166809</v>
+        <v>70.63321465659016</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>67.26377430270729</v>
+        <v>65.84093147997453</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>17.63547775025442</v>
+        <v>22.68970167013792</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.35934060684703</v>
+        <v>41.17654263502028</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>60.86497084505278</v>
+        <v>67.39146009712425</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>8.832043729303871</v>
+        <v>9.762546486120986</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.27662121652848</v>
+        <v>34.5636484302705</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>41.5442045729263</v>
+        <v>37.32759222517122</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-5.089374047898342</v>
+        <v>-1.504480732831002</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.10110007472961</v>
+        <v>31.29301829783117</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>39.15713106123778</v>
+        <v>35.38041307543924</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>3.567089299855631</v>
+        <v>4.187509634007043</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>50.0116963618768</v>
+        <v>52.77761878605158</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>59.66602455729625</v>
+        <v>56.92750619569355</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>46.39599670512987</v>
+        <v>48.97607588837943</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>59.20176482254874</v>
+        <v>58.65475911193224</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>63.53130890041339</v>
+        <v>63.14501747314632</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>11.5543200170098</v>
+        <v>15.29170758403876</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>55.75175555197953</v>
+        <v>57.74261002321165</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>62.84891384165086</v>
+        <v>58.87749358599042</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>10.13820297719673</v>
+        <v>12.16341585107758</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>40.6625198416005</v>
+        <v>36.06616400783384</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>49.53398234343673</v>
+        <v>42.88302634771389</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-4.960950409576963</v>
+        <v>1.333276125805376</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.65522789936593</v>
+        <v>39.45998153722195</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>46.51472235951313</v>
+        <v>43.80875344496317</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>5.731763836844365</v>
+        <v>7.905613548742419</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>59.05617248259625</v>
+        <v>62.63648520552538</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>71.50517178338534</v>
+        <v>70.70240499707316</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>65.81299317415028</v>
+        <v>70.72020521114283</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>79.33864757500336</v>
+        <v>80.41072443765259</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>83.4970150971666</v>
+        <v>83.57877917030962</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>9.135848260454397</v>
+        <v>13.94222171536892</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>66.19457853924909</v>
+        <v>70.64672495621822</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>75.18555963533957</v>
+        <v>79.35488466054493</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.121601315330956</v>
+        <v>3.915189611868076</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>13.39420072599766</v>
+        <v>12.80215422122816</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>19.31862589852017</v>
+        <v>12.82216190876245</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-4.421724717857948</v>
+        <v>-1.437056546317919</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>7.530697017536603</v>
+        <v>9.885692563659349</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>13.56137619844596</v>
+        <v>12.20744912095734</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-0.8040531541908322</v>
+        <v>0.2493321414726992</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.69728698406872</v>
+        <v>18.80555195463432</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.18326518022623</v>
+        <v>20.26416082909834</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.5461892525413</v>
+        <v>17.94262777539803</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.13140428366917</v>
+        <v>22.46083828833801</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.87125702333063</v>
+        <v>25.35380938391495</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>-1.267149465601449</v>
+        <v>2.141622317321342</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>15.80108436104404</v>
+        <v>12.92512020115301</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>15.50435464671552</v>
+        <v>12.19686465755398</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>8.516059832253193</v>
+        <v>5.137759009856392</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>14.93143882157497</v>
+        <v>14.99181682229388</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.9904641522405</v>
+        <v>27.92576424239533</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-4.302211504697766</v>
+        <v>-1.769789044242241</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>4.344145525324567</v>
+        <v>5.866753149508931</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>23.64927244762151</v>
+        <v>26.64699816310704</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>1.036201943721448</v>
+        <v>1.565465425851922</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>15.73885832839656</v>
+        <v>12.57845404141178</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>38.80141532474582</v>
+        <v>42.02795333992444</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>19.55134995543892</v>
+        <v>16.62355841067157</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.04126316420425</v>
+        <v>28.94849372865865</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>40.02721446699222</v>
+        <v>41.38708306680223</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>0.9757668627163092</v>
+        <v>-0.1423199229844201</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.91660838082913</v>
+        <v>24.9617787645555</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.49757265317702</v>
+        <v>37.51417459062386</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.99638685351959</v>
+        <v>11.29090909113543</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.27178866339677</v>
+        <v>23.32272526064261</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.93302917673095</v>
+        <v>37.31622599957829</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-1.405854568127591</v>
+        <v>3.64211886218402</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.68941563183781</v>
+        <v>16.54701166611778</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.09293508798224</v>
+        <v>33.67127327379123</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>6.155369319498487</v>
+        <v>8.717791961125464</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>32.60683866259082</v>
+        <v>29.17719840491272</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>51.54414872155471</v>
+        <v>54.57694159561909</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.72099881836414</v>
+        <v>33.13217965369118</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>47.31756503741634</v>
+        <v>43.12836153702953</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>66.23781008780144</v>
+        <v>69.14214364471982</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>9.796925003190232</v>
+        <v>15.73892357576552</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>41.47852713910432</v>
+        <v>39.91927096070009</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>54.2291276579233</v>
+        <v>56.34366595971001</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-0.1144539004478169</v>
+        <v>3.185019421441876</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.500012907987571</v>
+        <v>3.890913671574609</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>10.07835868445524</v>
+        <v>8.314852912998919</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-7.189378203666418</v>
+        <v>-2.493852504431207</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.38425569025717</v>
+        <v>2.448469621778589</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>7.281368116459038</v>
+        <v>3.47718069243113</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-6.13386174431422</v>
+        <v>2.147517624589451</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>16.69343119310939</v>
+        <v>12.50230924089253</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.73978747785918</v>
+        <v>12.12090509600128</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>4.666027493828025</v>
+        <v>3.300161692612473</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.553792932773105</v>
+        <v>3.700741104931573</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.31913985084444</v>
+        <v>18.05046268196696</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-10.08779281881587</v>
+        <v>-4.636063609780699</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-7.23354422598641</v>
+        <v>-5.189113789981754</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-6.028750378208262</v>
+        <v>-0.8367712276545838</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>12.52952947411364</v>
+        <v>17.30792178578056</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.89343734418246</v>
+        <v>37.22862092897346</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.33496128636655</v>
+        <v>37.87887409857028</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>2.932774475454995</v>
+        <v>2.141529420322136</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>31.82865232044671</v>
+        <v>28.9909021918247</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.43008154437457</v>
+        <v>33.57434444938077</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>7.881827067367411</v>
+        <v>7.490110055293439</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>46.39684513578139</v>
+        <v>51.75511288046394</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>50.6314661470727</v>
+        <v>55.30478586062316</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>44.88912508732195</v>
+        <v>48.67889234562073</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>55.11866088365393</v>
+        <v>58.35561970830196</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>60.1348650129508</v>
+        <v>62.47018143767212</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>16.27018706282096</v>
+        <v>13.33413489680532</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>53.21056967780284</v>
+        <v>54.13523648699751</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>52.9970920906652</v>
+        <v>52.7117003651117</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>14.78941474950039</v>
+        <v>17.02159282583774</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>42.84996390137122</v>
+        <v>39.80234231148472</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.80147714140896</v>
+        <v>45.40536475265572</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1.466440538568907</v>
+        <v>2.576784117052721</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.12805096788995</v>
+        <v>38.46058836327244</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>43.21349088231931</v>
+        <v>39.37733277001924</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>11.38348138356769</v>
+        <v>8.065109405760655</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>59.84774519134952</v>
+        <v>62.78104558677866</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>67.48844420886417</v>
+        <v>68.04268635963655</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>64.82294503538472</v>
+        <v>67.82062566976585</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>75.72702984312639</v>
+        <v>78.11490831687587</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>80.32439271620291</v>
+        <v>83.56204351170376</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>17.94783887063729</v>
+        <v>14.49150897106093</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>65.09631834614522</v>
+        <v>68.13896490916201</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>66.76280106787254</v>
+        <v>70.8410604515737</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>8.304617371825721</v>
+        <v>8.984986453070331</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>16.10304800679138</v>
+        <v>15.72881755123951</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>18.47990097137339</v>
+        <v>17.03728567561922</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>0.5711481496399955</v>
+        <v>2.164374592786469</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>15.81934467765408</v>
+        <v>16.02135751954938</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.43758073257416</v>
+        <v>14.42649192210005</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>3.942068503290713</v>
+        <v>5.869078113866451</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.94917287301067</v>
+        <v>27.15109690604235</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.34819244190492</v>
+        <v>23.91773406424277</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>21.77176962090983</v>
+        <v>25.26493626675503</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.61946457916849</v>
+        <v>29.09318880418563</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.73105721304145</v>
+        <v>30.31105776601717</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>9.516220741722654</v>
+        <v>10.02446725896029</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.39601599559914</v>
+        <v>16.08768908461528</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>22.36411861006871</v>
+        <v>16.61171530891615</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>4.245223204054021</v>
+        <v>5.337433652060604</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>14.31206221154579</v>
+        <v>12.15810241549937</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>21.96174258440897</v>
+        <v>20.68334570776578</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-10.30824644738319</v>
+        <v>-5.026766321355893</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>3.387180318305415</v>
+        <v>1.480159326769623</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>12.77647044372016</v>
+        <v>15.15760660808689</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-8.186993915753948</v>
+        <v>-4.34859343033289</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>13.19989758194235</v>
+        <v>9.622232547169553</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.87546994035431</v>
+        <v>28.09692389860063</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>15.57929959367443</v>
+        <v>12.7859489624484</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.61836401168359</v>
+        <v>20.0263435239217</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.29560336360588</v>
+        <v>28.13594213013985</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-4.244184000906163</v>
+        <v>-3.514978613399606</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>19.17861361963558</v>
+        <v>14.29815745478437</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.09763505370085</v>
+        <v>21.3985874853327</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>10.52224430850579</v>
+        <v>14.53891776072331</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>30.58498375039425</v>
+        <v>29.22302819098974</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.90867707401683</v>
+        <v>34.06630540202907</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-4.692416219488695</v>
+        <v>0.5426489463820268</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>21.24570946231683</v>
+        <v>22.35448868707869</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>27.97475306917022</v>
+        <v>25.42238573967619</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>2.591891199327591</v>
+        <v>5.598761472520188</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>38.77596344945516</v>
+        <v>41.02212987715911</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>48.15226539531017</v>
+        <v>49.4125286732236</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.32281338471338</v>
+        <v>46.2957541146536</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>52.61576844075269</v>
+        <v>48.42827238408992</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>58.57658695933685</v>
+        <v>63.30845961352148</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>10.25696387148658</v>
+        <v>13.90891980067359</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>44.06221875734734</v>
+        <v>40.86087616063817</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>48.44234217469959</v>
+        <v>44.75392348842821</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>7.325652857217971</v>
+        <v>5.16900079902446</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>5.262747315653343</v>
+        <v>6.029618139291731</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>7.096431666966545</v>
+        <v>5.429027760726449</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-0.5474957421933695</v>
+        <v>1.531701787485765</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-0.1474836882672754</v>
+        <v>3.375504856949828</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.2692156373296584</v>
+        <v>0.9325145814357434</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>0.1710182643657951</v>
+        <v>4.95239249155145</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.151117762446949</v>
+        <v>8.048576176797308</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>6.187272367254113</v>
+        <v>4.563829745915069</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1.03289910529427</v>
+        <v>0.4153873247803652</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.078883682649316</v>
+        <v>1.945482596443334</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.623598065750301</v>
+        <v>7.531387676404727</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>8.501333469590708</v>
+        <v>4.951285891283874</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.827003803270401</v>
+        <v>6.063150905391847</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>5.346236612234996</v>
+        <v>6.234297466270654</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.041044545578121</v>
+        <v>3.104193636995234</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.408971901912409</v>
+        <v>5.780335541285929</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>11.81708228460906</v>
+        <v>7.74983676012582</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-9.248721419994393</v>
+        <v>-3.351367248569527</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-3.726765759067934</v>
+        <v>-3.70043465385001</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>2.091560590535067</v>
+        <v>1.332741400162693</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-8.521221967956432</v>
+        <v>-4.286185426319186</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.447513184333733</v>
+        <v>0.4530414983016122</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.83939979198659</v>
+        <v>6.829744002675938</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.626078303968011</v>
+        <v>3.176472940674664</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.659191577926055</v>
+        <v>6.987090095294878</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.26010374780165</v>
+        <v>7.316204481075292</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-6.951687035976395</v>
+        <v>-4.609076422767821</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>7.323561347748086</v>
+        <v>3.471568096419762</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>8.506074265485196</v>
+        <v>4.324255718675307</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>11.1572540940257</v>
+        <v>14.80948940650539</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.40385219252973</v>
+        <v>23.38029341461313</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.97977267959807</v>
+        <v>25.85842226523634</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-1.616492462050026</v>
+        <v>4.006192705460887</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>13.27560732649797</v>
+        <v>15.86503302326889</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>19.29794789870086</v>
+        <v>15.89011677460143</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>3.906394105589605</v>
+        <v>6.992886031933516</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>27.92514407189552</v>
+        <v>29.71649211025544</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.44006277257152</v>
+        <v>33.20802762590007</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>32.71740809005962</v>
+        <v>32.39121060414234</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>39.09900052197863</v>
+        <v>34.80001174816311</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>43.94953861336123</v>
+        <v>42.27507481735086</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.00891683095192</v>
+        <v>20.53657993360796</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>31.54833696277108</v>
+        <v>29.37886440778494</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.66271476958038</v>
+        <v>31.55343110835838</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>13.53292721511838</v>
+        <v>20.13413489250344</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.30851484254215</v>
+        <v>29.85915826409964</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.39550209905541</v>
+        <v>36.72912142553952</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1.390857759083055</v>
+        <v>3.060267856158376</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.79524117704576</v>
+        <v>23.85405577466744</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.03858671271372</v>
+        <v>28.45686134945694</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>7.093776968605177</v>
+        <v>13.09939069836176</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>42.41464126024142</v>
+        <v>45.76072548772261</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>45.38974782078542</v>
+        <v>48.57789628555839</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>38.16552914824111</v>
+        <v>43.29178433175105</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>44.1561893459628</v>
+        <v>50.48625017559303</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.11647555658612</v>
+        <v>53.30513199528821</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>27.34674255101265</v>
+        <v>30.48457705095711</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>51.35618672602529</v>
+        <v>56.91869084120106</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>57.37273359572744</v>
+        <v>58.92875716048951</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>10.87005370505593</v>
+        <v>11.55291710852423</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.34689156468563</v>
+        <v>25.70086713459317</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.56984958399207</v>
+        <v>30.85542937097005</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-6.261950210084269</v>
+        <v>-4.123067942257144</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>6.139177077757562</v>
+        <v>8.019222539199955</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>19.91205986445662</v>
+        <v>15.46544289740711</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-0.919887929649331</v>
+        <v>3.048470126357962</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.62484225877274</v>
+        <v>26.58778227992298</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>43.65108125487222</v>
+        <v>37.73542460535135</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.95858727598475</v>
+        <v>27.34414837148286</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.6091407475316</v>
+        <v>39.25596324764606</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>50.3757735756442</v>
+        <v>45.26286405584665</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>11.80198201553731</v>
+        <v>15.3116264106385</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>39.15804622571711</v>
+        <v>43.52906136523474</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>51.35168954709536</v>
+        <v>49.59478973165883</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>16.11286090073488</v>
+        <v>18.94458804581032</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>33.55509708390357</v>
+        <v>35.2983453524426</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>44.05464187645076</v>
+        <v>44.54260913900224</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>4.079063965687549</v>
+        <v>2.101177209671313</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.25156882776211</v>
+        <v>22.64895492304418</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>34.62744517144297</v>
+        <v>30.07359176214603</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.444118101098724</v>
+        <v>10.09354352430991</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>44.84679253479607</v>
+        <v>48.31785932688024</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>61.60208094850353</v>
+        <v>61.00663886723677</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>57.82742496700219</v>
+        <v>61.98451115696012</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.82354552116115</v>
+        <v>71.37569524390621</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>78.93796926110575</v>
+        <v>77.23096648456026</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.7780977565921</v>
+        <v>28.56139223632606</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>58.38728363487671</v>
+        <v>58.33559329523315</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>69.33206496870868</v>
+        <v>70.05237882279538</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>15.6405334829889</v>
+        <v>13.52951099466613</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.29421981262441</v>
+        <v>32.83524032141334</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>38.0691524514342</v>
+        <v>37.76027918223701</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>10.43312424410614</v>
+        <v>5.231435392653832</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>35.86639941405205</v>
+        <v>38.01238293400135</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>41.38710139878101</v>
+        <v>42.0626172802835</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.71176320352385</v>
+        <v>12.44998781107533</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>54.4595121448832</v>
+        <v>58.84122929000997</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>57.47138448563194</v>
+        <v>62.52807095136507</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>56.48681090420401</v>
+        <v>59.89159530931305</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>62.34319883284562</v>
+        <v>67.98480464323278</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>62.1137455346383</v>
+        <v>67.87008230993749</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>17.54949677980656</v>
+        <v>12.85258215032874</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>42.92888501308155</v>
+        <v>41.89460971268314</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>46.67281742575203</v>
+        <v>50.35046089570614</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>13.10604432380089</v>
+        <v>9.82207787608173</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>27.81094502885048</v>
+        <v>30.0095670829317</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.90170198398998</v>
+        <v>34.80296624849899</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>3.592709422887431</v>
+        <v>3.480591931177827</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>23.43968670636602</v>
+        <v>25.69095969926714</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.36779318496177</v>
+        <v>35.66845085085718</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>8.328433892180957</v>
+        <v>7.492517316944959</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.90776768313104</v>
+        <v>41.31059187020344</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>50.04577742974953</v>
+        <v>54.1284491851319</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>41.3286539051083</v>
+        <v>45.78124699471385</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>49.98662338400775</v>
+        <v>53.37054707263596</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>56.67442737507248</v>
+        <v>60.44255595741001</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>10.82915491659384</v>
+        <v>6.939405806408363</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.39838096039592</v>
+        <v>49.29843082521697</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>50.63452342960817</v>
+        <v>52.77190132459312</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>13.06949665879641</v>
+        <v>8.974160188956567</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>35.90864197630567</v>
+        <v>29.80271800724469</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>45.58628337961618</v>
+        <v>39.86847298004443</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>0.7126502718858951</v>
+        <v>3.299036807191801</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.32779241059415</v>
+        <v>30.23889535733176</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.99765421893326</v>
+        <v>41.35341140127816</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>9.047915075368801</v>
+        <v>8.049293285748245</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>48.51258640208988</v>
+        <v>47.60334324005526</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>63.0523859308617</v>
+        <v>65.98067979496213</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>53.03843701470417</v>
+        <v>56.91507428822408</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>63.80350432475961</v>
+        <v>68.39573294475994</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>76.01915417520539</v>
+        <v>84.15775635800266</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>8.711634519363356</v>
+        <v>5.751879784373696</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>53.08347269117122</v>
+        <v>56.97576391824408</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>62.54026983172399</v>
+        <v>67.82380108598645</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>9.190593170069626</v>
+        <v>8.283759504164912</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.22848784737421</v>
+        <v>22.90331149622679</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.37556649184111</v>
+        <v>34.23473143514443</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>3.15315108999221</v>
+        <v>3.421113951894068</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>39.08134419732568</v>
+        <v>40.21103403948398</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>44.1379555477028</v>
+        <v>47.67483004373231</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>11.57512639703488</v>
+        <v>7.652650208268369</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>60.14873670075821</v>
+        <v>64.688964259702</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>65.08908854275732</v>
+        <v>67.00374972417369</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>59.41972408310085</v>
+        <v>62.59881606797848</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>62.75036283352483</v>
+        <v>64.71005785781537</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>62.31090089397865</v>
+        <v>63.73263591726931</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>13.35055689703677</v>
+        <v>9.820049814363838</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.17663211995924</v>
+        <v>32.78001927438471</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>49.89370182945202</v>
+        <v>63.08506732937856</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.63622983222323</v>
+        <v>12.20544519203501</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>30.11455435558422</v>
+        <v>33.67501186247728</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>41.18634412561337</v>
+        <v>37.17239262855381</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1.200279786904765</v>
+        <v>0.6044286159895584</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.37088751179259</v>
+        <v>26.80429277184479</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.04147770651647</v>
+        <v>34.64324790433631</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>3.411105049091468</v>
+        <v>2.069535820696927</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>43.54673166781319</v>
+        <v>47.46427163567526</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>60.77228800863824</v>
+        <v>56.09683646118609</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>46.0038372381584</v>
+        <v>45.01741578697667</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>59.41393019491395</v>
+        <v>56.26109045529294</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>68.58207004374593</v>
+        <v>64.17855414987659</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>11.54835654548546</v>
+        <v>9.875223418339827</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>51.33508780989236</v>
+        <v>51.9079234182792</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>61.80018834825155</v>
+        <v>57.58080873724658</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.48079344801934</v>
+        <v>12.61745950993649</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>35.90756208682366</v>
+        <v>34.5019511545155</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>46.34628611486588</v>
+        <v>43.44568922907659</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>3.345334832663422</v>
+        <v>2.203602439017054</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>32.45261142942564</v>
+        <v>33.83311852834484</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>44.41540474705984</v>
+        <v>42.14237771354694</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.833750826364835</v>
+        <v>4.155412619804309</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>53.43690144865974</v>
+        <v>56.87918564083499</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>70.55424262746804</v>
+        <v>69.46272434628247</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>65.80455307695651</v>
+        <v>69.05368260993194</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>79.46912429398424</v>
+        <v>81.4687478895263</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>87.20735811575034</v>
+        <v>84.57602341260304</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>12.41410784839717</v>
+        <v>8.759149011179662</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>61.40805293246011</v>
+        <v>64.15807645044291</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>70.33371081875065</v>
+        <v>70.58120434949208</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>15.26771387326325</v>
+        <v>15.47784173512309</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>27.01960393753395</v>
+        <v>23.24849026662401</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.50944684505485</v>
+        <v>36.26952788755148</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>15.63935171994207</v>
+        <v>12.85696710126228</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>46.19429361304788</v>
+        <v>48.886074662428</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>49.20382188619128</v>
+        <v>55.09829686124345</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.24787368171557</v>
+        <v>16.058049852555</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>59.70117755512319</v>
+        <v>68.14244510738038</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>64.08759925446375</v>
+        <v>72.79592075193426</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>55.42266800378002</v>
+        <v>59.87825822621316</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>57.47766833818044</v>
+        <v>60.01486612119121</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>59.03957080686396</v>
+        <v>63.01980565457938</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.27319647449984</v>
+        <v>16.8390930753902</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.91473710399472</v>
+        <v>29.84236023466521</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>50.11047262629754</v>
+        <v>50.48230624762622</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>19.48851776190433</v>
+        <v>22.45630682810593</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.00181450577848</v>
+        <v>35.63086865622941</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>43.70927720252558</v>
+        <v>41.207139369742</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.13567369889766</v>
+        <v>35.48799718866275</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>46.21092335221148</v>
+        <v>49.45955164810064</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>58.63618071070974</v>
+        <v>59.99632131453702</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>16.14309414256177</v>
+        <v>12.27168796661369</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>49.4759089014354</v>
+        <v>49.04673524947621</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>65.16191363456154</v>
+        <v>62.14914486055309</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>49.97093335254283</v>
+        <v>47.48930309478671</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>58.96879005124369</v>
+        <v>56.36994946946225</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>67.74241135773264</v>
+        <v>61.89054081749614</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>21.44108966737527</v>
+        <v>24.94872092384933</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>52.09831273607868</v>
+        <v>52.9178502162523</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>61.67501566189982</v>
+        <v>58.9327030544375</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.20903664514162</v>
+        <v>23.03881154804645</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>39.77309884348364</v>
+        <v>39.24691740393513</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>47.077878061413</v>
+        <v>44.72868184756779</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.08225635626858</v>
+        <v>36.07300644876583</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>51.59645523969412</v>
+        <v>56.61568710857088</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>60.2069136393024</v>
+        <v>60.74361614056419</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>20.10106830753774</v>
+        <v>16.62655222133894</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.95732973456478</v>
+        <v>64.54260546660726</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>74.14341692004432</v>
+        <v>72.69912272458015</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>70.19397425364792</v>
+        <v>77.74388895730209</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>76.3034276710476</v>
+        <v>80.6484955172107</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>86.82830422424146</v>
+        <v>84.52113638168458</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.12902905524855</v>
+        <v>26.2288274574564</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>62.91820178983791</v>
+        <v>65.72951508529054</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>70.79019887866231</v>
+        <v>75.7193795724736</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>12.23030051930189</v>
+        <v>8.020178491017194</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.24978192554278</v>
+        <v>27.29705819255875</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.7588531286725</v>
+        <v>35.28022184632755</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>0.6490253721275003</v>
+        <v>2.08543795844259</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.61212540289034</v>
+        <v>27.52819915420098</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.81559868917743</v>
+        <v>35.72072743394234</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>13.05681571742886</v>
+        <v>8.550938019737124</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>49.79463278309063</v>
+        <v>54.33993829992338</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>54.95688323765717</v>
+        <v>57.03924052873268</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>56.1604059508354</v>
+        <v>61.07521197212568</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>56.68682261571381</v>
+        <v>62.40936825127432</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>58.59282094069388</v>
+        <v>62.49488647940004</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>11.24791504679573</v>
+        <v>6.368421294136212</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.11273753940178</v>
+        <v>40.73384719782874</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.48093249658663</v>
+        <v>44.62179410899589</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.63274999931409</v>
+        <v>10.48555959812201</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>27.7564209927362</v>
+        <v>31.99655379563914</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>37.54493430432785</v>
+        <v>34.863483026157</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-1.364286268775853</v>
+        <v>1.332683945708855</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>20.3327355664393</v>
+        <v>26.06664014995086</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.84252641548962</v>
+        <v>32.82217496438705</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>5.289756423730754</v>
+        <v>6.581984033198982</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.96880425233335</v>
+        <v>45.06440377231908</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>52.1186726123939</v>
+        <v>53.83038600157123</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>42.16276148586105</v>
+        <v>45.86114649492291</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>50.34675087304745</v>
+        <v>56.15948849655398</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>57.67011276494701</v>
+        <v>61.1067336658997</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>7.213352126031118</v>
+        <v>7.295381276044914</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>40.31116046013582</v>
+        <v>46.31007005614958</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>50.11971999576666</v>
+        <v>54.34012254654857</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>11.86854552559476</v>
+        <v>9.519779174710447</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.15424684093595</v>
+        <v>31.09371221641857</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>46.60912214219798</v>
+        <v>41.56264175951931</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-2.859199299463935</v>
+        <v>-0.7423508588892034</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.79729819269638</v>
+        <v>28.40645565631822</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.47570239881357</v>
+        <v>37.57357195881058</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>5.713336009877093</v>
+        <v>3.657974797378927</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.98093792235761</v>
+        <v>47.30306616083525</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>65.4040871825534</v>
+        <v>64.82205143302619</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>57.30159681478534</v>
+        <v>59.09622266772283</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>68.81767180674298</v>
+        <v>74.04305585037923</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>80.87717512364966</v>
+        <v>83.53403010936992</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>7.666190783835695</v>
+        <v>5.245307213059437</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>54.14776037669185</v>
+        <v>59.77112528407528</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>65.01107536002094</v>
+        <v>69.47866893849081</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>8.467769220472569</v>
+        <v>11.77450354700852</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.83666146082518</v>
+        <v>15.54719603459141</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>20.90467866335444</v>
+        <v>18.17526432392685</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-1.658540284341676</v>
+        <v>4.552886271038979</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.79146249705774</v>
+        <v>14.45756289407795</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.56687791303778</v>
+        <v>17.23672904796656</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>2.879614006991961</v>
+        <v>7.978515900818259</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>27.68684899829509</v>
+        <v>23.81274290639534</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>30.47500220787774</v>
+        <v>25.90840566592565</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.30478561139714</v>
+        <v>25.43200547528395</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.77543943167572</v>
+        <v>27.32193463550426</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>33.17106284986556</v>
+        <v>30.19359646895037</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>10.10789779169057</v>
+        <v>11.66091609645006</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>21.51370623889209</v>
+        <v>18.13414883653621</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>27.95764418836917</v>
+        <v>22.88808020861357</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>12.29438302780365</v>
+        <v>7.907587566425349</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.13523225733602</v>
+        <v>20.47607028506881</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.52153424961696</v>
+        <v>29.7015438735888</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>0.6501423731958802</v>
+        <v>0.4167759650343257</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>11.90826005650163</v>
+        <v>13.14442541697172</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.23307613023647</v>
+        <v>27.58802617573842</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>4.774411090934173</v>
+        <v>4.679735545756397</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.48266431869547</v>
+        <v>24.58782870931514</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.30084688441184</v>
+        <v>44.51173749730046</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>27.60337520618883</v>
+        <v>26.65551003437615</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.00849934474563</v>
+        <v>38.05777683418597</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>51.28122696093335</v>
+        <v>50.92570061406045</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>7.496154015065731</v>
+        <v>4.962092522065561</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.36942870730313</v>
+        <v>32.80342336288149</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>46.2353526220847</v>
+        <v>44.4332312475573</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>12.25242407729785</v>
+        <v>14.30127173164262</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.78390926008043</v>
+        <v>28.46148199578723</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>39.83602020877994</v>
+        <v>39.00063453522494</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>1.05797550553828</v>
+        <v>3.813153696590213</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>18.03110093541013</v>
+        <v>23.21190757601737</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.19425624791376</v>
+        <v>36.26182174358308</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>5.583089630559279</v>
+        <v>8.821993077969907</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.06983020282555</v>
+        <v>39.10682146268866</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>54.80550145179917</v>
+        <v>57.08348012497452</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>43.91821498275083</v>
+        <v>48.65995707124718</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>52.83877186585963</v>
+        <v>56.68186174642221</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>69.17111585962726</v>
+        <v>68.71119904025369</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>6.893421360198627</v>
+        <v>4.826583836975278</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>35.71320256616656</v>
+        <v>40.44563633923219</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>59.01347088758976</v>
+        <v>63.34420463551508</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>10.06912054198903</v>
+        <v>14.34360821638027</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>20.3344488957198</v>
+        <v>19.9753499555495</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>27.61486489553741</v>
+        <v>25.71941418309858</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1.660139182759451</v>
+        <v>3.936915011908024</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.76410677049035</v>
+        <v>28.63766076434955</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.7936677901466</v>
+        <v>31.49878201225168</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>7.307758355063399</v>
+        <v>13.21369784138508</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>44.34175809501139</v>
+        <v>46.798279199455</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>46.43200370544376</v>
+        <v>48.65653911084639</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>39.66169930490572</v>
+        <v>36.27142805805902</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>44.1140540830601</v>
+        <v>40.91344369325736</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.04018694768156</v>
+        <v>45.40864649289245</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>15.66899028049167</v>
+        <v>12.10588487755968</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.17485295081751</v>
+        <v>37.81672966965002</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.54108261252939</v>
+        <v>42.98510931894467</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>11.28555614679613</v>
+        <v>9.860125892632805</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.02000665803696</v>
+        <v>24.57260625193059</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>35.6359253354137</v>
+        <v>34.90007853269793</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>8.650598691558381</v>
+        <v>4.036653158678764</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.55105384172328</v>
+        <v>20.74619632309075</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>38.23245477146077</v>
+        <v>40.80993450015277</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.540979206617262</v>
+        <v>0.01110005523682389</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.52252905208722</v>
+        <v>31.16234822056728</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>50.86072780440786</v>
+        <v>53.27317252149219</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>33.31832407021223</v>
+        <v>29.3030827325453</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>43.8648833293212</v>
+        <v>41.49741776931941</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>57.23462591110787</v>
+        <v>58.44654786136215</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>8.195329239932891</v>
+        <v>6.585892269569655</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>38.53921176671371</v>
+        <v>38.76386997420358</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>50.83091429763905</v>
+        <v>49.96540003517714</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>9.991176557408442</v>
+        <v>13.01232629692156</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.83405883276478</v>
+        <v>27.83071639440737</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.61047712664207</v>
+        <v>35.83995831645701</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>7.744556714657584</v>
+        <v>4.742280695432015</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.85510493794107</v>
+        <v>24.93426763915602</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.77653755316507</v>
+        <v>35.36535147168461</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>3.2974870809057</v>
+        <v>5.095199168726314</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>42.46187771339242</v>
+        <v>43.43636728015714</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>56.06757019857582</v>
+        <v>56.19254562753454</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>49.78512058367201</v>
+        <v>53.67579402942211</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>55.57896727270284</v>
+        <v>58.67195201362721</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>69.55399315026676</v>
+        <v>71.04388315053546</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>6.468807886087149</v>
+        <v>4.543143620782839</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>43.86678016626509</v>
+        <v>38.74934531733568</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.53380969004807</v>
+        <v>58.40354202854317</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>14.3509137874923</v>
+        <v>15.42448704760222</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.32243819955712</v>
+        <v>26.96202136424614</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.03197512555817</v>
+        <v>36.1633605897785</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>10.71626087774551</v>
+        <v>5.515909961014909</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>40.04899190336727</v>
+        <v>41.13533111906253</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>49.045816496046</v>
+        <v>46.54112100852416</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>18.43309664828529</v>
+        <v>15.49314481946769</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>59.26629910471763</v>
+        <v>63.9781187681183</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>65.9543464235112</v>
+        <v>65.65948948636765</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>57.65115365665639</v>
+        <v>60.67375195367702</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>57.66376436132786</v>
+        <v>59.46908366555112</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>60.12032000292984</v>
+        <v>63.34614610284595</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>18.31376321027093</v>
+        <v>15.63689851099111</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>26.38862446205084</v>
+        <v>22.06003708653167</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>62.15414394272695</v>
+        <v>63.89643852085364</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>18.10616144717666</v>
+        <v>21.26707955870512</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.630688898682</v>
+        <v>36.75775474586712</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>41.73724529320718</v>
+        <v>39.23417166288451</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>10.82499975390283</v>
+        <v>5.699830865092089</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>32.24500044888514</v>
+        <v>29.0839340965684</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>42.23006751879102</v>
+        <v>34.26346427162228</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>12.83056876962682</v>
+        <v>12.54634252009692</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>45.00335309140701</v>
+        <v>48.88725265584169</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>57.34588310589298</v>
+        <v>53.82205332741607</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>46.69741825449305</v>
+        <v>51.59353194149892</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>53.78877478185845</v>
+        <v>56.8430724044177</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>59.52570987748774</v>
+        <v>58.23998496849029</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>18.22886093962225</v>
+        <v>21.9679741671463</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>47.54851602366968</v>
+        <v>52.99628989469575</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>59.99697127663272</v>
+        <v>55.81466180658309</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>18.24021865071589</v>
+        <v>22.22649087916451</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>40.64840932120697</v>
+        <v>39.70019886307831</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>47.45683507626367</v>
+        <v>44.66273286507042</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>9.191184623611816</v>
+        <v>4.504861556164546</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>37.49872891698238</v>
+        <v>35.16060701638636</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>46.2236843954378</v>
+        <v>38.62789993030642</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>14.39465102474689</v>
+        <v>12.54744830158796</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>56.95428280959766</v>
+        <v>60.810529938522</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>67.82246670908803</v>
+        <v>67.2802391951933</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>68.17661458981539</v>
+        <v>69.30267866499024</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.3483494021386</v>
+        <v>74.39787872424643</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>83.23098119072903</v>
+        <v>79.97863674772771</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>19.56579778195806</v>
+        <v>16.52512383501571</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>59.11404842798656</v>
+        <v>60.39746085098553</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>72.38050917925715</v>
+        <v>70.31804959759634</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>10.50110767791464</v>
+        <v>7.55313897589533</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.70214420279689</v>
+        <v>24.74406656098068</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.09185845965506</v>
+        <v>32.04366538621433</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1.077604541553388</v>
+        <v>2.306114256765408</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>26.16515726679572</v>
+        <v>30.8289101454683</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.93194018113916</v>
+        <v>34.60257651200978</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>10.74179058780519</v>
+        <v>7.500565262507642</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>48.44172715042829</v>
+        <v>51.16482125851958</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>51.84219826765226</v>
+        <v>54.76045974449067</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>51.8614016948339</v>
+        <v>56.70168741303075</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>57.25889712662344</v>
+        <v>62.25604801734715</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>54.74299826444057</v>
+        <v>58.75359641187035</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>10.88479300336944</v>
+        <v>5.813832445876258</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>34.16266705764091</v>
+        <v>37.70154068201856</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.27555670940869</v>
+        <v>40.22716247627602</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>12.70185375687709</v>
+        <v>10.93729673597242</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.90873067888699</v>
+        <v>32.13971892072588</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>38.56585450122607</v>
+        <v>35.12578295510247</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1.055320746724245</v>
+        <v>1.049357982930747</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>24.36515663187372</v>
+        <v>26.39328245285455</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.11475523706619</v>
+        <v>34.32751041712196</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.041867506767343</v>
+        <v>7.961970859393695</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>40.48693881264271</v>
+        <v>46.13260525460728</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>54.06287674411304</v>
+        <v>57.1907140474415</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>44.7923812827608</v>
+        <v>47.56012813025323</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>54.88601962067651</v>
+        <v>57.37873205997707</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>61.02818176385594</v>
+        <v>62.41079790838204</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>10.84376678520914</v>
+        <v>6.991119718243027</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>48.11723409295817</v>
+        <v>55.25636109575709</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>53.5694612619186</v>
+        <v>54.22122356520537</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>11.04882302252036</v>
+        <v>10.82540108390026</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>32.95108659952168</v>
+        <v>30.38492221991672</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>44.63504345727944</v>
+        <v>41.00238870479221</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-2.182791302221386</v>
+        <v>0.464963531467145</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.53197528695035</v>
+        <v>26.54459814066277</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>39.47817980923159</v>
+        <v>37.34725558090079</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.200187943820406</v>
+        <v>5.603004229780687</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>44.74578003579697</v>
+        <v>45.19357593795753</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>62.63254767159539</v>
+        <v>64.11772101756293</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>57.15444429467671</v>
+        <v>61.48021966856244</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>67.55552454630893</v>
+        <v>70.28523133128348</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>79.26148987255826</v>
+        <v>82.37278113341256</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>7.270085167198378</v>
+        <v>5.106309717694963</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>51.89039118875137</v>
+        <v>52.84303270862352</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>63.05896531773197</v>
+        <v>67.06025258403031</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.548</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.375</v>
+        <v>16.137</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.791</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.861</v>
+        <v>13.817</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.978</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.926</v>
+        <v>6.548</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.120358356035879</v>
+        <v>6.098007228417375</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11.15655377136761</v>
+        <v>11.58873359078666</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15.39254668400041</v>
+        <v>15.29773423774501</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3.233113673393991</v>
+        <v>-4.038384969814963</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>10.86947936825298</v>
+        <v>13.54929231556556</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15.27676133430402</v>
+        <v>14.73157858657635</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1727673726674332</v>
+        <v>-1.02625670899657</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.94141908567068</v>
+        <v>27.71935522675092</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.00082305484318</v>
+        <v>28.92039532487487</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.88705661219119</v>
+        <v>24.07177454177003</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.79542281775078</v>
+        <v>30.72209038433621</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.68256295533217</v>
+        <v>33.94729868701108</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.134327812338846</v>
+        <v>4.412902478469215</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.96244113422173</v>
+        <v>15.99014215550066</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>19.36391717023645</v>
+        <v>25.99413253879833</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.08283183103754</v>
+        <v>11.7911733770535</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.2733320954333</v>
+        <v>26.89726518067445</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>38.82969745607232</v>
+        <v>38.11530559860074</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.917563861264334</v>
+        <v>-0.9236548258419148</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.25032829085507</v>
+        <v>15.48776152693523</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.02170412964013</v>
+        <v>30.69860790434072</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1.07841620969651</v>
+        <v>2.583592412118083</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.41110209478868</v>
+        <v>32.43994663060793</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>56.18408726626232</v>
+        <v>50.08838564149146</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.59757912801884</v>
+        <v>34.89287849130292</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.38097089886583</v>
+        <v>52.55610650697441</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>73.63818884620929</v>
+        <v>62.57195407429979</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.96066871790422</v>
+        <v>8.160105314798521</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.76849246457446</v>
+        <v>42.64539373766492</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>63.49901236959918</v>
+        <v>52.83244816320635</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>14.30930607315012</v>
+        <v>14.73959217598316</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.53419475156318</v>
+        <v>33.95091272497733</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43.19311135105852</v>
+        <v>43.39748509935617</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.228989197740574</v>
+        <v>1.498472820660442</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.10006000999251</v>
+        <v>27.73773667074244</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>38.75755563635884</v>
+        <v>35.90442902660767</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.676819665057163</v>
+        <v>5.183777934837735</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.46123428718628</v>
+        <v>47.31621740803137</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>62.58902742016695</v>
+        <v>61.51926561146541</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>61.25024963467783</v>
+        <v>60.37975306510353</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>77.97676439102857</v>
+        <v>73.25636089128329</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>84.32937337994656</v>
+        <v>79.80314761601377</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.36098802641934</v>
+        <v>14.23833973067325</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>66.04657569688314</v>
+        <v>60.33647179330276</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>71.80962382514249</v>
+        <v>70.61856506028516</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.95529585904805</v>
+        <v>5.761382442208896</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.35177850283169</v>
+        <v>30.03721642894973</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.10657052357463</v>
+        <v>39.55095795419479</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.7641335029891785</v>
+        <v>-0.4706901734942903</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.01337844124328</v>
+        <v>38.54397301406256</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43.93920867425808</v>
+        <v>43.84098501408139</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6.435684367453103</v>
+        <v>6.534731095074772</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>66.3577912657087</v>
+        <v>60.64530051402745</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>66.71815354628839</v>
+        <v>65.6547459816497</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>61.83323590006269</v>
+        <v>59.50463834675842</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>75.99515261090662</v>
+        <v>68.59532697119624</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>64.83278753900893</v>
+        <v>66.01843410075222</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>8.075396935635521</v>
+        <v>7.059382030195748</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>45.10738434271548</v>
+        <v>42.45155032653774</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>51.52307586064923</v>
+        <v>50.98039140601743</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.754989162040427</v>
+        <v>9.332430560166603</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.82709262776524</v>
+        <v>35.1008926653401</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40.95048610619986</v>
+        <v>42.9651531686134</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-4.480176351106493</v>
+        <v>-5.034103818391735</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.71408172039317</v>
+        <v>24.93684212100821</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>38.10248346695465</v>
+        <v>37.71564740755347</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-0.3580095848670624</v>
+        <v>2.746626795806097</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>45.50490212817175</v>
+        <v>47.3308615326446</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>61.46995281257768</v>
+        <v>61.60362737584813</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>51.33348613448281</v>
+        <v>51.00849130334532</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>65.83532145519564</v>
+        <v>66.5453398987753</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>74.26861920713726</v>
+        <v>74.30607179306898</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.257622170123746</v>
+        <v>7.465499468953459</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>58.7819349663399</v>
+        <v>56.79344920004049</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>63.25369625244243</v>
+        <v>62.86480457225566</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.392569297559877</v>
+        <v>8.573424624088094</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.42766665397156</v>
+        <v>36.53920361764652</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.21959323869108</v>
+        <v>46.56386960345417</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-2.304613387001705</v>
+        <v>-5.108322613565623</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.04674540860297</v>
+        <v>33.65831708079617</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.14192190921558</v>
+        <v>42.95845059321552</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.084316610990321</v>
+        <v>4.55678121324528</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.82665403286649</v>
+        <v>59.50676080995575</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>76.69882940701831</v>
+        <v>74.79760873147194</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>69.61031830116342</v>
+        <v>68.52962046887917</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>84.69581316014174</v>
+        <v>82.93094104070987</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>93.42513283250776</v>
+        <v>92.24927616915275</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6.542107020149853</v>
+        <v>7.095893670711746</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>71.32990940944501</v>
+        <v>70.41456266834197</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>77.86959503855019</v>
+        <v>76.13638953826751</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>11.11195858906735</v>
+        <v>13.12992213229799</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.60972585831102</v>
+        <v>29.38393244643168</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>34.82879490193806</v>
+        <v>35.19616908770906</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.166311711943997</v>
+        <v>3.932026739814377</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.60346138751954</v>
+        <v>33.37692597553642</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.41777466813136</v>
+        <v>34.95579290440629</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.55607215147057</v>
+        <v>9.903331211336379</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>61.04649062662864</v>
+        <v>55.16210960850807</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57.13233465895365</v>
+        <v>56.29537496513038</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>52.45781468185845</v>
+        <v>54.77300459509367</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>61.48351528160129</v>
+        <v>60.90990556303638</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>58.19892922889983</v>
+        <v>57.81394671209275</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>10.12618328542951</v>
+        <v>10.45722144906766</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.6152297487982</v>
+        <v>37.33613201534564</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>41.7952708602235</v>
+        <v>41.4178830196199</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18.57028416660796</v>
+        <v>19.14733285369382</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>42.22176556323598</v>
+        <v>43.32415083869252</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>45.07862959020981</v>
+        <v>46.28575588558203</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.1296806506938459</v>
+        <v>4.271482914795811</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>33.01981631319149</v>
+        <v>33.58966479175336</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.52159112313326</v>
+        <v>40.37039719621918</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.074295036565129</v>
+        <v>12.87488316881962</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>56.78354263326804</v>
+        <v>56.71590388430248</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>63.79661501553608</v>
+        <v>65.42923668793568</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>58.96070827968099</v>
+        <v>58.65974373801527</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>70.43524352601116</v>
+        <v>70.74953529630545</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>74.56491067551936</v>
+        <v>74.23208899177544</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>15.40944030217739</v>
+        <v>16.81378474451406</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>63.99852191926264</v>
+        <v>60.09498690648746</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>63.01092733317351</v>
+        <v>62.50906714556007</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17.62747646459957</v>
+        <v>17.19951286514128</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>43.63184019847805</v>
+        <v>44.14298257980754</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>50.25018686772145</v>
+        <v>49.5370380032674</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.3106401421688751</v>
+        <v>0.5977349039145921</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.71500514140646</v>
+        <v>39.57005083925569</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.81538569180928</v>
+        <v>42.91485686021447</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>4.794405454856062</v>
+        <v>10.94200518304753</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>66.51258347724894</v>
+        <v>66.07875845621038</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>75.605464613905</v>
+        <v>75.92913028453496</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>76.12873470444235</v>
+        <v>75.86078216235029</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>83.89803096472434</v>
+        <v>86.13380477602362</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>93.44079544846861</v>
+        <v>92.22852471669376</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>15.9686369420388</v>
+        <v>15.79379527795514</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>74.05886391056438</v>
+        <v>74.09695305145598</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>79.17395269867654</v>
+        <v>77.80005101651346</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.89058691365002</v>
+        <v>9.58822381139969</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>13.8089820018943</v>
+        <v>14.41366420466274</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>17.82549408492545</v>
+        <v>17.15719414327755</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.882048361177258</v>
+        <v>-1.152327240239764</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>13.17421886016748</v>
+        <v>13.07119089167547</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.85667821779673</v>
+        <v>13.88262920531445</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.450402834871038</v>
+        <v>2.567802277964184</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.59791135938822</v>
+        <v>28.44310142399772</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.64338434811009</v>
+        <v>28.68196322318981</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.18173199630197</v>
+        <v>27.06053690460605</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.79048351290763</v>
+        <v>32.06724264516989</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.1474369270617</v>
+        <v>36.92545800185438</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>63.50448564661573</v>
+        <v>30.33024799042951</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>64.27684012833777</v>
+        <v>39.3837347998363</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>61.05998520350213</v>
+        <v>46.49758563759628</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>8.958897265859619</v>
+        <v>14.08180746651353</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.67483702654656</v>
+        <v>25.20027396579034</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>37.85762126556235</v>
+        <v>36.53709453118224</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1.458563841448033</v>
+        <v>1.453360105972067</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>12.25157068516794</v>
+        <v>11.72178474262534</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.83290865923601</v>
+        <v>26.79819108688925</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.46560671167281</v>
+        <v>27.80695054479205</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>59.08025873640592</v>
+        <v>44.49897480608197</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.75334532797757</v>
+        <v>29.03165124663879</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>47.95469823037418</v>
+        <v>44.83870043249548</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>70.18901677052337</v>
+        <v>56.06577950185508</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>7.468335904528903</v>
+        <v>14.82025987077898</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>45.18680727687654</v>
+        <v>41.83191289415527</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>54.68735890089201</v>
+        <v>49.17872679715439</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>19.53359791937307</v>
+        <v>20.48336608270061</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.90468856198365</v>
+        <v>32.39794417875941</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.4357308844771</v>
+        <v>43.49213157995137</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3.428162436772663</v>
+        <v>3.297489669772936</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.4264205378252</v>
+        <v>19.29812853510122</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>30.94986718697717</v>
+        <v>29.78574623445779</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>8.899758486879385</v>
+        <v>9.387406533006459</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43.3446892387509</v>
+        <v>42.45230303593168</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>63.56789777777482</v>
+        <v>58.00049152360882</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>44.412383516416</v>
+        <v>49.80391358507939</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>63.75517570828703</v>
+        <v>61.77005838036705</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>81.03254133878232</v>
+        <v>71.8169550358846</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.81255762366679</v>
+        <v>24.48330839533182</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>60.7153843929205</v>
+        <v>57.72076149188585</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>67.69006039105935</v>
+        <v>66.73426939193232</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.701826665220075</v>
+        <v>10.24852751914955</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.94511603963448</v>
+        <v>26.97963757403659</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>31.03452469375954</v>
+        <v>30.23528201410204</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2.884783962574637</v>
+        <v>4.086923079519632</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>33.4290855239337</v>
+        <v>35.31827408966416</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38.32143916164018</v>
+        <v>35.94362497165277</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8.566819200380518</v>
+        <v>13.23376841697169</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>61.96647835084502</v>
+        <v>56.6206613903168</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>62.74586747685728</v>
+        <v>56.44590377492802</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>53.70351369609531</v>
+        <v>46.00984963604663</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>65.58425340078392</v>
+        <v>51.31001287443834</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>66.22394679048409</v>
+        <v>53.96138420177591</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>8.184658309567858</v>
+        <v>13.13622669921605</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>10.25332686529175</v>
+        <v>29.00239669138017</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>10.89338436182663</v>
+        <v>37.23966155990841</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>20.38799517215497</v>
+        <v>21.56056347873691</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>41.25470169082905</v>
+        <v>44.09779670735211</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>42.6755220465603</v>
+        <v>47.10414869026773</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5.590066384268276</v>
+        <v>8.040318017727984</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>35.71512155963306</v>
+        <v>35.23726711342697</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>42.47108654275713</v>
+        <v>41.73550835894933</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>60.6467301365454</v>
+        <v>57.36042669042491</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>67.09377308179222</v>
+        <v>65.57186520400575</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>65.39575536939293</v>
+        <v>59.24992812356386</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>76.41461090220139</v>
+        <v>75.34492681671804</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>81.93682098849747</v>
+        <v>80.84427529855148</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>32.49005540514115</v>
+        <v>29.74434179641106</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>68.82208003194449</v>
+        <v>66.26510757924181</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>69.55597452587739</v>
+        <v>67.45391324506737</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>21.21383985032978</v>
+        <v>19.47746814113743</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>40.11154358480445</v>
+        <v>41.22708704528222</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.27681841681584</v>
+        <v>47.37455015408521</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>4.502761486961056</v>
+        <v>3.896463631172114</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>32.28865329426942</v>
+        <v>33.47907048855584</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.68630374538257</v>
+        <v>39.47134918819336</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>10.79550393611296</v>
+        <v>12.13015175154602</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>61.23658469646723</v>
+        <v>59.11500782784324</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>75.17946793773999</v>
+        <v>70.04529885354594</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>73.24206680575023</v>
+        <v>72.04178929304049</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>85.04771841370206</v>
+        <v>83.45998692507322</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>87.30428107985644</v>
+        <v>88.07630504410574</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.74530057534605</v>
+        <v>27.5820508601992</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>71.3870307534595</v>
+        <v>71.24307819545697</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>73.27601751335607</v>
+        <v>77.156913672592</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3.010971466298844</v>
+        <v>1.137460159448381</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>18.39151730300159</v>
+        <v>18.33575760775317</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.12651808506666</v>
+        <v>29.24992093928076</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>3.146737450107825</v>
+        <v>1.857370428862701</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>38.23479844730655</v>
+        <v>36.08611069696808</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>39.04273301644294</v>
+        <v>38.97331769228528</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>10.33110414639653</v>
+        <v>11.62550297418557</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>64.7079583017574</v>
+        <v>60.10769207901604</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>64.32195470376521</v>
+        <v>63.93656597677283</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>53.82226718482123</v>
+        <v>51.83072348117271</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>66.76985719687838</v>
+        <v>55.0670754216967</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>69.46032705667295</v>
+        <v>58.23496379465193</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>4.756901626021286</v>
+        <v>5.027683421847819</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>6.543358014677128</v>
+        <v>16.67761090019363</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>7.092613626194677</v>
+        <v>26.24762872297211</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>13.82531183612422</v>
+        <v>14.23933515722736</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.88585868777162</v>
+        <v>47.49338817103413</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>45.06047502695657</v>
+        <v>49.86288917500157</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-0.506935172773634</v>
+        <v>-3.059959348427771</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>40.89471412295732</v>
+        <v>39.76628216321207</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>45.4329063848763</v>
+        <v>43.92084656388052</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.726577570737824</v>
+        <v>9.019437225083188</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>66.99960304664623</v>
+        <v>66.54915954221386</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>70.4915559297724</v>
+        <v>72.18570486917709</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>53.43750309904125</v>
+        <v>56.16264898277787</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.13927477368679</v>
+        <v>75.26110163425548</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>80.08086522043688</v>
+        <v>80.40775035548242</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.60613245996783</v>
+        <v>18.22126162501171</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>69.44949919999155</v>
+        <v>70.22888095467242</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>72.04281035105811</v>
+        <v>70.94968749664596</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>16.04052056331786</v>
+        <v>14.62330244148766</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.1849010444646098</v>
+        <v>-4.848820671267564</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>39.73735227215523</v>
+        <v>37.46933229079598</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.47618493106195</v>
+        <v>42.15274792535109</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.628824055524127</v>
+        <v>8.12599792607732</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>67.09571229159985</v>
+        <v>67.48984217676892</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>74.16478560718345</v>
+        <v>76.41920337897838</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>72.58862312832829</v>
+        <v>72.83866959408263</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>83.79555187580064</v>
+        <v>87.64372949172355</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>87.93311507639717</v>
+        <v>89.70075987091144</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.43671371863592</v>
+        <v>16.0875586321922</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>76.3155564563308</v>
+        <v>74.62535927059648</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>79.16237353106837</v>
+        <v>77.21652151260238</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.62959999058678</v>
+        <v>8.170850134941162</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>7.931643704304658</v>
+        <v>3.779845911543067</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8.858474666002373</v>
+        <v>9.01348295059138</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-1.747176296970043</v>
+        <v>-2.413671191830296</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>11.11321839322471</v>
+        <v>5.954083949105527</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>11.16250243258667</v>
+        <v>5.331206448386773</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.1364810113692805</v>
+        <v>0.5044555921604825</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.11436243718916</v>
+        <v>19.64691726747905</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.89025763585856</v>
+        <v>20.76531886558803</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>21.68763993260243</v>
+        <v>22.80879518145623</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.77911343404375</v>
+        <v>28.17035359369392</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.92657626880949</v>
+        <v>29.38262901044328</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>3.842893937732576</v>
+        <v>4.515530056477271</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>7.755190179022797</v>
+        <v>6.642688893306891</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>9.928899301901321</v>
+        <v>9.809406230022347</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>8.526173988813106</v>
+        <v>10.20660604889496</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.87110805960146</v>
+        <v>23.68034303221174</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.57560063949399</v>
+        <v>34.83338877911184</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-2.427570044972054</v>
+        <v>-1.593815315138631</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>15.62021695965935</v>
+        <v>15.04525267035494</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.18389298195327</v>
+        <v>29.25698644670997</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>7.653068962301148</v>
+        <v>6.06172209198435</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.9826687319705</v>
+        <v>34.21577800898933</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>52.23467390270079</v>
+        <v>51.4684828424782</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>34.01313877709967</v>
+        <v>33.88206567429754</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.00478240268485</v>
+        <v>50.96657056457826</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>56.96048725019959</v>
+        <v>57.23880616359983</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>8.053842208514951</v>
+        <v>9.051044390395624</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.0322837430233</v>
+        <v>41.24406696707386</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.12148816958242</v>
+        <v>50.41161054982086</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>9.457827240490751</v>
+        <v>9.988211922397509</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>30.42099980365593</v>
+        <v>28.54053928536819</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>38.47902257028266</v>
+        <v>39.90191400267423</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-1.341182738734002</v>
+        <v>-1.228400471535313</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.34809926837708</v>
+        <v>28.30558607804191</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.86782881003558</v>
+        <v>36.77412042309997</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>4.982096185329222</v>
+        <v>5.941661991778107</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.58737906836275</v>
+        <v>48.50528707253265</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>59.82201683282182</v>
+        <v>63.3573999962975</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>62.55114100894617</v>
+        <v>59.92364123986206</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>74.24361786826219</v>
+        <v>73.12113695979043</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>78.88297344918126</v>
+        <v>79.06104453590831</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>10.54425422522427</v>
+        <v>14.05139827355691</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>61.57274168690262</v>
+        <v>60.25357044661451</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>73.06067349331636</v>
+        <v>71.18614099391556</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>2.734947145421636</v>
+        <v>2.132324641561866</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>7.453797816938501</v>
+        <v>6.366328720547294</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>9.953559131526371</v>
+        <v>8.596089077292593</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-3.523808057061579</v>
+        <v>-3.785591343056524</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>6.214201615917407</v>
+        <v>9.450492671134343</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>9.529248689216296</v>
+        <v>9.452635239548945</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-3.20899837417414</v>
+        <v>-6.56459028363534</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.72293081133601</v>
+        <v>20.45674305392996</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>14.97723349346913</v>
+        <v>19.51550239146569</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>14.56521500229886</v>
+        <v>14.94864186980174</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.55991994258733</v>
+        <v>18.23680858870748</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.47724085379008</v>
+        <v>21.96903459355819</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>4.033519468886023</v>
+        <v>0.4404761691684804</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>11.86469411262791</v>
+        <v>6.285968337109853</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>11.84357812102226</v>
+        <v>9.208583059190305</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>4.148027846197408</v>
+        <v>2.921005629297177</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>8.927366550867919</v>
+        <v>9.014072607659871</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>17.72899641953557</v>
+        <v>16.04605885989644</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-3.843646343738762</v>
+        <v>-2.975451069234115</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-2.577038237379828</v>
+        <v>1.661831780591129</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>10.92308752642908</v>
+        <v>13.00575562565497</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-1.628429716141937</v>
+        <v>-4.442858362966014</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>8.990079462931632</v>
+        <v>16.0057363592262</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.14341333835976</v>
+        <v>29.00060228802953</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.64475260248473</v>
+        <v>16.31282031231163</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.29073951255274</v>
+        <v>30.80520727903749</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>41.77736014231779</v>
+        <v>41.21876754750525</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-2.841939588450956</v>
+        <v>-0.6523177373403648</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>12.69230613005392</v>
+        <v>16.9459964656825</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>13.93536725406017</v>
+        <v>20.58005796652681</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>5.055847770076326</v>
+        <v>3.712345598840788</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>10.81096280602674</v>
+        <v>10.34191081119675</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>30.6925466074731</v>
+        <v>25.21838654470271</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-4.696454716834925</v>
+        <v>-4.202521925566053</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>1.211777026841816</v>
+        <v>5.747298802972502</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>23.99693874738253</v>
+        <v>21.99517983226732</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-0.980072234054095</v>
+        <v>-2.592264328872346</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.65076052923371</v>
+        <v>25.66643090803202</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>52.00225192058043</v>
+        <v>46.34566583115895</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>20.498846800612</v>
+        <v>33.53112949319674</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>47.32682074719941</v>
+        <v>46.46126097005212</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>66.19113717167851</v>
+        <v>61.26856262729519</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-3.517269861701553</v>
+        <v>0.5674586545904035</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>12.08047322221095</v>
+        <v>26.59949840218143</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>23.76751857089695</v>
+        <v>39.49460261131553</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>7.33003141844863</v>
+        <v>5.930188078511947</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.76377400541331</v>
+        <v>24.77878395288455</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.35550957834703</v>
+        <v>40.44554584245704</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>3.949096722864507</v>
+        <v>-0.4544079441040338</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>44.40440006201813</v>
+        <v>44.24937880041024</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>48.56361110830262</v>
+        <v>50.13044388545097</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>5.972307652518957</v>
+        <v>8.076768560117998</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>65.53771242556405</v>
+        <v>64.88946528165158</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>69.12027878501993</v>
+        <v>72.4662122665024</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>62.84463952208989</v>
+        <v>66.52287431942833</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>70.63321465659016</v>
+        <v>72.96941245920365</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65.84093147997453</v>
+        <v>72.23701647065431</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.68970167013792</v>
+        <v>11.93467784109282</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.17654263502028</v>
+        <v>38.9817309092779</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>67.39146009712425</v>
+        <v>60.43028552226718</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>9.762546486120986</v>
+        <v>11.00487747010983</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>34.5636484302705</v>
+        <v>34.45342530488259</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>37.32759222517122</v>
+        <v>38.75560802964517</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-1.504480732831002</v>
+        <v>-3.943373409097525</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.29301829783117</v>
+        <v>29.26645268868611</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.38041307543924</v>
+        <v>34.3702348517771</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>4.187509634007043</v>
+        <v>3.821901885649469</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>52.77761878605158</v>
+        <v>51.50518960400697</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>56.92750619569355</v>
+        <v>59.56221470005008</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>48.97607588837943</v>
+        <v>49.88417949590573</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>58.65475911193224</v>
+        <v>61.25793950443351</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>63.14501747314632</v>
+        <v>65.06602833000221</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>15.29170758403876</v>
+        <v>13.59758166441675</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>57.74261002321165</v>
+        <v>56.18910822593615</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>58.87749358599042</v>
+        <v>60.50057850881124</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>12.16341585107758</v>
+        <v>10.4848719838577</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>36.06616400783384</v>
+        <v>35.37216226666953</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>42.88302634771389</v>
+        <v>43.35145501909206</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1.333276125805376</v>
+        <v>-2.855738447362462</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>39.45998153722195</v>
+        <v>38.13924703655209</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.80875344496317</v>
+        <v>41.95563845153598</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>7.905613548742419</v>
+        <v>6.703228319928964</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>62.63648520552538</v>
+        <v>63.13863843669038</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>70.70240499707316</v>
+        <v>73.25117391125579</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>70.72020521114283</v>
+        <v>71.6605589830007</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>80.41072443765259</v>
+        <v>82.4583329519993</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>83.57877917030962</v>
+        <v>84.64208867812434</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>13.94222171536892</v>
+        <v>14.21281815005732</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>70.64672495621822</v>
+        <v>70.75442767196948</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>79.35488466054493</v>
+        <v>77.85209433287541</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>3.915189611868076</v>
+        <v>5.137399728643604</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>12.80215422122816</v>
+        <v>7.096475606711749</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>12.82216190876245</v>
+        <v>11.37816838472293</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1.437056546317919</v>
+        <v>-1.279389202600825</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.885692563659349</v>
+        <v>3.304329230171469</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.20744912095734</v>
+        <v>6.542632648426066</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.2493321414726992</v>
+        <v>-0.4099702111619763</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.80555195463432</v>
+        <v>16.61364592295582</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.26416082909834</v>
+        <v>19.87874684843727</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>17.94262777539803</v>
+        <v>17.23531057003437</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.46083828833801</v>
+        <v>21.50499003363835</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.35380938391495</v>
+        <v>23.15131539842386</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2.141622317321342</v>
+        <v>2.316345798184379</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>12.92512020115301</v>
+        <v>10.41466001137539</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>12.19686465755398</v>
+        <v>9.113089555508441</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>5.137759009856392</v>
+        <v>5.046834888557765</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>14.99181682229388</v>
+        <v>12.50648824473311</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>27.92576424239533</v>
+        <v>28.32015453275805</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1.769789044242241</v>
+        <v>-2.718963024661448</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>5.866753149508931</v>
+        <v>1.649955291618994</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.64699816310704</v>
+        <v>23.31138715644398</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>1.565465425851922</v>
+        <v>-1.262193794859105</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>12.57845404141178</v>
+        <v>13.47707378885246</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>42.02795333992444</v>
+        <v>37.66982375084707</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>16.62355841067157</v>
+        <v>16.99534384299668</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.94849372865865</v>
+        <v>28.88089094132225</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>41.38708306680223</v>
+        <v>41.38917373336469</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>-0.1423199229844201</v>
+        <v>-1.487936618054018</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.9617787645555</v>
+        <v>20.81181356440522</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.51417459062386</v>
+        <v>34.64541630724362</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>11.29090909113543</v>
+        <v>9.992406849392998</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.32272526064261</v>
+        <v>19.43319036273544</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>37.31622599957829</v>
+        <v>36.97211633962318</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>3.64211886218402</v>
+        <v>3.177662728975069</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.54701166611778</v>
+        <v>15.10142211266824</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.67127327379123</v>
+        <v>34.04838218432701</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>8.717791961125464</v>
+        <v>5.625567947523944</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.17719840491272</v>
+        <v>29.65876033563846</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>54.57694159561909</v>
+        <v>55.07887397650914</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.13217965369118</v>
+        <v>36.10484540365053</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>43.12836153702953</v>
+        <v>43.67400390247032</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>69.14214364471982</v>
+        <v>69.2439813529361</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.73892357576552</v>
+        <v>7.681026896330607</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>39.91927096070009</v>
+        <v>37.74648362727302</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.34366595971001</v>
+        <v>54.22856206100666</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>3.185019421441876</v>
+        <v>-3.836848328018924</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>3.890913671574609</v>
+        <v>2.623403974608198</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>8.314852912998919</v>
+        <v>4.833167121129987</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-2.493852504431207</v>
+        <v>-7.571436811936714</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>2.448469621778589</v>
+        <v>2.404162643789579</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>3.47718069243113</v>
+        <v>2.595541683272145</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>2.147517624589451</v>
+        <v>-5.789644610943952</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.50230924089253</v>
+        <v>21.67086743475334</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.12090509600128</v>
+        <v>20.54485988351666</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>3.300161692612473</v>
+        <v>20.08189933067721</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>3.700741104931573</v>
+        <v>20.57552565432003</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>18.05046268196696</v>
+        <v>20.67575728927721</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-4.636063609780699</v>
+        <v>-6.4633522230965</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-5.189113789981754</v>
+        <v>0.893921138543341</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>-0.8367712276545838</v>
+        <v>-1.756952595053129</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.30792178578056</v>
+        <v>13.15172656762974</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>37.22862092897346</v>
+        <v>37.84427840252773</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.87887409857028</v>
+        <v>38.50136182847542</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>2.141529420322136</v>
+        <v>-0.2807233776853622</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.9909021918247</v>
+        <v>27.64116524490779</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.57434444938077</v>
+        <v>32.5024877011796</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>7.490110055293439</v>
+        <v>8.784367427961637</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.75511288046394</v>
+        <v>51.03425648412012</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>55.30478586062316</v>
+        <v>56.6394865370064</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.67889234562073</v>
+        <v>47.84001441493957</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>58.35561970830196</v>
+        <v>61.85887559654455</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>62.47018143767212</v>
+        <v>63.49116573256775</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>13.33413489680532</v>
+        <v>11.93329566433894</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>54.13523648699751</v>
+        <v>53.32848650681886</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>52.7117003651117</v>
+        <v>51.89261984338555</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>17.02159282583774</v>
+        <v>15.06055537397719</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>39.80234231148472</v>
+        <v>40.06657423583948</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>45.40536475265572</v>
+        <v>45.1958280225284</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.576784117052721</v>
+        <v>-1.702657531201073</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.46058836327244</v>
+        <v>31.52666341753329</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.37733277001924</v>
+        <v>35.61897603288547</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>8.065109405760655</v>
+        <v>8.819406514913929</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>62.78104558677866</v>
+        <v>58.75895866765995</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>68.04268635963655</v>
+        <v>67.62281591595321</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>67.82062566976585</v>
+        <v>67.06450441900128</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>78.11490831687587</v>
+        <v>78.42029850256719</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>83.56204351170376</v>
+        <v>82.83831081105814</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.49150897106093</v>
+        <v>14.37319693630185</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>68.13896490916201</v>
+        <v>66.77124291454703</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>70.8410604515737</v>
+        <v>67.7714980902245</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>8.984986453070331</v>
+        <v>10.86168825079464</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>15.72881755123951</v>
+        <v>12.35914488016359</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>17.03728567561922</v>
+        <v>17.14761746972579</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>2.164374592786469</v>
+        <v>3.204347955550222</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>16.02135751954938</v>
+        <v>10.37679564605408</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>14.42649192210005</v>
+        <v>13.36444092716074</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>5.869078113866451</v>
+        <v>4.382150167863287</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>27.15109690604235</v>
+        <v>24.6420823180974</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.91773406424277</v>
+        <v>26.98598371645687</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.26493626675503</v>
+        <v>24.30769854330756</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.09318880418563</v>
+        <v>28.95925729850402</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.31105776601717</v>
+        <v>29.35917733401428</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>10.02446725896029</v>
+        <v>11.07340262332305</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>16.08768908461528</v>
+        <v>17.51724851541096</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>16.61171530891615</v>
+        <v>19.75034244792123</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>5.337433652060604</v>
+        <v>5.709318367507141</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>12.15810241549937</v>
+        <v>10.3040662052565</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>20.68334570776578</v>
+        <v>19.64717957918289</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-5.026766321355893</v>
+        <v>-3.660152361372536</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1.480159326769623</v>
+        <v>-0.8855041502637349</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>15.15760660808689</v>
+        <v>13.07052221179466</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-4.34859343033289</v>
+        <v>-3.931251298293454</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>9.622232547169553</v>
+        <v>10.7339598141942</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.09692389860063</v>
+        <v>26.08032307444442</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.7859489624484</v>
+        <v>14.22317780254554</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>20.0263435239217</v>
+        <v>21.05212202988183</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.13594213013985</v>
+        <v>28.68876451478939</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>-3.514978613399606</v>
+        <v>-2.328654377473065</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>14.29815745478437</v>
+        <v>12.30089967407952</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>21.3985874853327</v>
+        <v>20.0531733587607</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>14.53891776072331</v>
+        <v>16.16222268732939</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.22302819098974</v>
+        <v>27.28694582070934</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.06630540202907</v>
+        <v>33.39389511284097</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>0.5426489463820268</v>
+        <v>-0.01478852393902486</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.35448868707869</v>
+        <v>17.0955071355614</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.42238573967619</v>
+        <v>21.87570912809408</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.598761472520188</v>
+        <v>6.648267846476951</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>41.02212987715911</v>
+        <v>37.85633872426286</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>49.4125286732236</v>
+        <v>48.26938535567534</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>46.2957541146536</v>
+        <v>44.26442262644581</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>48.42827238408992</v>
+        <v>48.61979472894566</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>63.30845961352148</v>
+        <v>57.79523871281462</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>13.90891980067359</v>
+        <v>9.875657950884971</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>40.86087616063817</v>
+        <v>39.6905014525712</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>44.75392348842821</v>
+        <v>43.61396112672051</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>5.16900079902446</v>
+        <v>6.197958943661121</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>6.029618139291731</v>
+        <v>1.807355159951488</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>5.429027760726449</v>
+        <v>1.838221538709874</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>1.531701787485765</v>
+        <v>5.178523657099795</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.375504856949828</v>
+        <v>-1.342083874633545</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>0.9325145814357434</v>
+        <v>-0.7203100984399597</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.95239249155145</v>
+        <v>0.8606587166204882</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.048576176797308</v>
+        <v>8.012847775068357</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>4.563829745915069</v>
+        <v>6.811244893253082</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>0.4153873247803652</v>
+        <v>5.394011861258793</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.945482596443334</v>
+        <v>4.636852529474817</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>7.531387676404727</v>
+        <v>5.666005551830548</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>4.951285891283874</v>
+        <v>6.961685736104982</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.063150905391847</v>
+        <v>4.877100881269728</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>6.234297466270654</v>
+        <v>1.049616105363004</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.104193636995234</v>
+        <v>3.252478618413743</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.780335541285929</v>
+        <v>3.424629265450985</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>7.74983676012582</v>
+        <v>7.596625935099468</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-3.351367248569527</v>
+        <v>-0.002388012909033677</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-3.70043465385001</v>
+        <v>-4.7874335497944</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>1.332741400162693</v>
+        <v>3.721067715378254</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-4.286185426319186</v>
+        <v>-3.947349503783396</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.4530414983016122</v>
+        <v>2.820105185020328</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.829744002675938</v>
+        <v>11.53440000231359</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>3.176472940674664</v>
+        <v>3.041900240579654</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>6.987090095294878</v>
+        <v>7.85870789172853</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>7.316204481075292</v>
+        <v>10.53861103599426</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-4.609076422767821</v>
+        <v>-3.629276463597613</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>3.471568096419762</v>
+        <v>3.176174157227557</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>4.324255718675307</v>
+        <v>3.646489565525368</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>14.80948940650539</v>
+        <v>17.78613950468572</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.38029341461313</v>
+        <v>20.89098048503201</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.85842226523634</v>
+        <v>25.90950505578955</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>4.006192705460887</v>
+        <v>4.540245209957723</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.86503302326889</v>
+        <v>9.102272712891452</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>15.89011677460143</v>
+        <v>13.61012147475901</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>6.992886031933516</v>
+        <v>7.864221318750957</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.71649211025544</v>
+        <v>26.73683416877118</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.20802762590007</v>
+        <v>35.09492932778242</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>32.39121060414234</v>
+        <v>30.36193104760714</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.80001174816311</v>
+        <v>32.47008414092429</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.27507481735086</v>
+        <v>39.94176550632557</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>20.53657993360796</v>
+        <v>13.74098337303073</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.37886440778494</v>
+        <v>28.28186599597495</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>31.55343110835838</v>
+        <v>30.30085226342547</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>20.13413489250344</v>
+        <v>21.72508016919692</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.85915826409964</v>
+        <v>30.1884563028674</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.72912142553952</v>
+        <v>36.66003726094405</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>3.060267856158376</v>
+        <v>3.824806963187315</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.85405577466744</v>
+        <v>23.93429784931277</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.45686134945694</v>
+        <v>27.35157639929244</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>13.09939069836176</v>
+        <v>14.15862137649287</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>45.76072548772261</v>
+        <v>45.89592427566322</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>48.57789628555839</v>
+        <v>49.45888233844506</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>43.29178433175105</v>
+        <v>42.63785624268962</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>50.48625017559303</v>
+        <v>49.77822155013871</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>53.30513199528821</v>
+        <v>52.85816855650426</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.48457705095711</v>
+        <v>29.17058016861728</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>56.91869084120106</v>
+        <v>45.19554874113395</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>58.92875716048951</v>
+        <v>56.28181134574474</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.55291710852423</v>
+        <v>15.51560645694988</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.70086713459317</v>
+        <v>26.88510824302541</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>30.85542937097005</v>
+        <v>35.23917401308704</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-4.123067942257144</v>
+        <v>-3.346213688834187</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>8.019222539199955</v>
+        <v>8.285584811633358</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>15.46544289740711</v>
+        <v>18.58758814617757</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>3.048470126357962</v>
+        <v>3.130699899007212</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.58778227992298</v>
+        <v>28.32379836229066</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>37.73542460535135</v>
+        <v>41.87451450465645</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.34414837148286</v>
+        <v>29.35812589589049</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>39.25596324764606</v>
+        <v>41.40172860006768</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>45.26286405584665</v>
+        <v>46.2292587125425</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>15.3116264106385</v>
+        <v>11.98261734205301</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>43.52906136523474</v>
+        <v>38.99237209278793</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>49.59478973165883</v>
+        <v>45.11423193370311</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>18.94458804581032</v>
+        <v>22.72665912703035</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>35.2983453524426</v>
+        <v>37.57766231283604</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>44.54260913900224</v>
+        <v>46.469601192996</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>2.101177209671313</v>
+        <v>1.234497563391109</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.64895492304418</v>
+        <v>22.40306988255515</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>30.07359176214603</v>
+        <v>28.25560941106095</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>10.09354352430991</v>
+        <v>10.9261570780969</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>48.31785932688024</v>
+        <v>48.26811083369613</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>61.00663886723677</v>
+        <v>60.86883888921583</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>61.98451115696012</v>
+        <v>59.79328868889171</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>71.37569524390621</v>
+        <v>68.05266802519395</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>77.23096648456026</v>
+        <v>70.8947986277731</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.56139223632606</v>
+        <v>19.19846087484071</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>58.33559329523315</v>
+        <v>57.64550859411647</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>70.05237882279538</v>
+        <v>66.21475796815037</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>13.52951099466613</v>
+        <v>12.50159108795086</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>32.83524032141334</v>
+        <v>32.92174226181592</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>37.76027918223701</v>
+        <v>40.73113362892664</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>5.231435392653832</v>
+        <v>5.503059303920544</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.01238293400135</v>
+        <v>34.72497727524473</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>42.0626172802835</v>
+        <v>41.73760032291618</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>12.44998781107533</v>
+        <v>13.18315427892413</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>58.84122929000997</v>
+        <v>56.08763924288046</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>62.52807095136507</v>
+        <v>61.91986502374385</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>59.89159530931305</v>
+        <v>58.90253951213051</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>67.98480464323278</v>
+        <v>66.36157933903041</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>67.87008230993749</v>
+        <v>66.69102081941597</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.85258215032874</v>
+        <v>13.02863621321722</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>41.89460971268314</v>
+        <v>42.98185833204302</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>50.35046089570614</v>
+        <v>51.02376849934838</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.82207787608173</v>
+        <v>10.28516684375406</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.0095670829317</v>
+        <v>30.5655562304666</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.80296624849899</v>
+        <v>38.92236409115376</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>3.480591931177827</v>
+        <v>1.443572775555452</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.69095969926714</v>
+        <v>23.17377410637758</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.66845085085718</v>
+        <v>36.76900005748131</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.492517316944959</v>
+        <v>7.042432278679005</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>41.31059187020344</v>
+        <v>40.52573823186937</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>54.1284491851319</v>
+        <v>55.47515827521317</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>45.78124699471385</v>
+        <v>44.52248142724557</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>53.37054707263596</v>
+        <v>55.6059617084798</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>60.44255595741001</v>
+        <v>62.04956509402378</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.939405806408363</v>
+        <v>6.790911362940244</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>49.29843082521697</v>
+        <v>45.77202555330217</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.77190132459312</v>
+        <v>54.17063956339308</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>8.974160188956567</v>
+        <v>9.172485220913314</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.80271800724469</v>
+        <v>30.08789142343435</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>39.86847298004443</v>
+        <v>43.11436272202756</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>3.299036807191801</v>
+        <v>-0.8332141611270032</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>30.23889535733176</v>
+        <v>26.89843068371169</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>41.35341140127816</v>
+        <v>41.10129826205165</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>8.049293285748245</v>
+        <v>5.888381119600858</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.60334324005526</v>
+        <v>47.09189315727944</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>65.98067979496213</v>
+        <v>66.96468768928207</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.91507428822408</v>
+        <v>56.21359240974895</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>68.39573294475994</v>
+        <v>68.14874726539658</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>84.15775635800266</v>
+        <v>83.41112802419991</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>5.751879784373696</v>
+        <v>5.367544536557418</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>56.97576391824408</v>
+        <v>55.20389414952098</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>67.82380108598645</v>
+        <v>67.38519436834095</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.283759504164912</v>
+        <v>8.565784467053287</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.90331149622679</v>
+        <v>26.92025290709483</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>34.23473143514443</v>
+        <v>35.95559495560819</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>3.421113951894068</v>
+        <v>3.492361497807188</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>40.21103403948398</v>
+        <v>41.23208721344176</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>47.67483004373231</v>
+        <v>45.50463609842524</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.652650208268369</v>
+        <v>9.902312159541161</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>64.688964259702</v>
+        <v>59.62253834072216</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>67.00374972417369</v>
+        <v>63.88672248938635</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>62.59881606797848</v>
+        <v>54.85624935860538</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>64.71005785781537</v>
+        <v>61.54125914069221</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>63.73263591726931</v>
+        <v>63.32352025603329</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>9.820049814363838</v>
+        <v>9.183859673145232</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.78001927438471</v>
+        <v>34.89386855406132</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>63.08506732937856</v>
+        <v>53.02502050849915</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>12.20544519203501</v>
+        <v>11.04853527597965</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.67501186247728</v>
+        <v>32.70837677362243</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.17239262855381</v>
+        <v>39.01931369790831</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>0.6044286159895584</v>
+        <v>-1.35209367762948</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.80429277184479</v>
+        <v>25.46016514951754</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.64324790433631</v>
+        <v>34.41700547216331</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>2.069535820696927</v>
+        <v>2.848061173236811</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.46427163567526</v>
+        <v>44.6442937991086</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>56.09683646118609</v>
+        <v>56.13207075461051</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>45.01741578697667</v>
+        <v>45.32147185121386</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>56.26109045529294</v>
+        <v>59.75756070319786</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>64.17855414987659</v>
+        <v>66.23831286370708</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>9.875223418339827</v>
+        <v>8.414218819571502</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>51.9079234182792</v>
+        <v>49.97112011988713</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>57.58080873724658</v>
+        <v>55.57496330150237</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>12.61745950993649</v>
+        <v>11.15169262179335</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.5019511545155</v>
+        <v>34.93277292852582</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.44568922907659</v>
+        <v>42.30219443799139</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>2.203602439017054</v>
+        <v>-0.7045625018783355</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>33.83311852834484</v>
+        <v>33.3736344484871</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.14237771354694</v>
+        <v>38.69058312853332</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>4.155412619804309</v>
+        <v>4.279614558538103</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>56.87918564083499</v>
+        <v>55.58756374026469</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>69.46272434628247</v>
+        <v>67.00646029707431</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>69.05368260993194</v>
+        <v>67.93845134790701</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>81.4687478895263</v>
+        <v>79.56111745516186</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>84.57602341260304</v>
+        <v>83.21033229868634</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>8.759149011179662</v>
+        <v>10.81832901539184</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>64.15807645044291</v>
+        <v>64.49172042215322</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>70.58120434949208</v>
+        <v>72.32766207026171</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>15.47784173512309</v>
+        <v>14.40037984611437</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>23.24849026662401</v>
+        <v>29.99269661704643</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.26952788755148</v>
+        <v>34.7854302869857</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>12.85696710126228</v>
+        <v>15.15872483256355</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>48.886074662428</v>
+        <v>47.44817469315251</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>55.09829686124345</v>
+        <v>50.08139326233666</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>16.058049852555</v>
+        <v>17.98853659913619</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>68.14244510738038</v>
+        <v>60.17633327111295</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>72.79592075193426</v>
+        <v>62.14253755980452</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>59.87825822621316</v>
+        <v>49.62508762196796</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>60.01486612119121</v>
+        <v>54.62273598146763</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>63.01980565457938</v>
+        <v>59.27094930289197</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>16.8390930753902</v>
+        <v>17.93882642760897</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.84236023466521</v>
+        <v>35.5466267168737</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>50.48230624762622</v>
+        <v>52.57326452258165</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.45630682810593</v>
+        <v>20.11227340827991</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.63086865622941</v>
+        <v>37.20575706051073</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.207139369742</v>
+        <v>41.97577919119824</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>35.48799718866275</v>
+        <v>24.13369319530496</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>49.45955164810064</v>
+        <v>45.34363095125008</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>59.99632131453702</v>
+        <v>53.53485228731673</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>12.27168796661369</v>
+        <v>14.75789361608441</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>49.04673524947621</v>
+        <v>49.58845558513222</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>62.14914486055309</v>
+        <v>59.46396410261237</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>47.48930309478671</v>
+        <v>47.91549654250622</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>56.36994946946225</v>
+        <v>61.01373835234462</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>61.89054081749614</v>
+        <v>68.49477241361754</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.94872092384933</v>
+        <v>20.54335910760733</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>52.9178502162523</v>
+        <v>52.47012225333196</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>58.9327030544375</v>
+        <v>57.0408463207013</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.03881154804645</v>
+        <v>19.93890657448635</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>39.24691740393513</v>
+        <v>38.64063785697005</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>44.72868184756779</v>
+        <v>42.72689827873398</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>36.07300644876583</v>
+        <v>25.30391788644946</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>56.61568710857088</v>
+        <v>51.8112356993968</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>60.74361614056419</v>
+        <v>55.36591592435543</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>16.62655222133894</v>
+        <v>17.57099162238484</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.54260546660726</v>
+        <v>60.49260751608737</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>72.69912272458015</v>
+        <v>69.24563547704537</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>77.74388895730209</v>
+        <v>71.34912817417016</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>80.6484955172107</v>
+        <v>79.10567010905308</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>84.52113638168458</v>
+        <v>85.01405527782759</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.2288274574564</v>
+        <v>26.28642077229904</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>65.72951508529054</v>
+        <v>66.62015744692512</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>75.7193795724736</v>
+        <v>74.54870294267437</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>8.020178491017194</v>
+        <v>8.639953266967165</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.29705819255875</v>
+        <v>28.4054212369178</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.28022184632755</v>
+        <v>35.87339260716182</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>2.08543795844259</v>
+        <v>0.01684583147623187</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.52819915420098</v>
+        <v>29.17251605640271</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>35.72072743394234</v>
+        <v>32.99370897672829</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>8.550938019737124</v>
+        <v>9.000312787081143</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>54.33993829992338</v>
+        <v>53.68104248447398</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>57.03924052873268</v>
+        <v>57.14403626344728</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>61.07521197212568</v>
+        <v>57.52688553345535</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.40936825127432</v>
+        <v>62.33007900484849</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.49488647940004</v>
+        <v>63.63029107076444</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>6.368421294136212</v>
+        <v>6.456327768630477</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.73384719782874</v>
+        <v>37.86645547276868</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.62179410899589</v>
+        <v>44.49264922438266</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>10.48555959812201</v>
+        <v>11.14417084893308</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.99655379563914</v>
+        <v>32.96850096315193</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.863483026157</v>
+        <v>38.36393356563581</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>1.332683945708855</v>
+        <v>0.2909904618741166</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.06664014995086</v>
+        <v>24.44286607695253</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>32.82217496438705</v>
+        <v>33.05016241177903</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>6.581984033198982</v>
+        <v>4.630149156271113</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>45.06440377231908</v>
+        <v>42.38706731222692</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>53.83038600157123</v>
+        <v>54.189843468349</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>45.86114649492291</v>
+        <v>43.55315067215965</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>56.15948849655398</v>
+        <v>56.60828151661246</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>61.1067336658997</v>
+        <v>60.92147967196757</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>7.295381276044914</v>
+        <v>4.067124614985444</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>46.31007005614958</v>
+        <v>43.86735842856543</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>54.34012254654857</v>
+        <v>50.82827871016449</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.519779174710447</v>
+        <v>10.73057586358149</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>31.09371221641857</v>
+        <v>32.50347520996134</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>41.56264175951931</v>
+        <v>43.35986033050484</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-0.7423508588892034</v>
+        <v>-2.418053713168284</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.40645565631822</v>
+        <v>26.56142339584485</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.57357195881058</v>
+        <v>36.40677213981871</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3.657974797378927</v>
+        <v>3.12858224597484</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.30306616083525</v>
+        <v>47.76447368203879</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>64.82205143302619</v>
+        <v>64.86892671780819</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>59.09622266772283</v>
+        <v>58.17650179112682</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>74.04305585037923</v>
+        <v>73.43033736974945</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>83.53403010936992</v>
+        <v>83.05315468993689</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>5.245307213059437</v>
+        <v>5.41399262926403</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>59.77112528407528</v>
+        <v>57.56461268954964</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>69.47866893849081</v>
+        <v>69.55977427333775</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>11.77450354700852</v>
+        <v>12.22465572388977</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>15.54719603459141</v>
+        <v>11.73550830178331</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>18.17526432392685</v>
+        <v>15.69203562436149</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>4.552886271038979</v>
+        <v>3.194126616387692</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>14.45756289407795</v>
+        <v>11.33782524841185</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.23672904796656</v>
+        <v>12.36372323654004</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>7.978515900818259</v>
+        <v>8.010255103290778</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.81274290639534</v>
+        <v>26.53346373315375</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.90840566592565</v>
+        <v>28.08309056493593</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.43200547528395</v>
+        <v>23.63690998801263</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>27.32193463550426</v>
+        <v>27.47858378889336</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.19359646895037</v>
+        <v>30.04261730551418</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>11.66091609645006</v>
+        <v>9.940751478178424</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.13414883653621</v>
+        <v>13.2330491494694</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.88808020861357</v>
+        <v>19.91246227706609</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>7.907587566425349</v>
+        <v>9.295862563343732</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.47607028506881</v>
+        <v>18.90405304795046</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.7015438735888</v>
+        <v>32.00422904832362</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>0.4167759650343257</v>
+        <v>-1.066624533733904</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.14442541697172</v>
+        <v>8.074886311128676</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.58802617573842</v>
+        <v>25.86783905376539</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>4.679735545756397</v>
+        <v>2.449749331533845</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.58782870931514</v>
+        <v>23.08640521146571</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.51173749730046</v>
+        <v>43.30387547333252</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.65551003437615</v>
+        <v>26.54624990176892</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>38.05777683418597</v>
+        <v>39.0172931499546</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>50.92570061406045</v>
+        <v>50.64939134709095</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>4.962092522065561</v>
+        <v>5.141255099080549</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>32.80342336288149</v>
+        <v>29.93682304786173</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.4332312475573</v>
+        <v>44.02872688253578</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.30127173164262</v>
+        <v>15.57863923574494</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.46148199578723</v>
+        <v>27.68528167266833</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>39.00063453522494</v>
+        <v>41.77724972310236</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>3.813153696590213</v>
+        <v>2.358537320218204</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>23.21190757601737</v>
+        <v>19.63965796099889</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.26182174358308</v>
+        <v>33.98525791424166</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>8.821993077969907</v>
+        <v>7.212724570070783</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>39.10682146268866</v>
+        <v>37.8833192176754</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>57.08348012497452</v>
+        <v>57.62314466947985</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>48.65995707124718</v>
+        <v>47.09865832094879</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>56.68186174642221</v>
+        <v>55.81928712435903</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>68.71119904025369</v>
+        <v>67.41920033425042</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>4.826583836975278</v>
+        <v>7.290567125494238</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.44563633923219</v>
+        <v>42.51864717327233</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>63.34420463551508</v>
+        <v>61.50792052550883</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>14.34360821638027</v>
+        <v>12.58575900971285</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>19.9753499555495</v>
+        <v>23.33316511020894</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.71941418309858</v>
+        <v>27.59978978934834</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>3.936915011908024</v>
+        <v>2.641019741426071</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.63766076434955</v>
+        <v>27.90548983601078</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>31.49878201225168</v>
+        <v>30.52820112467333</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>13.21369784138508</v>
+        <v>9.978951796465914</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>46.798279199455</v>
+        <v>45.12075929602275</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>48.65653911084639</v>
+        <v>47.19148785877968</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.27142805805902</v>
+        <v>35.68342175832557</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.91344369325736</v>
+        <v>41.89043593470778</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>45.40864649289245</v>
+        <v>46.98942609635892</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>12.10588487755968</v>
+        <v>13.72625466303087</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.81672966965002</v>
+        <v>29.60737684384485</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>42.98510931894467</v>
+        <v>44.29297032414307</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>9.860125892632805</v>
+        <v>10.36607052094711</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.57260625193059</v>
+        <v>23.9159642044137</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>34.90007853269793</v>
+        <v>34.21817460029087</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>4.036653158678764</v>
+        <v>4.101190385776576</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>20.74619632309075</v>
+        <v>19.7630088689127</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>40.80993450015277</v>
+        <v>34.54588049396406</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>0.01110005523682389</v>
+        <v>2.220455953120442</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>31.16234822056728</v>
+        <v>31.24970647391419</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>53.27317252149219</v>
+        <v>47.3702725669815</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.3030827325453</v>
+        <v>30.40927596610432</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>41.49741776931941</v>
+        <v>44.53257357428576</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>58.44654786136215</v>
+        <v>56.16422262710226</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.585892269569655</v>
+        <v>6.214313304404694</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>38.76386997420358</v>
+        <v>36.62840046353595</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>49.96540003517714</v>
+        <v>45.76805358873865</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>13.01232629692156</v>
+        <v>9.80593140172312</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.83071639440737</v>
+        <v>25.243502301819</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.83995831645701</v>
+        <v>33.87994735692499</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>4.742280695432015</v>
+        <v>2.990770115215518</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.93426763915602</v>
+        <v>24.74799456959822</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>35.36535147168461</v>
+        <v>33.5696774314725</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>5.095199168726314</v>
+        <v>2.17765277693313</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>43.43636728015714</v>
+        <v>39.89101534942297</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>56.19254562753454</v>
+        <v>53.74746489025559</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>53.67579402942211</v>
+        <v>50.65022719876002</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>58.67195201362721</v>
+        <v>58.06094864359444</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>71.04388315053546</v>
+        <v>67.88008896884077</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>4.543143620782839</v>
+        <v>8.042031932573419</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>38.74934531733568</v>
+        <v>45.57930828144742</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>58.40354202854317</v>
+        <v>58.47521437179942</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>15.42448704760222</v>
+        <v>14.18981501620774</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.96202136424614</v>
+        <v>28.30454962041413</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.1633605897785</v>
+        <v>38.01175599042027</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>5.515909961014909</v>
+        <v>5.571464577546525</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>41.13533111906253</v>
+        <v>42.21884845241642</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>46.54112100852416</v>
+        <v>47.37071301964851</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>15.49314481946769</v>
+        <v>15.31577274389405</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>63.9781187681183</v>
+        <v>61.90966052348856</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>65.65948948636765</v>
+        <v>67.45122241797722</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>60.67375195367702</v>
+        <v>63.79383032711346</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>59.46908366555112</v>
+        <v>62.2319357345058</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>63.34614610284595</v>
+        <v>67.37322014572945</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>15.63689851099111</v>
+        <v>11.65180150708714</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>22.06003708653167</v>
+        <v>26.71068171228436</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>63.89643852085364</v>
+        <v>54.99945342596828</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.26707955870512</v>
+        <v>21.76775834507983</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.75775474586712</v>
+        <v>38.65303858075672</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.23417166288451</v>
+        <v>39.78793274114856</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>5.699830865092089</v>
+        <v>5.73597479799885</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.0839340965684</v>
+        <v>31.41422274144774</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.26346427162228</v>
+        <v>35.91912878430828</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>12.54634252009692</v>
+        <v>11.75098320240687</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>48.88725265584169</v>
+        <v>50.47915973390118</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>53.82205332741607</v>
+        <v>56.88715323572822</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>51.59353194149892</v>
+        <v>51.68001438940755</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>56.8430724044177</v>
+        <v>60.65364577089951</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>58.23998496849029</v>
+        <v>63.91936987441459</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>21.9679741671463</v>
+        <v>19.77466187394782</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>52.99628989469575</v>
+        <v>51.29635715031536</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.81466180658309</v>
+        <v>56.99696944412991</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.22649087916451</v>
+        <v>20.19427521558839</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>39.70019886307831</v>
+        <v>39.07023065471179</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>44.66273286507042</v>
+        <v>43.79491867244199</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>4.504861556164546</v>
+        <v>4.514747352620034</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.16060701638636</v>
+        <v>37.01851151176271</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>38.62789993030642</v>
+        <v>40.76506251170723</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>12.54744830158796</v>
+        <v>11.9424114879699</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>60.810529938522</v>
+        <v>59.72499812248837</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>67.2802391951933</v>
+        <v>68.68150797864476</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>69.30267866499024</v>
+        <v>70.01382319234091</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>74.39787872424643</v>
+        <v>75.78829805046774</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>79.97863674772771</v>
+        <v>80.44849833835016</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>16.52512383501571</v>
+        <v>15.2444866311114</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>60.39746085098553</v>
+        <v>58.25407812018946</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>70.31804959759634</v>
+        <v>68.45695518786627</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>7.55313897589533</v>
+        <v>8.051187398159122</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.74406656098068</v>
+        <v>25.61251996091561</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>32.04366538621433</v>
+        <v>32.49084176232962</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>2.306114256765408</v>
+        <v>1.962369385596777</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>30.8289101454683</v>
+        <v>30.45585531653956</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>34.60257651200978</v>
+        <v>33.52327496879394</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.500565262507642</v>
+        <v>8.498873932027283</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>51.16482125851958</v>
+        <v>51.5768560892941</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>54.76045974449067</v>
+        <v>54.92789477528576</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>56.70168741303075</v>
+        <v>55.86269381479689</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>62.25604801734715</v>
+        <v>62.87898447565599</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>58.75359641187035</v>
+        <v>59.99742628462479</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>5.813832445876258</v>
+        <v>5.742894777618284</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.70154068201856</v>
+        <v>36.69584573691458</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.22716247627602</v>
+        <v>41.90283015647772</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>10.93729673597242</v>
+        <v>11.21318641510043</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.13971892072588</v>
+        <v>32.57437120445346</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.12578295510247</v>
+        <v>38.57980783559438</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1.049357982930747</v>
+        <v>1.871029948387047</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.39328245285455</v>
+        <v>25.74289883040107</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.32751041712196</v>
+        <v>35.95556800101399</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>7.961970859393695</v>
+        <v>7.587352996112044</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>46.13260525460728</v>
+        <v>45.1279415403071</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>57.1907140474415</v>
+        <v>58.51948792146472</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.56012813025323</v>
+        <v>47.48959271204548</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>57.37873205997707</v>
+        <v>61.11819211316784</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>62.41079790838204</v>
+        <v>65.43104724292874</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>6.991119718243027</v>
+        <v>7.239151410665841</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>55.25636109575709</v>
+        <v>49.08870356820286</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>54.22122356520537</v>
+        <v>54.44233705529442</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>10.82540108390026</v>
+        <v>12.47843991302634</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>30.38492221991672</v>
+        <v>31.15744800682982</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>41.00238870479221</v>
+        <v>42.61008014315961</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>0.464963531467145</v>
+        <v>-1.127671965717855</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.54459814066277</v>
+        <v>23.5166402863652</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>37.34725558090079</v>
+        <v>35.35209525339082</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>5.603004229780687</v>
+        <v>4.28151930232427</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>45.19357593795753</v>
+        <v>44.81805111546727</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>64.11772101756293</v>
+        <v>63.59012598604438</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>61.48021966856244</v>
+        <v>58.72986702787246</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>70.28523133128348</v>
+        <v>69.66058153849517</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>82.37278113341256</v>
+        <v>80.90522881409744</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>5.106309717694963</v>
+        <v>5.222908166645766</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>52.84303270862352</v>
+        <v>50.28483359386204</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>67.06025258403031</v>
+        <v>64.82113162332642</v>
       </c>
     </row>
   </sheetData>
